--- a/bismarck.xlsx
+++ b/bismarck.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="11">
   <si>
     <t>contorno</t>
   </si>
@@ -38,6 +38,15 @@
   </si>
   <si>
     <t>canhao naval grande 2</t>
+  </si>
+  <si>
+    <t>canhao naval grande base msm</t>
+  </si>
+  <si>
+    <t>canhao naval grande 1 msm</t>
+  </si>
+  <si>
+    <t>canhao naval grande 2 msm</t>
   </si>
 </sst>
 </file>
@@ -379,15 +388,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S35"/>
+  <dimension ref="A1:AE65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N13" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView tabSelected="1" topLeftCell="M40" workbookViewId="0">
+      <selection activeCell="Q46" sqref="Q46:R52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -403,8 +412,17 @@
       <c r="Q1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -438,8 +456,29 @@
       <c r="R2">
         <v>-14.8</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U2">
+        <v>2</v>
+      </c>
+      <c r="V2">
+        <f>R2-6</f>
+        <v>-20.8</v>
+      </c>
+      <c r="Y2">
+        <v>2</v>
+      </c>
+      <c r="Z2">
+        <f>V2+18+6+21.2</f>
+        <v>24.4</v>
+      </c>
+      <c r="AC2">
+        <v>2</v>
+      </c>
+      <c r="AD2">
+        <f>Z2+6</f>
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -473,8 +512,29 @@
       <c r="R3">
         <v>-15.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U3">
+        <v>2.4</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V8" si="3">R3-6</f>
+        <v>-21.4</v>
+      </c>
+      <c r="Y3">
+        <v>2.4</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z8" si="4">V3+18+6+21.2</f>
+        <v>23.8</v>
+      </c>
+      <c r="AC3">
+        <v>2.4</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" ref="AD3:AD8" si="5">Z3+6</f>
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2.2000000000000002</v>
       </c>
@@ -508,8 +568,29 @@
       <c r="R4">
         <v>-16.399999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U4">
+        <v>2.7</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="3"/>
+        <v>-22.4</v>
+      </c>
+      <c r="Y4">
+        <v>2.7</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="4"/>
+        <v>22.8</v>
+      </c>
+      <c r="AC4">
+        <v>2.7</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" si="5"/>
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3.7</v>
       </c>
@@ -543,8 +624,29 @@
       <c r="R5">
         <v>-17.399999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U5">
+        <v>2.4</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="3"/>
+        <v>-23.4</v>
+      </c>
+      <c r="Y5">
+        <v>2.4</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="4"/>
+        <v>21.8</v>
+      </c>
+      <c r="AC5">
+        <v>2.4</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="5"/>
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -578,8 +680,29 @@
       <c r="R6">
         <v>-18</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U6">
+        <v>2</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="3"/>
+        <v>-24</v>
+      </c>
+      <c r="Y6">
+        <v>2</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="4"/>
+        <v>21.2</v>
+      </c>
+      <c r="AC6">
+        <v>2</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="5"/>
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -613,8 +736,29 @@
       <c r="R7">
         <v>-18</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U7">
+        <v>-2.5</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="3"/>
+        <v>-24</v>
+      </c>
+      <c r="Y7">
+        <v>-2.5</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="4"/>
+        <v>21.2</v>
+      </c>
+      <c r="AC7">
+        <v>-2.5</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="5"/>
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -648,8 +792,29 @@
       <c r="R8">
         <v>-14.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U8">
+        <v>-2.5</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="3"/>
+        <v>-20.8</v>
+      </c>
+      <c r="Y8">
+        <v>-2.5</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="4"/>
+        <v>24.4</v>
+      </c>
+      <c r="AC8">
+        <v>-2.5</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="5"/>
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7.5</v>
       </c>
@@ -680,8 +845,17 @@
       <c r="Q9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7.8</v>
       </c>
@@ -718,8 +892,35 @@
       <c r="S10">
         <v>135</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U10">
+        <v>129</v>
+      </c>
+      <c r="V10">
+        <v>131</v>
+      </c>
+      <c r="W10">
+        <v>135</v>
+      </c>
+      <c r="Y10">
+        <v>129</v>
+      </c>
+      <c r="Z10">
+        <v>131</v>
+      </c>
+      <c r="AA10">
+        <v>135</v>
+      </c>
+      <c r="AC10">
+        <v>129</v>
+      </c>
+      <c r="AD10">
+        <v>131</v>
+      </c>
+      <c r="AE10">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7.2</v>
       </c>
@@ -743,7 +944,7 @@
         <v>-2.2727272727272728E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6.8</v>
       </c>
@@ -775,8 +976,17 @@
       <c r="Q12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>6</v>
       </c>
@@ -802,8 +1012,29 @@
       <c r="R13">
         <v>-15.3</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U13">
+        <v>-2.5</v>
+      </c>
+      <c r="V13">
+        <f>R13-6</f>
+        <v>-21.3</v>
+      </c>
+      <c r="Y13">
+        <v>-2.5</v>
+      </c>
+      <c r="Z13">
+        <f>V13+18+6+21.2</f>
+        <v>23.9</v>
+      </c>
+      <c r="AC13">
+        <v>-2.5</v>
+      </c>
+      <c r="AD13">
+        <f>Z13+6</f>
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
@@ -829,8 +1060,29 @@
       <c r="R14">
         <v>-15.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U14">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="V14">
+        <f t="shared" ref="V14:V19" si="6">R14-6</f>
+        <v>-21.5</v>
+      </c>
+      <c r="Y14">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" ref="Z14:Z19" si="7">V14+18+6+21.2</f>
+        <v>23.7</v>
+      </c>
+      <c r="AC14">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" ref="AD14:AD19" si="8">Z14+6</f>
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3.7</v>
       </c>
@@ -856,8 +1108,29 @@
       <c r="R15">
         <v>-15.8</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U15">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="6"/>
+        <v>-21.8</v>
+      </c>
+      <c r="Y15">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="7"/>
+        <v>23.4</v>
+      </c>
+      <c r="AC15">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="8"/>
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2.5</v>
       </c>
@@ -883,8 +1156,29 @@
       <c r="R16">
         <v>-16</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U16">
+        <v>-2.5</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="6"/>
+        <v>-22</v>
+      </c>
+      <c r="Y16">
+        <v>-2.5</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="7"/>
+        <v>23.2</v>
+      </c>
+      <c r="AC16">
+        <v>-2.5</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="8"/>
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1.5</v>
       </c>
@@ -910,8 +1204,29 @@
       <c r="R17">
         <v>-15.8</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U17">
+        <v>-5.8</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="6"/>
+        <v>-21.8</v>
+      </c>
+      <c r="Y17">
+        <v>-5.8</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="7"/>
+        <v>23.4</v>
+      </c>
+      <c r="AC17">
+        <v>-5.8</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="8"/>
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -937,8 +1252,29 @@
       <c r="R18">
         <v>-15.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U18">
+        <v>-5.8</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="6"/>
+        <v>-21.5</v>
+      </c>
+      <c r="Y18">
+        <v>-5.8</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="7"/>
+        <v>23.7</v>
+      </c>
+      <c r="AC18">
+        <v>-5.8</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="8"/>
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -960,8 +1296,29 @@
       <c r="R19">
         <v>-15.3</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U19">
+        <v>-2.5</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="6"/>
+        <v>-21.3</v>
+      </c>
+      <c r="Y19">
+        <v>-2.5</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="7"/>
+        <v>23.9</v>
+      </c>
+      <c r="AC19">
+        <v>-2.5</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="8"/>
+        <v>29.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>170</v>
       </c>
@@ -986,8 +1343,17 @@
       <c r="Q20" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U20" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="E21">
         <v>0.8136363636363636</v>
       </c>
@@ -1006,8 +1372,35 @@
       <c r="S21">
         <v>71</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U21">
+        <v>71</v>
+      </c>
+      <c r="V21">
+        <v>71</v>
+      </c>
+      <c r="W21">
+        <v>71</v>
+      </c>
+      <c r="Y21">
+        <v>71</v>
+      </c>
+      <c r="Z21">
+        <v>71</v>
+      </c>
+      <c r="AA21">
+        <v>71</v>
+      </c>
+      <c r="AC21">
+        <v>71</v>
+      </c>
+      <c r="AD21">
+        <v>71</v>
+      </c>
+      <c r="AE21">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="E22">
         <v>0.69772727272727275</v>
       </c>
@@ -1019,15 +1412,15 @@
         <v>0.41960784313725491</v>
       </c>
       <c r="N22">
-        <f t="shared" ref="N22:O22" si="3">J12/255</f>
+        <f t="shared" ref="N22:O22" si="9">J12/255</f>
         <v>0.41960784313725491</v>
       </c>
       <c r="O22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.41960784313725491</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="E23">
         <v>0.55681818181818177</v>
       </c>
@@ -1037,8 +1430,17 @@
       <c r="Q23" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="E24">
         <v>0.32954545454545453</v>
       </c>
@@ -1051,8 +1453,29 @@
       <c r="R24">
         <v>-16.8</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U24">
+        <v>-2.5</v>
+      </c>
+      <c r="V24">
+        <f>R24-6</f>
+        <v>-22.8</v>
+      </c>
+      <c r="Y24">
+        <v>-2.5</v>
+      </c>
+      <c r="Z24">
+        <f>V24+18+6+21.2</f>
+        <v>22.4</v>
+      </c>
+      <c r="AC24">
+        <v>-2.5</v>
+      </c>
+      <c r="AD24">
+        <f>Z24+6</f>
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="E25">
         <v>0.19318181818181818</v>
       </c>
@@ -1065,8 +1488,29 @@
       <c r="R25">
         <v>-17</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U25">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="V25">
+        <f t="shared" ref="V25:V30" si="10">R25-6</f>
+        <v>-23</v>
+      </c>
+      <c r="Y25">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" ref="Z25:Z30" si="11">V25+18+6+21.2</f>
+        <v>22.2</v>
+      </c>
+      <c r="AC25">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" ref="AD25:AD30" si="12">Z25+6</f>
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="E26">
         <v>0</v>
       </c>
@@ -1079,8 +1523,29 @@
       <c r="R26">
         <v>-17.3</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U26">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="10"/>
+        <v>-23.3</v>
+      </c>
+      <c r="Y26">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="11"/>
+        <v>21.9</v>
+      </c>
+      <c r="AC26">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="12"/>
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="E27">
         <v>-0.10227272727272728</v>
       </c>
@@ -1093,8 +1558,29 @@
       <c r="R27">
         <v>-17.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U27">
+        <v>-2.5</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="10"/>
+        <v>-23.5</v>
+      </c>
+      <c r="Y27">
+        <v>-2.5</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="11"/>
+        <v>21.7</v>
+      </c>
+      <c r="AC27">
+        <v>-2.5</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="12"/>
+        <v>27.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="E28">
         <v>-0.2340909090909091</v>
       </c>
@@ -1107,8 +1593,29 @@
       <c r="R28">
         <v>-17.3</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U28">
+        <v>-5.8</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="10"/>
+        <v>-23.3</v>
+      </c>
+      <c r="Y28">
+        <v>-5.8</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="11"/>
+        <v>21.9</v>
+      </c>
+      <c r="AC28">
+        <v>-5.8</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="12"/>
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="E29">
         <v>-0.38636363636363635</v>
       </c>
@@ -1121,8 +1628,29 @@
       <c r="R29">
         <v>-17</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U29">
+        <v>-5.8</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="10"/>
+        <v>-23</v>
+      </c>
+      <c r="Y29">
+        <v>-5.8</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="11"/>
+        <v>22.2</v>
+      </c>
+      <c r="AC29">
+        <v>-5.8</v>
+      </c>
+      <c r="AD29">
+        <f t="shared" si="12"/>
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="E30">
         <v>-0.53409090909090906</v>
       </c>
@@ -1135,8 +1663,29 @@
       <c r="R30">
         <v>-16.8</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U30">
+        <v>-2.5</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="10"/>
+        <v>-22.8</v>
+      </c>
+      <c r="Y30">
+        <v>-2.5</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="11"/>
+        <v>22.4</v>
+      </c>
+      <c r="AC30">
+        <v>-2.5</v>
+      </c>
+      <c r="AD30">
+        <f t="shared" si="12"/>
+        <v>28.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="E31">
         <v>-0.6886363636363636</v>
       </c>
@@ -1146,8 +1695,17 @@
       <c r="Q31" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U31" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="E32">
         <v>-0.84090909090909094</v>
       </c>
@@ -1163,8 +1721,35 @@
       <c r="S32">
         <v>71</v>
       </c>
-    </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="U32">
+        <v>71</v>
+      </c>
+      <c r="V32">
+        <v>71</v>
+      </c>
+      <c r="W32">
+        <v>71</v>
+      </c>
+      <c r="Y32">
+        <v>71</v>
+      </c>
+      <c r="Z32">
+        <v>71</v>
+      </c>
+      <c r="AA32">
+        <v>71</v>
+      </c>
+      <c r="AC32">
+        <v>71</v>
+      </c>
+      <c r="AD32">
+        <v>71</v>
+      </c>
+      <c r="AE32">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="5:31" x14ac:dyDescent="0.25">
       <c r="E33">
         <v>-0.95454545454545459</v>
       </c>
@@ -1172,26 +1757,970 @@
         <v>-2.2727272727272728E-2</v>
       </c>
     </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:31" x14ac:dyDescent="0.25">
       <c r="E34">
         <v>-1</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="Q34" t="s">
+        <v>8</v>
+      </c>
+      <c r="U34" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="5:31" x14ac:dyDescent="0.25">
       <c r="E35">
         <f>A20/255</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="F35">
-        <f t="shared" ref="F35:G35" si="4">B20/255</f>
+        <f t="shared" ref="F35:G35" si="13">B20/255</f>
         <v>0.52156862745098043</v>
       </c>
       <c r="G35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0.38823529411764707</v>
+      </c>
+      <c r="Q35">
+        <f>Q2/44</f>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="R35">
+        <f>R2/44</f>
+        <v>-0.33636363636363636</v>
+      </c>
+      <c r="U35">
+        <f>U2/44</f>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="V35">
+        <f>V2/44</f>
+        <v>-0.47272727272727272</v>
+      </c>
+      <c r="Y35">
+        <f>Y2/44</f>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="Z35">
+        <f>Z2/44</f>
+        <v>0.55454545454545456</v>
+      </c>
+      <c r="AC35">
+        <f>AC2/44</f>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="AD35">
+        <f>AD2/44</f>
+        <v>0.69090909090909092</v>
+      </c>
+    </row>
+    <row r="36" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="Q36">
+        <f t="shared" ref="Q36:R36" si="14">Q3/44</f>
+        <v>5.4545454545454543E-2</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="14"/>
+        <v>-0.35000000000000003</v>
+      </c>
+      <c r="U36">
+        <f t="shared" ref="U36:V36" si="15">U3/44</f>
+        <v>5.4545454545454543E-2</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="15"/>
+        <v>-0.48636363636363633</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" ref="Y36:Z36" si="16">Y3/44</f>
+        <v>5.4545454545454543E-2</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="16"/>
+        <v>0.54090909090909089</v>
+      </c>
+      <c r="AC36">
+        <f t="shared" ref="AC36:AD36" si="17">AC3/44</f>
+        <v>5.4545454545454543E-2</v>
+      </c>
+      <c r="AD36">
+        <f t="shared" si="17"/>
+        <v>0.67727272727272725</v>
+      </c>
+    </row>
+    <row r="37" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="Q37">
+        <f t="shared" ref="Q37:R37" si="18">Q4/44</f>
+        <v>6.136363636363637E-2</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="18"/>
+        <v>-0.37272727272727268</v>
+      </c>
+      <c r="U37">
+        <f t="shared" ref="U37:V37" si="19">U4/44</f>
+        <v>6.136363636363637E-2</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="19"/>
+        <v>-0.50909090909090904</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" ref="Y37:Z37" si="20">Y4/44</f>
+        <v>6.136363636363637E-2</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="20"/>
+        <v>0.51818181818181819</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" ref="AC37:AD37" si="21">AC4/44</f>
+        <v>6.136363636363637E-2</v>
+      </c>
+      <c r="AD37">
+        <f t="shared" si="21"/>
+        <v>0.65454545454545454</v>
+      </c>
+    </row>
+    <row r="38" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="Q38">
+        <f t="shared" ref="Q38:R38" si="22">Q5/44</f>
+        <v>5.4545454545454543E-2</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="22"/>
+        <v>-0.39545454545454545</v>
+      </c>
+      <c r="U38">
+        <f t="shared" ref="U38:V38" si="23">U5/44</f>
+        <v>5.4545454545454543E-2</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="23"/>
+        <v>-0.53181818181818175</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" ref="Y38:Z38" si="24">Y5/44</f>
+        <v>5.4545454545454543E-2</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="24"/>
+        <v>0.49545454545454548</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" ref="AC38:AD38" si="25">AC5/44</f>
+        <v>5.4545454545454543E-2</v>
+      </c>
+      <c r="AD38">
+        <f t="shared" si="25"/>
+        <v>0.63181818181818183</v>
+      </c>
+    </row>
+    <row r="39" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="Q39">
+        <f t="shared" ref="Q39:R39" si="26">Q6/44</f>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="26"/>
+        <v>-0.40909090909090912</v>
+      </c>
+      <c r="U39">
+        <f t="shared" ref="U39:V39" si="27">U6/44</f>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="27"/>
+        <v>-0.54545454545454541</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" ref="Y39:Z39" si="28">Y6/44</f>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="28"/>
+        <v>0.48181818181818181</v>
+      </c>
+      <c r="AC39">
+        <f t="shared" ref="AC39:AD39" si="29">AC6/44</f>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="AD39">
+        <f t="shared" si="29"/>
+        <v>0.61818181818181817</v>
+      </c>
+    </row>
+    <row r="40" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="Q40">
+        <f t="shared" ref="Q40:R40" si="30">Q7/44</f>
+        <v>-5.6818181818181816E-2</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="30"/>
+        <v>-0.40909090909090912</v>
+      </c>
+      <c r="U40">
+        <f t="shared" ref="U40:V40" si="31">U7/44</f>
+        <v>-5.6818181818181816E-2</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="31"/>
+        <v>-0.54545454545454541</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" ref="Y40:Z40" si="32">Y7/44</f>
+        <v>-5.6818181818181816E-2</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="32"/>
+        <v>0.48181818181818181</v>
+      </c>
+      <c r="AC40">
+        <f t="shared" ref="AC40:AD40" si="33">AC7/44</f>
+        <v>-5.6818181818181816E-2</v>
+      </c>
+      <c r="AD40">
+        <f t="shared" si="33"/>
+        <v>0.61818181818181817</v>
+      </c>
+    </row>
+    <row r="41" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="Q41">
+        <f t="shared" ref="Q41:R41" si="34">Q8/44</f>
+        <v>-5.6818181818181816E-2</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="34"/>
+        <v>-0.33636363636363636</v>
+      </c>
+      <c r="U41">
+        <f t="shared" ref="U41:V41" si="35">U8/44</f>
+        <v>-5.6818181818181816E-2</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="35"/>
+        <v>-0.47272727272727272</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" ref="Y41:Z41" si="36">Y8/44</f>
+        <v>-5.6818181818181816E-2</v>
+      </c>
+      <c r="Z41">
+        <f t="shared" si="36"/>
+        <v>0.55454545454545456</v>
+      </c>
+      <c r="AC41">
+        <f t="shared" ref="AC41:AD41" si="37">AC8/44</f>
+        <v>-5.6818181818181816E-2</v>
+      </c>
+      <c r="AD41">
+        <f t="shared" si="37"/>
+        <v>0.69090909090909092</v>
+      </c>
+    </row>
+    <row r="42" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="Q42" t="s">
+        <v>1</v>
+      </c>
+      <c r="U42" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="Q43">
+        <f>Q10/255</f>
+        <v>0.50588235294117645</v>
+      </c>
+      <c r="R43">
+        <f t="shared" ref="R43:S43" si="38">R10/255</f>
+        <v>0.51372549019607838</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="38"/>
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="U43">
+        <f>U10/255</f>
+        <v>0.50588235294117645</v>
+      </c>
+      <c r="V43">
+        <f t="shared" ref="V43:W43" si="39">V10/255</f>
+        <v>0.51372549019607838</v>
+      </c>
+      <c r="W43">
+        <f t="shared" si="39"/>
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="Y43">
+        <f>Y10/255</f>
+        <v>0.50588235294117645</v>
+      </c>
+      <c r="Z43">
+        <f t="shared" ref="Z43:AA43" si="40">Z10/255</f>
+        <v>0.51372549019607838</v>
+      </c>
+      <c r="AA43">
+        <f t="shared" si="40"/>
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="AC43">
+        <f>AC10/255</f>
+        <v>0.50588235294117645</v>
+      </c>
+      <c r="AD43">
+        <f t="shared" ref="AD43:AE43" si="41">AD10/255</f>
+        <v>0.51372549019607838</v>
+      </c>
+      <c r="AE43">
+        <f t="shared" si="41"/>
+        <v>0.52941176470588236</v>
+      </c>
+    </row>
+    <row r="45" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="Q45" t="s">
+        <v>9</v>
+      </c>
+      <c r="U45" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="Q46">
+        <f>Q13/44</f>
+        <v>-5.6818181818181816E-2</v>
+      </c>
+      <c r="R46">
+        <f>R13/44</f>
+        <v>-0.34772727272727272</v>
+      </c>
+      <c r="U46">
+        <f>U13/44</f>
+        <v>-5.6818181818181816E-2</v>
+      </c>
+      <c r="V46">
+        <f>V13/44</f>
+        <v>-0.48409090909090913</v>
+      </c>
+      <c r="Y46">
+        <f>Y13/44</f>
+        <v>-5.6818181818181816E-2</v>
+      </c>
+      <c r="Z46">
+        <f>Z13/44</f>
+        <v>0.5431818181818181</v>
+      </c>
+      <c r="AC46">
+        <f>AC13/44</f>
+        <v>-5.6818181818181816E-2</v>
+      </c>
+      <c r="AD46">
+        <f>AD13/44</f>
+        <v>0.67954545454545456</v>
+      </c>
+    </row>
+    <row r="47" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="Q47">
+        <f t="shared" ref="Q47:R47" si="42">Q14/44</f>
+        <v>-0.05</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="42"/>
+        <v>-0.35227272727272729</v>
+      </c>
+      <c r="U47">
+        <f t="shared" ref="U47:V47" si="43">U14/44</f>
+        <v>-0.05</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="43"/>
+        <v>-0.48863636363636365</v>
+      </c>
+      <c r="Y47">
+        <f t="shared" ref="Y47:Z47" si="44">Y14/44</f>
+        <v>-0.05</v>
+      </c>
+      <c r="Z47">
+        <f t="shared" si="44"/>
+        <v>0.53863636363636358</v>
+      </c>
+      <c r="AC47">
+        <f t="shared" ref="AC47:AD47" si="45">AC14/44</f>
+        <v>-0.05</v>
+      </c>
+      <c r="AD47">
+        <f t="shared" si="45"/>
+        <v>0.67499999999999993</v>
+      </c>
+    </row>
+    <row r="48" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="Q48">
+        <f t="shared" ref="Q48:R48" si="46">Q15/44</f>
+        <v>-0.05</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="46"/>
+        <v>-0.35909090909090913</v>
+      </c>
+      <c r="U48">
+        <f t="shared" ref="U48:V48" si="47">U15/44</f>
+        <v>-0.05</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="47"/>
+        <v>-0.49545454545454548</v>
+      </c>
+      <c r="Y48">
+        <f t="shared" ref="Y48:Z48" si="48">Y15/44</f>
+        <v>-0.05</v>
+      </c>
+      <c r="Z48">
+        <f t="shared" si="48"/>
+        <v>0.53181818181818175</v>
+      </c>
+      <c r="AC48">
+        <f t="shared" ref="AC48:AD48" si="49">AC15/44</f>
+        <v>-0.05</v>
+      </c>
+      <c r="AD48">
+        <f t="shared" si="49"/>
+        <v>0.6681818181818181</v>
+      </c>
+    </row>
+    <row r="49" spans="17:31" x14ac:dyDescent="0.25">
+      <c r="Q49">
+        <f t="shared" ref="Q49:R49" si="50">Q16/44</f>
+        <v>-5.6818181818181816E-2</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="50"/>
+        <v>-0.36363636363636365</v>
+      </c>
+      <c r="U49">
+        <f t="shared" ref="U49:V49" si="51">U16/44</f>
+        <v>-5.6818181818181816E-2</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="51"/>
+        <v>-0.5</v>
+      </c>
+      <c r="Y49">
+        <f t="shared" ref="Y49:Z49" si="52">Y16/44</f>
+        <v>-5.6818181818181816E-2</v>
+      </c>
+      <c r="Z49">
+        <f t="shared" si="52"/>
+        <v>0.52727272727272723</v>
+      </c>
+      <c r="AC49">
+        <f t="shared" ref="AC49:AD49" si="53">AC16/44</f>
+        <v>-5.6818181818181816E-2</v>
+      </c>
+      <c r="AD49">
+        <f t="shared" si="53"/>
+        <v>0.66363636363636358</v>
+      </c>
+    </row>
+    <row r="50" spans="17:31" x14ac:dyDescent="0.25">
+      <c r="Q50">
+        <f t="shared" ref="Q50:R50" si="54">Q17/44</f>
+        <v>-0.13181818181818181</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="54"/>
+        <v>-0.35909090909090913</v>
+      </c>
+      <c r="U50">
+        <f t="shared" ref="U50:V50" si="55">U17/44</f>
+        <v>-0.13181818181818181</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="55"/>
+        <v>-0.49545454545454548</v>
+      </c>
+      <c r="Y50">
+        <f t="shared" ref="Y50:Z50" si="56">Y17/44</f>
+        <v>-0.13181818181818181</v>
+      </c>
+      <c r="Z50">
+        <f t="shared" si="56"/>
+        <v>0.53181818181818175</v>
+      </c>
+      <c r="AC50">
+        <f t="shared" ref="AC50:AD50" si="57">AC17/44</f>
+        <v>-0.13181818181818181</v>
+      </c>
+      <c r="AD50">
+        <f t="shared" si="57"/>
+        <v>0.6681818181818181</v>
+      </c>
+    </row>
+    <row r="51" spans="17:31" x14ac:dyDescent="0.25">
+      <c r="Q51">
+        <f t="shared" ref="Q51:R51" si="58">Q18/44</f>
+        <v>-0.13181818181818181</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="58"/>
+        <v>-0.35227272727272729</v>
+      </c>
+      <c r="U51">
+        <f t="shared" ref="U51:V51" si="59">U18/44</f>
+        <v>-0.13181818181818181</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="59"/>
+        <v>-0.48863636363636365</v>
+      </c>
+      <c r="Y51">
+        <f t="shared" ref="Y51:Z51" si="60">Y18/44</f>
+        <v>-0.13181818181818181</v>
+      </c>
+      <c r="Z51">
+        <f t="shared" si="60"/>
+        <v>0.53863636363636358</v>
+      </c>
+      <c r="AC51">
+        <f t="shared" ref="AC51:AD51" si="61">AC18/44</f>
+        <v>-0.13181818181818181</v>
+      </c>
+      <c r="AD51">
+        <f t="shared" si="61"/>
+        <v>0.67499999999999993</v>
+      </c>
+    </row>
+    <row r="52" spans="17:31" x14ac:dyDescent="0.25">
+      <c r="Q52">
+        <f t="shared" ref="Q52:R52" si="62">Q19/44</f>
+        <v>-5.6818181818181816E-2</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="62"/>
+        <v>-0.34772727272727272</v>
+      </c>
+      <c r="U52">
+        <f t="shared" ref="U52:V52" si="63">U19/44</f>
+        <v>-5.6818181818181816E-2</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="63"/>
+        <v>-0.48409090909090913</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" ref="Y52:Z52" si="64">Y19/44</f>
+        <v>-5.6818181818181816E-2</v>
+      </c>
+      <c r="Z52">
+        <f t="shared" si="64"/>
+        <v>0.5431818181818181</v>
+      </c>
+      <c r="AC52">
+        <f t="shared" ref="AC52:AD52" si="65">AC19/44</f>
+        <v>-5.6818181818181816E-2</v>
+      </c>
+      <c r="AD52">
+        <f t="shared" si="65"/>
+        <v>0.67954545454545456</v>
+      </c>
+    </row>
+    <row r="53" spans="17:31" x14ac:dyDescent="0.25">
+      <c r="Q53" t="s">
+        <v>1</v>
+      </c>
+      <c r="U53" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="17:31" x14ac:dyDescent="0.25">
+      <c r="Q54">
+        <f>Q21/255</f>
+        <v>0.27843137254901962</v>
+      </c>
+      <c r="R54">
+        <f t="shared" ref="R54:S54" si="66">R21/255</f>
+        <v>0.27843137254901962</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="66"/>
+        <v>0.27843137254901962</v>
+      </c>
+      <c r="U54">
+        <f>U21/255</f>
+        <v>0.27843137254901962</v>
+      </c>
+      <c r="V54">
+        <f t="shared" ref="V54:W54" si="67">V21/255</f>
+        <v>0.27843137254901962</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="67"/>
+        <v>0.27843137254901962</v>
+      </c>
+      <c r="Y54">
+        <f>Y21/255</f>
+        <v>0.27843137254901962</v>
+      </c>
+      <c r="Z54">
+        <f t="shared" ref="Z54:AA54" si="68">Z21/255</f>
+        <v>0.27843137254901962</v>
+      </c>
+      <c r="AA54">
+        <f t="shared" si="68"/>
+        <v>0.27843137254901962</v>
+      </c>
+      <c r="AC54">
+        <f>AC21/255</f>
+        <v>0.27843137254901962</v>
+      </c>
+      <c r="AD54">
+        <f t="shared" ref="AD54:AE54" si="69">AD21/255</f>
+        <v>0.27843137254901962</v>
+      </c>
+      <c r="AE54">
+        <f t="shared" si="69"/>
+        <v>0.27843137254901962</v>
+      </c>
+    </row>
+    <row r="56" spans="17:31" x14ac:dyDescent="0.25">
+      <c r="Q56" t="s">
+        <v>10</v>
+      </c>
+      <c r="U56" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="17:31" x14ac:dyDescent="0.25">
+      <c r="Q57">
+        <f>Q24/44</f>
+        <v>-5.6818181818181816E-2</v>
+      </c>
+      <c r="R57">
+        <f>R24/44</f>
+        <v>-0.38181818181818183</v>
+      </c>
+      <c r="U57">
+        <f>U24/44</f>
+        <v>-5.6818181818181816E-2</v>
+      </c>
+      <c r="V57">
+        <f>V24/44</f>
+        <v>-0.51818181818181819</v>
+      </c>
+      <c r="Y57">
+        <f>Y24/44</f>
+        <v>-5.6818181818181816E-2</v>
+      </c>
+      <c r="Z57">
+        <f>Z24/44</f>
+        <v>0.50909090909090904</v>
+      </c>
+      <c r="AC57">
+        <f>AC24/44</f>
+        <v>-5.6818181818181816E-2</v>
+      </c>
+      <c r="AD57">
+        <f>AD24/44</f>
+        <v>0.64545454545454539</v>
+      </c>
+    </row>
+    <row r="58" spans="17:31" x14ac:dyDescent="0.25">
+      <c r="Q58">
+        <f t="shared" ref="Q58:R58" si="70">Q25/44</f>
+        <v>-0.05</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="70"/>
+        <v>-0.38636363636363635</v>
+      </c>
+      <c r="U58">
+        <f t="shared" ref="U58:V58" si="71">U25/44</f>
+        <v>-0.05</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="71"/>
+        <v>-0.52272727272727271</v>
+      </c>
+      <c r="Y58">
+        <f t="shared" ref="Y58:Z58" si="72">Y25/44</f>
+        <v>-0.05</v>
+      </c>
+      <c r="Z58">
+        <f t="shared" si="72"/>
+        <v>0.50454545454545452</v>
+      </c>
+      <c r="AC58">
+        <f t="shared" ref="AC58:AD58" si="73">AC25/44</f>
+        <v>-0.05</v>
+      </c>
+      <c r="AD58">
+        <f t="shared" si="73"/>
+        <v>0.64090909090909087</v>
+      </c>
+    </row>
+    <row r="59" spans="17:31" x14ac:dyDescent="0.25">
+      <c r="Q59">
+        <f t="shared" ref="Q59:R59" si="74">Q26/44</f>
+        <v>-0.05</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="74"/>
+        <v>-0.39318181818181819</v>
+      </c>
+      <c r="U59">
+        <f t="shared" ref="U59:V59" si="75">U26/44</f>
+        <v>-0.05</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="75"/>
+        <v>-0.52954545454545454</v>
+      </c>
+      <c r="Y59">
+        <f t="shared" ref="Y59:Z59" si="76">Y26/44</f>
+        <v>-0.05</v>
+      </c>
+      <c r="Z59">
+        <f t="shared" si="76"/>
+        <v>0.49772727272727268</v>
+      </c>
+      <c r="AC59">
+        <f t="shared" ref="AC59:AD59" si="77">AC26/44</f>
+        <v>-0.05</v>
+      </c>
+      <c r="AD59">
+        <f t="shared" si="77"/>
+        <v>0.63409090909090904</v>
+      </c>
+    </row>
+    <row r="60" spans="17:31" x14ac:dyDescent="0.25">
+      <c r="Q60">
+        <f t="shared" ref="Q60:R60" si="78">Q27/44</f>
+        <v>-5.6818181818181816E-2</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="78"/>
+        <v>-0.39772727272727271</v>
+      </c>
+      <c r="U60">
+        <f t="shared" ref="U60:V60" si="79">U27/44</f>
+        <v>-5.6818181818181816E-2</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="79"/>
+        <v>-0.53409090909090906</v>
+      </c>
+      <c r="Y60">
+        <f t="shared" ref="Y60:Z60" si="80">Y27/44</f>
+        <v>-5.6818181818181816E-2</v>
+      </c>
+      <c r="Z60">
+        <f t="shared" si="80"/>
+        <v>0.49318181818181817</v>
+      </c>
+      <c r="AC60">
+        <f t="shared" ref="AC60:AD60" si="81">AC27/44</f>
+        <v>-5.6818181818181816E-2</v>
+      </c>
+      <c r="AD60">
+        <f t="shared" si="81"/>
+        <v>0.62954545454545452</v>
+      </c>
+    </row>
+    <row r="61" spans="17:31" x14ac:dyDescent="0.25">
+      <c r="Q61">
+        <f t="shared" ref="Q61:R61" si="82">Q28/44</f>
+        <v>-0.13181818181818181</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="82"/>
+        <v>-0.39318181818181819</v>
+      </c>
+      <c r="U61">
+        <f t="shared" ref="U61:V61" si="83">U28/44</f>
+        <v>-0.13181818181818181</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="83"/>
+        <v>-0.52954545454545454</v>
+      </c>
+      <c r="Y61">
+        <f t="shared" ref="Y61:Z61" si="84">Y28/44</f>
+        <v>-0.13181818181818181</v>
+      </c>
+      <c r="Z61">
+        <f t="shared" si="84"/>
+        <v>0.49772727272727268</v>
+      </c>
+      <c r="AC61">
+        <f t="shared" ref="AC61:AD61" si="85">AC28/44</f>
+        <v>-0.13181818181818181</v>
+      </c>
+      <c r="AD61">
+        <f t="shared" si="85"/>
+        <v>0.63409090909090904</v>
+      </c>
+    </row>
+    <row r="62" spans="17:31" x14ac:dyDescent="0.25">
+      <c r="Q62">
+        <f t="shared" ref="Q62:R62" si="86">Q29/44</f>
+        <v>-0.13181818181818181</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="86"/>
+        <v>-0.38636363636363635</v>
+      </c>
+      <c r="U62">
+        <f t="shared" ref="U62:V62" si="87">U29/44</f>
+        <v>-0.13181818181818181</v>
+      </c>
+      <c r="V62">
+        <f t="shared" si="87"/>
+        <v>-0.52272727272727271</v>
+      </c>
+      <c r="Y62">
+        <f t="shared" ref="Y62:Z62" si="88">Y29/44</f>
+        <v>-0.13181818181818181</v>
+      </c>
+      <c r="Z62">
+        <f t="shared" si="88"/>
+        <v>0.50454545454545452</v>
+      </c>
+      <c r="AC62">
+        <f t="shared" ref="AC62:AD62" si="89">AC29/44</f>
+        <v>-0.13181818181818181</v>
+      </c>
+      <c r="AD62">
+        <f t="shared" si="89"/>
+        <v>0.64090909090909087</v>
+      </c>
+    </row>
+    <row r="63" spans="17:31" x14ac:dyDescent="0.25">
+      <c r="Q63">
+        <f t="shared" ref="Q63:R63" si="90">Q30/44</f>
+        <v>-5.6818181818181816E-2</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="90"/>
+        <v>-0.38181818181818183</v>
+      </c>
+      <c r="U63">
+        <f t="shared" ref="U63:V63" si="91">U30/44</f>
+        <v>-5.6818181818181816E-2</v>
+      </c>
+      <c r="V63">
+        <f t="shared" si="91"/>
+        <v>-0.51818181818181819</v>
+      </c>
+      <c r="Y63">
+        <f t="shared" ref="Y63:Z63" si="92">Y30/44</f>
+        <v>-5.6818181818181816E-2</v>
+      </c>
+      <c r="Z63">
+        <f t="shared" si="92"/>
+        <v>0.50909090909090904</v>
+      </c>
+      <c r="AC63">
+        <f t="shared" ref="AC63:AD63" si="93">AC30/44</f>
+        <v>-5.6818181818181816E-2</v>
+      </c>
+      <c r="AD63">
+        <f t="shared" si="93"/>
+        <v>0.64545454545454539</v>
+      </c>
+    </row>
+    <row r="64" spans="17:31" x14ac:dyDescent="0.25">
+      <c r="Q64" t="s">
+        <v>1</v>
+      </c>
+      <c r="U64" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="17:31" x14ac:dyDescent="0.25">
+      <c r="Q65">
+        <f>Q32/255</f>
+        <v>0.27843137254901962</v>
+      </c>
+      <c r="R65">
+        <f t="shared" ref="R65:S65" si="94">R32/255</f>
+        <v>0.27843137254901962</v>
+      </c>
+      <c r="S65">
+        <f t="shared" si="94"/>
+        <v>0.27843137254901962</v>
+      </c>
+      <c r="U65">
+        <f>U32/255</f>
+        <v>0.27843137254901962</v>
+      </c>
+      <c r="V65">
+        <f t="shared" ref="V65:W65" si="95">V32/255</f>
+        <v>0.27843137254901962</v>
+      </c>
+      <c r="W65">
+        <f t="shared" si="95"/>
+        <v>0.27843137254901962</v>
+      </c>
+      <c r="Y65">
+        <f>Y32/255</f>
+        <v>0.27843137254901962</v>
+      </c>
+      <c r="Z65">
+        <f t="shared" ref="Z65:AA65" si="96">Z32/255</f>
+        <v>0.27843137254901962</v>
+      </c>
+      <c r="AA65">
+        <f t="shared" si="96"/>
+        <v>0.27843137254901962</v>
+      </c>
+      <c r="AC65">
+        <f>AC32/255</f>
+        <v>0.27843137254901962</v>
+      </c>
+      <c r="AD65">
+        <f t="shared" ref="AD65:AE65" si="97">AD32/255</f>
+        <v>0.27843137254901962</v>
+      </c>
+      <c r="AE65">
+        <f t="shared" si="97"/>
+        <v>0.27843137254901962</v>
       </c>
     </row>
   </sheetData>

--- a/bismarck.xlsx
+++ b/bismarck.xlsx
@@ -390,8 +390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M40" workbookViewId="0">
-      <selection activeCell="Q46" sqref="Q46:R52"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB24" sqref="AB24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,31 +451,34 @@
         <v>4.5454545454545456E-2</v>
       </c>
       <c r="Q2">
+        <v>-14.8</v>
+      </c>
+      <c r="R2">
         <v>2</v>
       </c>
-      <c r="R2">
-        <v>-14.8</v>
-      </c>
       <c r="U2">
+        <f>Q2-6</f>
+        <v>-20.8</v>
+      </c>
+      <c r="V2">
+        <f>R2</f>
         <v>2</v>
       </c>
-      <c r="V2">
-        <f>R2-6</f>
-        <v>-20.8</v>
-      </c>
       <c r="Y2">
+        <f>U2+18+6+21.2</f>
+        <v>24.4</v>
+      </c>
+      <c r="Z2">
+        <f>V2</f>
         <v>2</v>
       </c>
-      <c r="Z2">
-        <f>V2+18+6+21.2</f>
-        <v>24.4</v>
-      </c>
       <c r="AC2">
+        <f>Y2+6</f>
+        <v>30.4</v>
+      </c>
+      <c r="AD2">
+        <f>Z2</f>
         <v>2</v>
-      </c>
-      <c r="AD2">
-        <f>Z2+6</f>
-        <v>30.4</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -507,31 +510,34 @@
         <v>6.8181818181818177E-2</v>
       </c>
       <c r="Q3">
+        <v>-15.4</v>
+      </c>
+      <c r="R3">
         <v>2.4</v>
       </c>
-      <c r="R3">
-        <v>-15.4</v>
-      </c>
       <c r="U3">
+        <f t="shared" ref="U3:U8" si="3">Q3-6</f>
+        <v>-21.4</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V8" si="4">R3</f>
         <v>2.4</v>
       </c>
-      <c r="V3">
-        <f t="shared" ref="V3:V8" si="3">R3-6</f>
-        <v>-21.4</v>
-      </c>
       <c r="Y3">
+        <f t="shared" ref="Y3:Z8" si="5">U3+18+6+21.2</f>
+        <v>23.8</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z8" si="6">V3</f>
         <v>2.4</v>
       </c>
-      <c r="Z3">
-        <f t="shared" ref="Z3:Z8" si="4">V3+18+6+21.2</f>
-        <v>23.8</v>
-      </c>
       <c r="AC3">
+        <f t="shared" ref="AC3:AD8" si="7">Y3+6</f>
+        <v>29.8</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" ref="AD3:AD8" si="8">Z3</f>
         <v>2.4</v>
-      </c>
-      <c r="AD3">
-        <f t="shared" ref="AD3:AD8" si="5">Z3+6</f>
-        <v>29.8</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
@@ -563,31 +569,34 @@
         <v>6.363636363636363E-2</v>
       </c>
       <c r="Q4">
+        <v>-16.399999999999999</v>
+      </c>
+      <c r="R4">
         <v>2.7</v>
       </c>
-      <c r="R4">
-        <v>-16.399999999999999</v>
-      </c>
       <c r="U4">
-        <v>2.7</v>
-      </c>
-      <c r="V4">
         <f t="shared" si="3"/>
         <v>-22.4</v>
       </c>
+      <c r="V4">
+        <f t="shared" si="4"/>
+        <v>2.7</v>
+      </c>
       <c r="Y4">
+        <f t="shared" si="5"/>
+        <v>22.8</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="6"/>
         <v>2.7</v>
       </c>
-      <c r="Z4">
-        <f t="shared" si="4"/>
-        <v>22.8</v>
-      </c>
       <c r="AC4">
+        <f t="shared" si="7"/>
+        <v>28.8</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" si="8"/>
         <v>2.7</v>
-      </c>
-      <c r="AD4">
-        <f t="shared" si="5"/>
-        <v>28.8</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -619,31 +628,34 @@
         <v>4.0909090909090909E-2</v>
       </c>
       <c r="Q5">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="R5">
         <v>2.4</v>
       </c>
-      <c r="R5">
-        <v>-17.399999999999999</v>
-      </c>
       <c r="U5">
-        <v>2.4</v>
-      </c>
-      <c r="V5">
         <f t="shared" si="3"/>
         <v>-23.4</v>
       </c>
+      <c r="V5">
+        <f t="shared" si="4"/>
+        <v>2.4</v>
+      </c>
       <c r="Y5">
+        <f t="shared" si="5"/>
+        <v>21.8</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="6"/>
         <v>2.4</v>
       </c>
-      <c r="Z5">
-        <f t="shared" si="4"/>
-        <v>21.8</v>
-      </c>
       <c r="AC5">
+        <f t="shared" si="7"/>
+        <v>27.8</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="8"/>
         <v>2.4</v>
-      </c>
-      <c r="AD5">
-        <f t="shared" si="5"/>
-        <v>27.8</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
@@ -675,31 +687,34 @@
         <v>5.6818181818181816E-2</v>
       </c>
       <c r="Q6">
+        <v>-18</v>
+      </c>
+      <c r="R6">
         <v>2</v>
       </c>
-      <c r="R6">
-        <v>-18</v>
-      </c>
       <c r="U6">
-        <v>2</v>
-      </c>
-      <c r="V6">
         <f t="shared" si="3"/>
         <v>-24</v>
       </c>
+      <c r="V6">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
       <c r="Y6">
+        <f t="shared" si="5"/>
+        <v>21.2</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="Z6">
-        <f t="shared" si="4"/>
-        <v>21.2</v>
-      </c>
       <c r="AC6">
+        <f t="shared" si="7"/>
+        <v>27.2</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="8"/>
         <v>2</v>
-      </c>
-      <c r="AD6">
-        <f t="shared" si="5"/>
-        <v>27.2</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -731,31 +746,34 @@
         <v>5.909090909090909E-2</v>
       </c>
       <c r="Q7">
-        <v>-2.5</v>
+        <v>-18</v>
       </c>
       <c r="R7">
-        <v>-18</v>
+        <v>-2.5</v>
       </c>
       <c r="U7">
-        <v>-2.5</v>
-      </c>
-      <c r="V7">
         <f t="shared" si="3"/>
         <v>-24</v>
       </c>
+      <c r="V7">
+        <f t="shared" si="4"/>
+        <v>-2.5</v>
+      </c>
       <c r="Y7">
-        <v>-2.5</v>
+        <f t="shared" si="5"/>
+        <v>21.2</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="4"/>
-        <v>21.2</v>
+        <f t="shared" si="6"/>
+        <v>-2.5</v>
       </c>
       <c r="AC7">
-        <v>-2.5</v>
+        <f t="shared" si="7"/>
+        <v>27.2</v>
       </c>
       <c r="AD7">
-        <f t="shared" si="5"/>
-        <v>27.2</v>
+        <f t="shared" si="8"/>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
@@ -787,31 +805,34 @@
         <v>6.8181818181818177E-2</v>
       </c>
       <c r="Q8">
-        <v>-2.5</v>
+        <v>-14.8</v>
       </c>
       <c r="R8">
-        <v>-14.8</v>
+        <v>-2.5</v>
       </c>
       <c r="U8">
-        <v>-2.5</v>
-      </c>
-      <c r="V8">
         <f t="shared" si="3"/>
         <v>-20.8</v>
       </c>
+      <c r="V8">
+        <f t="shared" si="4"/>
+        <v>-2.5</v>
+      </c>
       <c r="Y8">
-        <v>-2.5</v>
+        <f t="shared" si="5"/>
+        <v>24.4</v>
       </c>
       <c r="Z8">
-        <f t="shared" si="4"/>
-        <v>24.4</v>
+        <f t="shared" si="6"/>
+        <v>-2.5</v>
       </c>
       <c r="AC8">
-        <v>-2.5</v>
+        <f t="shared" si="7"/>
+        <v>30.4</v>
       </c>
       <c r="AD8">
-        <f t="shared" si="5"/>
-        <v>30.4</v>
+        <f t="shared" si="8"/>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -1007,31 +1028,34 @@
         <v>-6.8181818181818177E-2</v>
       </c>
       <c r="Q13">
-        <v>-2.5</v>
+        <v>-15.3</v>
       </c>
       <c r="R13">
-        <v>-15.3</v>
+        <v>-2.5</v>
       </c>
       <c r="U13">
-        <v>-2.5</v>
+        <f>Q13-6</f>
+        <v>-21.3</v>
       </c>
       <c r="V13">
-        <f>R13-6</f>
-        <v>-21.3</v>
+        <f>R13</f>
+        <v>-2.5</v>
       </c>
       <c r="Y13">
-        <v>-2.5</v>
+        <f>U13+18+6+21.2</f>
+        <v>23.9</v>
       </c>
       <c r="Z13">
-        <f>V13+18+6+21.2</f>
-        <v>23.9</v>
+        <f>V13</f>
+        <v>-2.5</v>
       </c>
       <c r="AC13">
-        <v>-2.5</v>
+        <f>Y13+6</f>
+        <v>29.9</v>
       </c>
       <c r="AD13">
-        <f>Z13+6</f>
-        <v>29.9</v>
+        <f>Z13</f>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
@@ -1055,31 +1079,34 @@
         <v>-5.909090909090909E-2</v>
       </c>
       <c r="Q14">
+        <v>-15.5</v>
+      </c>
+      <c r="R14">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="R14">
-        <v>-15.5</v>
-      </c>
       <c r="U14">
+        <f t="shared" ref="U14:U19" si="9">Q14-6</f>
+        <v>-21.5</v>
+      </c>
+      <c r="V14">
+        <f t="shared" ref="V14:V19" si="10">R14</f>
         <v>-2.2000000000000002</v>
       </c>
-      <c r="V14">
-        <f t="shared" ref="V14:V19" si="6">R14-6</f>
-        <v>-21.5</v>
-      </c>
       <c r="Y14">
+        <f t="shared" ref="Y14:Y19" si="11">U14+18+6+21.2</f>
+        <v>23.7</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" ref="Z14:Z19" si="12">V14</f>
         <v>-2.2000000000000002</v>
       </c>
-      <c r="Z14">
-        <f t="shared" ref="Z14:Z19" si="7">V14+18+6+21.2</f>
-        <v>23.7</v>
-      </c>
       <c r="AC14">
+        <f t="shared" ref="AC14:AC19" si="13">Y14+6</f>
+        <v>29.7</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" ref="AD14:AD19" si="14">Z14</f>
         <v>-2.2000000000000002</v>
-      </c>
-      <c r="AD14">
-        <f t="shared" ref="AD14:AD19" si="8">Z14+6</f>
-        <v>29.7</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
@@ -1103,31 +1130,34 @@
         <v>-5.6818181818181816E-2</v>
       </c>
       <c r="Q15">
+        <v>-15.8</v>
+      </c>
+      <c r="R15">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="R15">
-        <v>-15.8</v>
-      </c>
       <c r="U15">
+        <f t="shared" si="9"/>
+        <v>-21.8</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="10"/>
         <v>-2.2000000000000002</v>
       </c>
-      <c r="V15">
-        <f t="shared" si="6"/>
-        <v>-21.8</v>
-      </c>
       <c r="Y15">
+        <f t="shared" si="11"/>
+        <v>23.4</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="12"/>
         <v>-2.2000000000000002</v>
       </c>
-      <c r="Z15">
-        <f t="shared" si="7"/>
-        <v>23.4</v>
-      </c>
       <c r="AC15">
+        <f t="shared" si="13"/>
+        <v>29.4</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="14"/>
         <v>-2.2000000000000002</v>
-      </c>
-      <c r="AD15">
-        <f t="shared" si="8"/>
-        <v>29.4</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
@@ -1151,31 +1181,34 @@
         <v>-4.0909090909090909E-2</v>
       </c>
       <c r="Q16">
-        <v>-2.5</v>
+        <v>-16</v>
       </c>
       <c r="R16">
-        <v>-16</v>
+        <v>-2.5</v>
       </c>
       <c r="U16">
-        <v>-2.5</v>
+        <f t="shared" si="9"/>
+        <v>-22</v>
       </c>
       <c r="V16">
-        <f t="shared" si="6"/>
-        <v>-22</v>
+        <f t="shared" si="10"/>
+        <v>-2.5</v>
       </c>
       <c r="Y16">
-        <v>-2.5</v>
+        <f t="shared" si="11"/>
+        <v>23.2</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="7"/>
-        <v>23.2</v>
+        <f t="shared" si="12"/>
+        <v>-2.5</v>
       </c>
       <c r="AC16">
-        <v>-2.5</v>
+        <f t="shared" si="13"/>
+        <v>29.2</v>
       </c>
       <c r="AD16">
-        <f t="shared" si="8"/>
-        <v>29.2</v>
+        <f t="shared" si="14"/>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
@@ -1199,31 +1232,34 @@
         <v>-6.363636363636363E-2</v>
       </c>
       <c r="Q17">
+        <v>-15.8</v>
+      </c>
+      <c r="R17">
         <v>-5.8</v>
       </c>
-      <c r="R17">
-        <v>-15.8</v>
-      </c>
       <c r="U17">
+        <f t="shared" si="9"/>
+        <v>-21.8</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="10"/>
         <v>-5.8</v>
       </c>
-      <c r="V17">
-        <f t="shared" si="6"/>
-        <v>-21.8</v>
-      </c>
       <c r="Y17">
+        <f t="shared" si="11"/>
+        <v>23.4</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="12"/>
         <v>-5.8</v>
       </c>
-      <c r="Z17">
-        <f t="shared" si="7"/>
-        <v>23.4</v>
-      </c>
       <c r="AC17">
+        <f t="shared" si="13"/>
+        <v>29.4</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="14"/>
         <v>-5.8</v>
-      </c>
-      <c r="AD17">
-        <f t="shared" si="8"/>
-        <v>29.4</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
@@ -1247,31 +1283,34 @@
         <v>-6.8181818181818177E-2</v>
       </c>
       <c r="Q18">
+        <v>-15.5</v>
+      </c>
+      <c r="R18">
         <v>-5.8</v>
       </c>
-      <c r="R18">
-        <v>-15.5</v>
-      </c>
       <c r="U18">
+        <f t="shared" si="9"/>
+        <v>-21.5</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="10"/>
         <v>-5.8</v>
       </c>
-      <c r="V18">
-        <f t="shared" si="6"/>
-        <v>-21.5</v>
-      </c>
       <c r="Y18">
+        <f t="shared" si="11"/>
+        <v>23.7</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="12"/>
         <v>-5.8</v>
       </c>
-      <c r="Z18">
-        <f t="shared" si="7"/>
-        <v>23.7</v>
-      </c>
       <c r="AC18">
+        <f t="shared" si="13"/>
+        <v>29.7</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="14"/>
         <v>-5.8</v>
-      </c>
-      <c r="AD18">
-        <f t="shared" si="8"/>
-        <v>29.7</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
@@ -1291,31 +1330,34 @@
         <v>-4.5454545454545456E-2</v>
       </c>
       <c r="Q19">
-        <v>-2.5</v>
+        <v>-15.3</v>
       </c>
       <c r="R19">
-        <v>-15.3</v>
+        <v>-2.5</v>
       </c>
       <c r="U19">
-        <v>-2.5</v>
+        <f t="shared" si="9"/>
+        <v>-21.3</v>
       </c>
       <c r="V19">
-        <f t="shared" si="6"/>
-        <v>-21.3</v>
+        <f t="shared" si="10"/>
+        <v>-2.5</v>
       </c>
       <c r="Y19">
-        <v>-2.5</v>
+        <f t="shared" si="11"/>
+        <v>23.9</v>
       </c>
       <c r="Z19">
-        <f t="shared" si="7"/>
-        <v>23.9</v>
+        <f t="shared" si="12"/>
+        <v>-2.5</v>
       </c>
       <c r="AC19">
-        <v>-2.5</v>
+        <f t="shared" si="13"/>
+        <v>29.9</v>
       </c>
       <c r="AD19">
-        <f t="shared" si="8"/>
-        <v>29.9</v>
+        <f t="shared" si="14"/>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
@@ -1412,11 +1454,11 @@
         <v>0.41960784313725491</v>
       </c>
       <c r="N22">
-        <f t="shared" ref="N22:O22" si="9">J12/255</f>
+        <f t="shared" ref="N22:O22" si="15">J12/255</f>
         <v>0.41960784313725491</v>
       </c>
       <c r="O22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>0.41960784313725491</v>
       </c>
     </row>
@@ -1448,31 +1490,34 @@
         <v>-0.15454545454545454</v>
       </c>
       <c r="Q24">
-        <v>-2.5</v>
+        <v>-16.8</v>
       </c>
       <c r="R24">
-        <v>-16.8</v>
+        <v>-2.5</v>
       </c>
       <c r="U24">
-        <v>-2.5</v>
+        <f>Q24-6</f>
+        <v>-22.8</v>
       </c>
       <c r="V24">
-        <f>R24-6</f>
-        <v>-22.8</v>
+        <f>R24</f>
+        <v>-2.5</v>
       </c>
       <c r="Y24">
-        <v>-2.5</v>
+        <f>U24+18+6+21.2</f>
+        <v>22.4</v>
       </c>
       <c r="Z24">
-        <f>V24+18+6+21.2</f>
-        <v>22.4</v>
+        <f>V24</f>
+        <v>-2.5</v>
       </c>
       <c r="AC24">
-        <v>-2.5</v>
+        <f>Y24+6</f>
+        <v>28.4</v>
       </c>
       <c r="AD24">
-        <f>Z24+6</f>
-        <v>28.4</v>
+        <f>Z24</f>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
@@ -1483,31 +1528,34 @@
         <v>-0.16363636363636364</v>
       </c>
       <c r="Q25">
+        <v>-17</v>
+      </c>
+      <c r="R25">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="R25">
-        <v>-17</v>
-      </c>
       <c r="U25">
+        <f t="shared" ref="U25:U30" si="16">Q25-6</f>
+        <v>-23</v>
+      </c>
+      <c r="V25">
+        <f t="shared" ref="V25:V30" si="17">R25</f>
         <v>-2.2000000000000002</v>
       </c>
-      <c r="V25">
-        <f t="shared" ref="V25:V30" si="10">R25-6</f>
-        <v>-23</v>
-      </c>
       <c r="Y25">
+        <f t="shared" ref="Y25:Y30" si="18">U25+18+6+21.2</f>
+        <v>22.2</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" ref="Z25:Z30" si="19">V25</f>
         <v>-2.2000000000000002</v>
       </c>
-      <c r="Z25">
-        <f t="shared" ref="Z25:Z30" si="11">V25+18+6+21.2</f>
-        <v>22.2</v>
-      </c>
       <c r="AC25">
+        <f t="shared" ref="AC25:AC30" si="20">Y25+6</f>
+        <v>28.2</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" ref="AD25:AD30" si="21">Z25</f>
         <v>-2.2000000000000002</v>
-      </c>
-      <c r="AD25">
-        <f t="shared" ref="AD25:AD30" si="12">Z25+6</f>
-        <v>28.2</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
@@ -1518,31 +1566,34 @@
         <v>-0.17727272727272728</v>
       </c>
       <c r="Q26">
+        <v>-17.3</v>
+      </c>
+      <c r="R26">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="R26">
-        <v>-17.3</v>
-      </c>
       <c r="U26">
+        <f t="shared" si="16"/>
+        <v>-23.3</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="17"/>
         <v>-2.2000000000000002</v>
       </c>
-      <c r="V26">
-        <f t="shared" si="10"/>
-        <v>-23.3</v>
-      </c>
       <c r="Y26">
+        <f t="shared" si="18"/>
+        <v>21.9</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="19"/>
         <v>-2.2000000000000002</v>
       </c>
-      <c r="Z26">
-        <f t="shared" si="11"/>
-        <v>21.9</v>
-      </c>
       <c r="AC26">
+        <f t="shared" si="20"/>
+        <v>27.9</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="21"/>
         <v>-2.2000000000000002</v>
-      </c>
-      <c r="AD26">
-        <f t="shared" si="12"/>
-        <v>27.9</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
@@ -1553,31 +1604,34 @@
         <v>-0.17045454545454544</v>
       </c>
       <c r="Q27">
-        <v>-2.5</v>
+        <v>-17.5</v>
       </c>
       <c r="R27">
-        <v>-17.5</v>
+        <v>-2.5</v>
       </c>
       <c r="U27">
-        <v>-2.5</v>
+        <f t="shared" si="16"/>
+        <v>-23.5</v>
       </c>
       <c r="V27">
-        <f t="shared" si="10"/>
-        <v>-23.5</v>
+        <f t="shared" si="17"/>
+        <v>-2.5</v>
       </c>
       <c r="Y27">
-        <v>-2.5</v>
+        <f t="shared" si="18"/>
+        <v>21.7</v>
       </c>
       <c r="Z27">
-        <f t="shared" si="11"/>
-        <v>21.7</v>
+        <f t="shared" si="19"/>
+        <v>-2.5</v>
       </c>
       <c r="AC27">
-        <v>-2.5</v>
+        <f t="shared" si="20"/>
+        <v>27.7</v>
       </c>
       <c r="AD27">
-        <f t="shared" si="12"/>
-        <v>27.7</v>
+        <f t="shared" si="21"/>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
@@ -1588,31 +1642,34 @@
         <v>-0.15909090909090909</v>
       </c>
       <c r="Q28">
+        <v>-17.3</v>
+      </c>
+      <c r="R28">
         <v>-5.8</v>
       </c>
-      <c r="R28">
-        <v>-17.3</v>
-      </c>
       <c r="U28">
+        <f t="shared" si="16"/>
+        <v>-23.3</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="17"/>
         <v>-5.8</v>
       </c>
-      <c r="V28">
-        <f t="shared" si="10"/>
-        <v>-23.3</v>
-      </c>
       <c r="Y28">
+        <f t="shared" si="18"/>
+        <v>21.9</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="19"/>
         <v>-5.8</v>
       </c>
-      <c r="Z28">
-        <f t="shared" si="11"/>
-        <v>21.9</v>
-      </c>
       <c r="AC28">
+        <f t="shared" si="20"/>
+        <v>27.9</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="21"/>
         <v>-5.8</v>
-      </c>
-      <c r="AD28">
-        <f t="shared" si="12"/>
-        <v>27.9</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
@@ -1623,31 +1680,34 @@
         <v>-0.13636363636363635</v>
       </c>
       <c r="Q29">
+        <v>-17</v>
+      </c>
+      <c r="R29">
         <v>-5.8</v>
       </c>
-      <c r="R29">
-        <v>-17</v>
-      </c>
       <c r="U29">
+        <f t="shared" si="16"/>
+        <v>-23</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="17"/>
         <v>-5.8</v>
       </c>
-      <c r="V29">
-        <f t="shared" si="10"/>
-        <v>-23</v>
-      </c>
       <c r="Y29">
+        <f t="shared" si="18"/>
+        <v>22.2</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="19"/>
         <v>-5.8</v>
       </c>
-      <c r="Z29">
-        <f t="shared" si="11"/>
-        <v>22.2</v>
-      </c>
       <c r="AC29">
+        <f t="shared" si="20"/>
+        <v>28.2</v>
+      </c>
+      <c r="AD29">
+        <f t="shared" si="21"/>
         <v>-5.8</v>
-      </c>
-      <c r="AD29">
-        <f t="shared" si="12"/>
-        <v>28.2</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
@@ -1658,31 +1718,34 @@
         <v>-0.11363636363636363</v>
       </c>
       <c r="Q30">
-        <v>-2.5</v>
+        <v>-16.8</v>
       </c>
       <c r="R30">
-        <v>-16.8</v>
+        <v>-2.5</v>
       </c>
       <c r="U30">
-        <v>-2.5</v>
+        <f t="shared" si="16"/>
+        <v>-22.8</v>
       </c>
       <c r="V30">
-        <f t="shared" si="10"/>
-        <v>-22.8</v>
+        <f t="shared" si="17"/>
+        <v>-2.5</v>
       </c>
       <c r="Y30">
-        <v>-2.5</v>
+        <f t="shared" si="18"/>
+        <v>22.4</v>
       </c>
       <c r="Z30">
-        <f t="shared" si="11"/>
-        <v>22.4</v>
+        <f t="shared" si="19"/>
+        <v>-2.5</v>
       </c>
       <c r="AC30">
-        <v>-2.5</v>
+        <f t="shared" si="20"/>
+        <v>28.4</v>
       </c>
       <c r="AD30">
-        <f t="shared" si="12"/>
-        <v>28.4</v>
+        <f t="shared" si="21"/>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
@@ -1783,248 +1846,248 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="F35">
-        <f t="shared" ref="F35:G35" si="13">B20/255</f>
+        <f t="shared" ref="F35:G35" si="22">B20/255</f>
         <v>0.52156862745098043</v>
       </c>
       <c r="G35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v>0.38823529411764707</v>
       </c>
       <c r="Q35">
         <f>Q2/44</f>
-        <v>4.5454545454545456E-2</v>
+        <v>-0.33636363636363636</v>
       </c>
       <c r="R35">
         <f>R2/44</f>
-        <v>-0.33636363636363636</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="U35">
         <f>U2/44</f>
-        <v>4.5454545454545456E-2</v>
+        <v>-0.47272727272727272</v>
       </c>
       <c r="V35">
         <f>V2/44</f>
-        <v>-0.47272727272727272</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="Y35">
         <f>Y2/44</f>
-        <v>4.5454545454545456E-2</v>
+        <v>0.55454545454545456</v>
       </c>
       <c r="Z35">
         <f>Z2/44</f>
-        <v>0.55454545454545456</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="AC35">
         <f>AC2/44</f>
-        <v>4.5454545454545456E-2</v>
+        <v>0.69090909090909092</v>
       </c>
       <c r="AD35">
         <f>AD2/44</f>
-        <v>0.69090909090909092</v>
+        <v>4.5454545454545456E-2</v>
       </c>
     </row>
     <row r="36" spans="5:31" x14ac:dyDescent="0.25">
       <c r="Q36">
-        <f t="shared" ref="Q36:R36" si="14">Q3/44</f>
+        <f t="shared" ref="Q36" si="23">Q3/44</f>
+        <v>-0.35000000000000003</v>
+      </c>
+      <c r="R36">
+        <f>R3/44</f>
         <v>5.4545454545454543E-2</v>
       </c>
-      <c r="R36">
-        <f t="shared" si="14"/>
-        <v>-0.35000000000000003</v>
-      </c>
       <c r="U36">
-        <f t="shared" ref="U36:V36" si="15">U3/44</f>
+        <f t="shared" ref="U36:V36" si="24">U3/44</f>
+        <v>-0.48636363636363633</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="24"/>
         <v>5.4545454545454543E-2</v>
       </c>
-      <c r="V36">
-        <f t="shared" si="15"/>
-        <v>-0.48636363636363633</v>
-      </c>
       <c r="Y36">
-        <f t="shared" ref="Y36:Z36" si="16">Y3/44</f>
+        <f t="shared" ref="Y36:Z36" si="25">Y3/44</f>
+        <v>0.54090909090909089</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="25"/>
         <v>5.4545454545454543E-2</v>
       </c>
-      <c r="Z36">
-        <f t="shared" si="16"/>
-        <v>0.54090909090909089</v>
-      </c>
       <c r="AC36">
-        <f t="shared" ref="AC36:AD36" si="17">AC3/44</f>
+        <f t="shared" ref="AC36:AD36" si="26">AC3/44</f>
+        <v>0.67727272727272725</v>
+      </c>
+      <c r="AD36">
+        <f t="shared" si="26"/>
         <v>5.4545454545454543E-2</v>
-      </c>
-      <c r="AD36">
-        <f t="shared" si="17"/>
-        <v>0.67727272727272725</v>
       </c>
     </row>
     <row r="37" spans="5:31" x14ac:dyDescent="0.25">
       <c r="Q37">
-        <f t="shared" ref="Q37:R37" si="18">Q4/44</f>
+        <f t="shared" ref="Q37" si="27">Q4/44</f>
+        <v>-0.37272727272727268</v>
+      </c>
+      <c r="R37">
+        <f>R4/44</f>
         <v>6.136363636363637E-2</v>
       </c>
-      <c r="R37">
-        <f t="shared" si="18"/>
-        <v>-0.37272727272727268</v>
-      </c>
       <c r="U37">
-        <f t="shared" ref="U37:V37" si="19">U4/44</f>
+        <f t="shared" ref="U37:V37" si="28">U4/44</f>
+        <v>-0.50909090909090904</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="28"/>
         <v>6.136363636363637E-2</v>
       </c>
-      <c r="V37">
-        <f t="shared" si="19"/>
-        <v>-0.50909090909090904</v>
-      </c>
       <c r="Y37">
-        <f t="shared" ref="Y37:Z37" si="20">Y4/44</f>
+        <f t="shared" ref="Y37:Z37" si="29">Y4/44</f>
+        <v>0.51818181818181819</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="29"/>
         <v>6.136363636363637E-2</v>
       </c>
-      <c r="Z37">
-        <f t="shared" si="20"/>
-        <v>0.51818181818181819</v>
-      </c>
       <c r="AC37">
-        <f t="shared" ref="AC37:AD37" si="21">AC4/44</f>
+        <f t="shared" ref="AC37:AD37" si="30">AC4/44</f>
+        <v>0.65454545454545454</v>
+      </c>
+      <c r="AD37">
+        <f t="shared" si="30"/>
         <v>6.136363636363637E-2</v>
-      </c>
-      <c r="AD37">
-        <f t="shared" si="21"/>
-        <v>0.65454545454545454</v>
       </c>
     </row>
     <row r="38" spans="5:31" x14ac:dyDescent="0.25">
       <c r="Q38">
-        <f t="shared" ref="Q38:R38" si="22">Q5/44</f>
+        <f t="shared" ref="Q38" si="31">Q5/44</f>
+        <v>-0.39545454545454545</v>
+      </c>
+      <c r="R38">
+        <f>R5/44</f>
         <v>5.4545454545454543E-2</v>
       </c>
-      <c r="R38">
-        <f t="shared" si="22"/>
-        <v>-0.39545454545454545</v>
-      </c>
       <c r="U38">
-        <f t="shared" ref="U38:V38" si="23">U5/44</f>
+        <f t="shared" ref="U38:V38" si="32">U5/44</f>
+        <v>-0.53181818181818175</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="32"/>
         <v>5.4545454545454543E-2</v>
       </c>
-      <c r="V38">
-        <f t="shared" si="23"/>
-        <v>-0.53181818181818175</v>
-      </c>
       <c r="Y38">
-        <f t="shared" ref="Y38:Z38" si="24">Y5/44</f>
+        <f t="shared" ref="Y38:Z38" si="33">Y5/44</f>
+        <v>0.49545454545454548</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="33"/>
         <v>5.4545454545454543E-2</v>
       </c>
-      <c r="Z38">
-        <f t="shared" si="24"/>
-        <v>0.49545454545454548</v>
-      </c>
       <c r="AC38">
-        <f t="shared" ref="AC38:AD38" si="25">AC5/44</f>
+        <f t="shared" ref="AC38:AD38" si="34">AC5/44</f>
+        <v>0.63181818181818183</v>
+      </c>
+      <c r="AD38">
+        <f t="shared" si="34"/>
         <v>5.4545454545454543E-2</v>
-      </c>
-      <c r="AD38">
-        <f t="shared" si="25"/>
-        <v>0.63181818181818183</v>
       </c>
     </row>
     <row r="39" spans="5:31" x14ac:dyDescent="0.25">
       <c r="Q39">
-        <f t="shared" ref="Q39:R39" si="26">Q6/44</f>
+        <f t="shared" ref="Q39" si="35">Q6/44</f>
+        <v>-0.40909090909090912</v>
+      </c>
+      <c r="R39">
+        <f>R6/44</f>
         <v>4.5454545454545456E-2</v>
       </c>
-      <c r="R39">
-        <f t="shared" si="26"/>
-        <v>-0.40909090909090912</v>
-      </c>
       <c r="U39">
-        <f t="shared" ref="U39:V39" si="27">U6/44</f>
+        <f t="shared" ref="U39:V39" si="36">U6/44</f>
+        <v>-0.54545454545454541</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="36"/>
         <v>4.5454545454545456E-2</v>
       </c>
-      <c r="V39">
-        <f t="shared" si="27"/>
-        <v>-0.54545454545454541</v>
-      </c>
       <c r="Y39">
-        <f t="shared" ref="Y39:Z39" si="28">Y6/44</f>
+        <f t="shared" ref="Y39:Z39" si="37">Y6/44</f>
+        <v>0.48181818181818181</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="37"/>
         <v>4.5454545454545456E-2</v>
       </c>
-      <c r="Z39">
-        <f t="shared" si="28"/>
-        <v>0.48181818181818181</v>
-      </c>
       <c r="AC39">
-        <f t="shared" ref="AC39:AD39" si="29">AC6/44</f>
+        <f t="shared" ref="AC39:AD39" si="38">AC6/44</f>
+        <v>0.61818181818181817</v>
+      </c>
+      <c r="AD39">
+        <f t="shared" si="38"/>
         <v>4.5454545454545456E-2</v>
-      </c>
-      <c r="AD39">
-        <f t="shared" si="29"/>
-        <v>0.61818181818181817</v>
       </c>
     </row>
     <row r="40" spans="5:31" x14ac:dyDescent="0.25">
       <c r="Q40">
-        <f t="shared" ref="Q40:R40" si="30">Q7/44</f>
-        <v>-5.6818181818181816E-2</v>
+        <f t="shared" ref="Q40" si="39">Q7/44</f>
+        <v>-0.40909090909090912</v>
       </c>
       <c r="R40">
-        <f t="shared" si="30"/>
-        <v>-0.40909090909090912</v>
+        <f>R7/44</f>
+        <v>-5.6818181818181816E-2</v>
       </c>
       <c r="U40">
-        <f t="shared" ref="U40:V40" si="31">U7/44</f>
-        <v>-5.6818181818181816E-2</v>
+        <f t="shared" ref="U40:V40" si="40">U7/44</f>
+        <v>-0.54545454545454541</v>
       </c>
       <c r="V40">
-        <f t="shared" si="31"/>
-        <v>-0.54545454545454541</v>
+        <f t="shared" si="40"/>
+        <v>-5.6818181818181816E-2</v>
       </c>
       <c r="Y40">
-        <f t="shared" ref="Y40:Z40" si="32">Y7/44</f>
-        <v>-5.6818181818181816E-2</v>
+        <f t="shared" ref="Y40:Z40" si="41">Y7/44</f>
+        <v>0.48181818181818181</v>
       </c>
       <c r="Z40">
-        <f t="shared" si="32"/>
-        <v>0.48181818181818181</v>
+        <f t="shared" si="41"/>
+        <v>-5.6818181818181816E-2</v>
       </c>
       <c r="AC40">
-        <f t="shared" ref="AC40:AD40" si="33">AC7/44</f>
-        <v>-5.6818181818181816E-2</v>
+        <f t="shared" ref="AC40:AD40" si="42">AC7/44</f>
+        <v>0.61818181818181817</v>
       </c>
       <c r="AD40">
-        <f t="shared" si="33"/>
-        <v>0.61818181818181817</v>
+        <f t="shared" si="42"/>
+        <v>-5.6818181818181816E-2</v>
       </c>
     </row>
     <row r="41" spans="5:31" x14ac:dyDescent="0.25">
       <c r="Q41">
-        <f t="shared" ref="Q41:R41" si="34">Q8/44</f>
-        <v>-5.6818181818181816E-2</v>
+        <f t="shared" ref="Q41" si="43">Q8/44</f>
+        <v>-0.33636363636363636</v>
       </c>
       <c r="R41">
-        <f t="shared" si="34"/>
-        <v>-0.33636363636363636</v>
+        <f>R8/44</f>
+        <v>-5.6818181818181816E-2</v>
       </c>
       <c r="U41">
-        <f t="shared" ref="U41:V41" si="35">U8/44</f>
-        <v>-5.6818181818181816E-2</v>
+        <f t="shared" ref="U41:V41" si="44">U8/44</f>
+        <v>-0.47272727272727272</v>
       </c>
       <c r="V41">
-        <f t="shared" si="35"/>
-        <v>-0.47272727272727272</v>
+        <f t="shared" si="44"/>
+        <v>-5.6818181818181816E-2</v>
       </c>
       <c r="Y41">
-        <f t="shared" ref="Y41:Z41" si="36">Y8/44</f>
-        <v>-5.6818181818181816E-2</v>
+        <f t="shared" ref="Y41:Z41" si="45">Y8/44</f>
+        <v>0.55454545454545456</v>
       </c>
       <c r="Z41">
-        <f t="shared" si="36"/>
-        <v>0.55454545454545456</v>
+        <f t="shared" si="45"/>
+        <v>-5.6818181818181816E-2</v>
       </c>
       <c r="AC41">
-        <f t="shared" ref="AC41:AD41" si="37">AC8/44</f>
-        <v>-5.6818181818181816E-2</v>
+        <f t="shared" ref="AC41:AD41" si="46">AC8/44</f>
+        <v>0.69090909090909092</v>
       </c>
       <c r="AD41">
-        <f t="shared" si="37"/>
-        <v>0.69090909090909092</v>
+        <f t="shared" si="46"/>
+        <v>-5.6818181818181816E-2</v>
       </c>
     </row>
     <row r="42" spans="5:31" x14ac:dyDescent="0.25">
@@ -2047,11 +2110,11 @@
         <v>0.50588235294117645</v>
       </c>
       <c r="R43">
-        <f t="shared" ref="R43:S43" si="38">R10/255</f>
+        <f t="shared" ref="R43:S43" si="47">R10/255</f>
         <v>0.51372549019607838</v>
       </c>
       <c r="S43">
-        <f t="shared" si="38"/>
+        <f t="shared" si="47"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="U43">
@@ -2059,11 +2122,11 @@
         <v>0.50588235294117645</v>
       </c>
       <c r="V43">
-        <f t="shared" ref="V43:W43" si="39">V10/255</f>
+        <f t="shared" ref="V43:W43" si="48">V10/255</f>
         <v>0.51372549019607838</v>
       </c>
       <c r="W43">
-        <f t="shared" si="39"/>
+        <f t="shared" si="48"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="Y43">
@@ -2071,11 +2134,11 @@
         <v>0.50588235294117645</v>
       </c>
       <c r="Z43">
-        <f t="shared" ref="Z43:AA43" si="40">Z10/255</f>
+        <f t="shared" ref="Z43:AA43" si="49">Z10/255</f>
         <v>0.51372549019607838</v>
       </c>
       <c r="AA43">
-        <f t="shared" si="40"/>
+        <f t="shared" si="49"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="AC43">
@@ -2083,11 +2146,11 @@
         <v>0.50588235294117645</v>
       </c>
       <c r="AD43">
-        <f t="shared" ref="AD43:AE43" si="41">AD10/255</f>
+        <f t="shared" ref="AD43:AE43" si="50">AD10/255</f>
         <v>0.51372549019607838</v>
       </c>
       <c r="AE43">
-        <f t="shared" si="41"/>
+        <f t="shared" si="50"/>
         <v>0.52941176470588236</v>
       </c>
     </row>
@@ -2108,239 +2171,239 @@
     <row r="46" spans="5:31" x14ac:dyDescent="0.25">
       <c r="Q46">
         <f>Q13/44</f>
-        <v>-5.6818181818181816E-2</v>
+        <v>-0.34772727272727272</v>
       </c>
       <c r="R46">
         <f>R13/44</f>
-        <v>-0.34772727272727272</v>
+        <v>-5.6818181818181816E-2</v>
       </c>
       <c r="U46">
         <f>U13/44</f>
-        <v>-5.6818181818181816E-2</v>
+        <v>-0.48409090909090913</v>
       </c>
       <c r="V46">
         <f>V13/44</f>
-        <v>-0.48409090909090913</v>
+        <v>-5.6818181818181816E-2</v>
       </c>
       <c r="Y46">
         <f>Y13/44</f>
-        <v>-5.6818181818181816E-2</v>
+        <v>0.5431818181818181</v>
       </c>
       <c r="Z46">
         <f>Z13/44</f>
-        <v>0.5431818181818181</v>
+        <v>-5.6818181818181816E-2</v>
       </c>
       <c r="AC46">
         <f>AC13/44</f>
-        <v>-5.6818181818181816E-2</v>
+        <v>0.67954545454545456</v>
       </c>
       <c r="AD46">
         <f>AD13/44</f>
-        <v>0.67954545454545456</v>
+        <v>-5.6818181818181816E-2</v>
       </c>
     </row>
     <row r="47" spans="5:31" x14ac:dyDescent="0.25">
       <c r="Q47">
-        <f t="shared" ref="Q47:R47" si="42">Q14/44</f>
+        <f t="shared" ref="Q47:R47" si="51">Q14/44</f>
+        <v>-0.35227272727272729</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="51"/>
         <v>-0.05</v>
       </c>
-      <c r="R47">
-        <f t="shared" si="42"/>
-        <v>-0.35227272727272729</v>
-      </c>
       <c r="U47">
-        <f t="shared" ref="U47:V47" si="43">U14/44</f>
+        <f t="shared" ref="U47:V47" si="52">U14/44</f>
+        <v>-0.48863636363636365</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="52"/>
         <v>-0.05</v>
       </c>
-      <c r="V47">
-        <f t="shared" si="43"/>
-        <v>-0.48863636363636365</v>
-      </c>
       <c r="Y47">
-        <f t="shared" ref="Y47:Z47" si="44">Y14/44</f>
+        <f t="shared" ref="Y47:Z47" si="53">Y14/44</f>
+        <v>0.53863636363636358</v>
+      </c>
+      <c r="Z47">
+        <f t="shared" si="53"/>
         <v>-0.05</v>
       </c>
-      <c r="Z47">
-        <f t="shared" si="44"/>
-        <v>0.53863636363636358</v>
-      </c>
       <c r="AC47">
-        <f t="shared" ref="AC47:AD47" si="45">AC14/44</f>
+        <f t="shared" ref="AC47:AD47" si="54">AC14/44</f>
+        <v>0.67499999999999993</v>
+      </c>
+      <c r="AD47">
+        <f t="shared" si="54"/>
         <v>-0.05</v>
-      </c>
-      <c r="AD47">
-        <f t="shared" si="45"/>
-        <v>0.67499999999999993</v>
       </c>
     </row>
     <row r="48" spans="5:31" x14ac:dyDescent="0.25">
       <c r="Q48">
-        <f t="shared" ref="Q48:R48" si="46">Q15/44</f>
+        <f t="shared" ref="Q48:R48" si="55">Q15/44</f>
+        <v>-0.35909090909090913</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="55"/>
         <v>-0.05</v>
       </c>
-      <c r="R48">
-        <f t="shared" si="46"/>
-        <v>-0.35909090909090913</v>
-      </c>
       <c r="U48">
-        <f t="shared" ref="U48:V48" si="47">U15/44</f>
+        <f t="shared" ref="U48:V48" si="56">U15/44</f>
+        <v>-0.49545454545454548</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="56"/>
         <v>-0.05</v>
       </c>
-      <c r="V48">
-        <f t="shared" si="47"/>
-        <v>-0.49545454545454548</v>
-      </c>
       <c r="Y48">
-        <f t="shared" ref="Y48:Z48" si="48">Y15/44</f>
+        <f t="shared" ref="Y48:Z48" si="57">Y15/44</f>
+        <v>0.53181818181818175</v>
+      </c>
+      <c r="Z48">
+        <f t="shared" si="57"/>
         <v>-0.05</v>
       </c>
-      <c r="Z48">
-        <f t="shared" si="48"/>
-        <v>0.53181818181818175</v>
-      </c>
       <c r="AC48">
-        <f t="shared" ref="AC48:AD48" si="49">AC15/44</f>
+        <f t="shared" ref="AC48:AD48" si="58">AC15/44</f>
+        <v>0.6681818181818181</v>
+      </c>
+      <c r="AD48">
+        <f t="shared" si="58"/>
         <v>-0.05</v>
-      </c>
-      <c r="AD48">
-        <f t="shared" si="49"/>
-        <v>0.6681818181818181</v>
       </c>
     </row>
     <row r="49" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Q49">
-        <f t="shared" ref="Q49:R49" si="50">Q16/44</f>
-        <v>-5.6818181818181816E-2</v>
+        <f t="shared" ref="Q49:R49" si="59">Q16/44</f>
+        <v>-0.36363636363636365</v>
       </c>
       <c r="R49">
-        <f t="shared" si="50"/>
-        <v>-0.36363636363636365</v>
+        <f t="shared" si="59"/>
+        <v>-5.6818181818181816E-2</v>
       </c>
       <c r="U49">
-        <f t="shared" ref="U49:V49" si="51">U16/44</f>
-        <v>-5.6818181818181816E-2</v>
+        <f t="shared" ref="U49:V49" si="60">U16/44</f>
+        <v>-0.5</v>
       </c>
       <c r="V49">
-        <f t="shared" si="51"/>
-        <v>-0.5</v>
+        <f t="shared" si="60"/>
+        <v>-5.6818181818181816E-2</v>
       </c>
       <c r="Y49">
-        <f t="shared" ref="Y49:Z49" si="52">Y16/44</f>
-        <v>-5.6818181818181816E-2</v>
+        <f t="shared" ref="Y49:Z49" si="61">Y16/44</f>
+        <v>0.52727272727272723</v>
       </c>
       <c r="Z49">
-        <f t="shared" si="52"/>
-        <v>0.52727272727272723</v>
+        <f t="shared" si="61"/>
+        <v>-5.6818181818181816E-2</v>
       </c>
       <c r="AC49">
-        <f t="shared" ref="AC49:AD49" si="53">AC16/44</f>
-        <v>-5.6818181818181816E-2</v>
+        <f t="shared" ref="AC49:AD49" si="62">AC16/44</f>
+        <v>0.66363636363636358</v>
       </c>
       <c r="AD49">
-        <f t="shared" si="53"/>
-        <v>0.66363636363636358</v>
+        <f t="shared" si="62"/>
+        <v>-5.6818181818181816E-2</v>
       </c>
     </row>
     <row r="50" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Q50">
-        <f t="shared" ref="Q50:R50" si="54">Q17/44</f>
+        <f t="shared" ref="Q50:R50" si="63">Q17/44</f>
+        <v>-0.35909090909090913</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="63"/>
         <v>-0.13181818181818181</v>
       </c>
-      <c r="R50">
-        <f t="shared" si="54"/>
-        <v>-0.35909090909090913</v>
-      </c>
       <c r="U50">
-        <f t="shared" ref="U50:V50" si="55">U17/44</f>
+        <f t="shared" ref="U50:V50" si="64">U17/44</f>
+        <v>-0.49545454545454548</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="64"/>
         <v>-0.13181818181818181</v>
       </c>
-      <c r="V50">
-        <f t="shared" si="55"/>
-        <v>-0.49545454545454548</v>
-      </c>
       <c r="Y50">
-        <f t="shared" ref="Y50:Z50" si="56">Y17/44</f>
+        <f t="shared" ref="Y50:Z50" si="65">Y17/44</f>
+        <v>0.53181818181818175</v>
+      </c>
+      <c r="Z50">
+        <f t="shared" si="65"/>
         <v>-0.13181818181818181</v>
       </c>
-      <c r="Z50">
-        <f t="shared" si="56"/>
-        <v>0.53181818181818175</v>
-      </c>
       <c r="AC50">
-        <f t="shared" ref="AC50:AD50" si="57">AC17/44</f>
+        <f t="shared" ref="AC50:AD50" si="66">AC17/44</f>
+        <v>0.6681818181818181</v>
+      </c>
+      <c r="AD50">
+        <f t="shared" si="66"/>
         <v>-0.13181818181818181</v>
-      </c>
-      <c r="AD50">
-        <f t="shared" si="57"/>
-        <v>0.6681818181818181</v>
       </c>
     </row>
     <row r="51" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Q51">
-        <f t="shared" ref="Q51:R51" si="58">Q18/44</f>
+        <f t="shared" ref="Q51:R51" si="67">Q18/44</f>
+        <v>-0.35227272727272729</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="67"/>
         <v>-0.13181818181818181</v>
       </c>
-      <c r="R51">
-        <f t="shared" si="58"/>
-        <v>-0.35227272727272729</v>
-      </c>
       <c r="U51">
-        <f t="shared" ref="U51:V51" si="59">U18/44</f>
+        <f t="shared" ref="U51:V51" si="68">U18/44</f>
+        <v>-0.48863636363636365</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="68"/>
         <v>-0.13181818181818181</v>
       </c>
-      <c r="V51">
-        <f t="shared" si="59"/>
-        <v>-0.48863636363636365</v>
-      </c>
       <c r="Y51">
-        <f t="shared" ref="Y51:Z51" si="60">Y18/44</f>
+        <f t="shared" ref="Y51:Z51" si="69">Y18/44</f>
+        <v>0.53863636363636358</v>
+      </c>
+      <c r="Z51">
+        <f t="shared" si="69"/>
         <v>-0.13181818181818181</v>
       </c>
-      <c r="Z51">
-        <f t="shared" si="60"/>
-        <v>0.53863636363636358</v>
-      </c>
       <c r="AC51">
-        <f t="shared" ref="AC51:AD51" si="61">AC18/44</f>
+        <f t="shared" ref="AC51:AD51" si="70">AC18/44</f>
+        <v>0.67499999999999993</v>
+      </c>
+      <c r="AD51">
+        <f t="shared" si="70"/>
         <v>-0.13181818181818181</v>
-      </c>
-      <c r="AD51">
-        <f t="shared" si="61"/>
-        <v>0.67499999999999993</v>
       </c>
     </row>
     <row r="52" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Q52">
-        <f t="shared" ref="Q52:R52" si="62">Q19/44</f>
-        <v>-5.6818181818181816E-2</v>
+        <f t="shared" ref="Q52:R52" si="71">Q19/44</f>
+        <v>-0.34772727272727272</v>
       </c>
       <c r="R52">
-        <f t="shared" si="62"/>
-        <v>-0.34772727272727272</v>
+        <f t="shared" si="71"/>
+        <v>-5.6818181818181816E-2</v>
       </c>
       <c r="U52">
-        <f t="shared" ref="U52:V52" si="63">U19/44</f>
-        <v>-5.6818181818181816E-2</v>
+        <f t="shared" ref="U52:V52" si="72">U19/44</f>
+        <v>-0.48409090909090913</v>
       </c>
       <c r="V52">
-        <f t="shared" si="63"/>
-        <v>-0.48409090909090913</v>
+        <f t="shared" si="72"/>
+        <v>-5.6818181818181816E-2</v>
       </c>
       <c r="Y52">
-        <f t="shared" ref="Y52:Z52" si="64">Y19/44</f>
-        <v>-5.6818181818181816E-2</v>
+        <f t="shared" ref="Y52:Z52" si="73">Y19/44</f>
+        <v>0.5431818181818181</v>
       </c>
       <c r="Z52">
-        <f t="shared" si="64"/>
-        <v>0.5431818181818181</v>
+        <f t="shared" si="73"/>
+        <v>-5.6818181818181816E-2</v>
       </c>
       <c r="AC52">
-        <f t="shared" ref="AC52:AD52" si="65">AC19/44</f>
-        <v>-5.6818181818181816E-2</v>
+        <f t="shared" ref="AC52:AD52" si="74">AC19/44</f>
+        <v>0.67954545454545456</v>
       </c>
       <c r="AD52">
-        <f t="shared" si="65"/>
-        <v>0.67954545454545456</v>
+        <f t="shared" si="74"/>
+        <v>-5.6818181818181816E-2</v>
       </c>
     </row>
     <row r="53" spans="17:31" x14ac:dyDescent="0.25">
@@ -2363,11 +2426,11 @@
         <v>0.27843137254901962</v>
       </c>
       <c r="R54">
-        <f t="shared" ref="R54:S54" si="66">R21/255</f>
+        <f t="shared" ref="R54:S54" si="75">R21/255</f>
         <v>0.27843137254901962</v>
       </c>
       <c r="S54">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>0.27843137254901962</v>
       </c>
       <c r="U54">
@@ -2375,11 +2438,11 @@
         <v>0.27843137254901962</v>
       </c>
       <c r="V54">
-        <f t="shared" ref="V54:W54" si="67">V21/255</f>
+        <f t="shared" ref="V54:W54" si="76">V21/255</f>
         <v>0.27843137254901962</v>
       </c>
       <c r="W54">
-        <f t="shared" si="67"/>
+        <f t="shared" si="76"/>
         <v>0.27843137254901962</v>
       </c>
       <c r="Y54">
@@ -2387,11 +2450,11 @@
         <v>0.27843137254901962</v>
       </c>
       <c r="Z54">
-        <f t="shared" ref="Z54:AA54" si="68">Z21/255</f>
+        <f t="shared" ref="Z54:AA54" si="77">Z21/255</f>
         <v>0.27843137254901962</v>
       </c>
       <c r="AA54">
-        <f t="shared" si="68"/>
+        <f t="shared" si="77"/>
         <v>0.27843137254901962</v>
       </c>
       <c r="AC54">
@@ -2399,11 +2462,11 @@
         <v>0.27843137254901962</v>
       </c>
       <c r="AD54">
-        <f t="shared" ref="AD54:AE54" si="69">AD21/255</f>
+        <f t="shared" ref="AD54:AE54" si="78">AD21/255</f>
         <v>0.27843137254901962</v>
       </c>
       <c r="AE54">
-        <f t="shared" si="69"/>
+        <f t="shared" si="78"/>
         <v>0.27843137254901962</v>
       </c>
     </row>
@@ -2424,239 +2487,239 @@
     <row r="57" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Q57">
         <f>Q24/44</f>
-        <v>-5.6818181818181816E-2</v>
+        <v>-0.38181818181818183</v>
       </c>
       <c r="R57">
         <f>R24/44</f>
-        <v>-0.38181818181818183</v>
+        <v>-5.6818181818181816E-2</v>
       </c>
       <c r="U57">
         <f>U24/44</f>
-        <v>-5.6818181818181816E-2</v>
+        <v>-0.51818181818181819</v>
       </c>
       <c r="V57">
         <f>V24/44</f>
-        <v>-0.51818181818181819</v>
+        <v>-5.6818181818181816E-2</v>
       </c>
       <c r="Y57">
         <f>Y24/44</f>
-        <v>-5.6818181818181816E-2</v>
+        <v>0.50909090909090904</v>
       </c>
       <c r="Z57">
         <f>Z24/44</f>
-        <v>0.50909090909090904</v>
+        <v>-5.6818181818181816E-2</v>
       </c>
       <c r="AC57">
         <f>AC24/44</f>
-        <v>-5.6818181818181816E-2</v>
+        <v>0.64545454545454539</v>
       </c>
       <c r="AD57">
         <f>AD24/44</f>
-        <v>0.64545454545454539</v>
+        <v>-5.6818181818181816E-2</v>
       </c>
     </row>
     <row r="58" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Q58">
-        <f t="shared" ref="Q58:R58" si="70">Q25/44</f>
+        <f t="shared" ref="Q58:R58" si="79">Q25/44</f>
+        <v>-0.38636363636363635</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="79"/>
         <v>-0.05</v>
       </c>
-      <c r="R58">
-        <f t="shared" si="70"/>
-        <v>-0.38636363636363635</v>
-      </c>
       <c r="U58">
-        <f t="shared" ref="U58:V58" si="71">U25/44</f>
+        <f t="shared" ref="U58:V58" si="80">U25/44</f>
+        <v>-0.52272727272727271</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="80"/>
         <v>-0.05</v>
       </c>
-      <c r="V58">
-        <f t="shared" si="71"/>
-        <v>-0.52272727272727271</v>
-      </c>
       <c r="Y58">
-        <f t="shared" ref="Y58:Z58" si="72">Y25/44</f>
+        <f t="shared" ref="Y58:Z58" si="81">Y25/44</f>
+        <v>0.50454545454545452</v>
+      </c>
+      <c r="Z58">
+        <f t="shared" si="81"/>
         <v>-0.05</v>
       </c>
-      <c r="Z58">
-        <f t="shared" si="72"/>
-        <v>0.50454545454545452</v>
-      </c>
       <c r="AC58">
-        <f t="shared" ref="AC58:AD58" si="73">AC25/44</f>
+        <f t="shared" ref="AC58:AD58" si="82">AC25/44</f>
+        <v>0.64090909090909087</v>
+      </c>
+      <c r="AD58">
+        <f t="shared" si="82"/>
         <v>-0.05</v>
-      </c>
-      <c r="AD58">
-        <f t="shared" si="73"/>
-        <v>0.64090909090909087</v>
       </c>
     </row>
     <row r="59" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Q59">
-        <f t="shared" ref="Q59:R59" si="74">Q26/44</f>
+        <f t="shared" ref="Q59:R59" si="83">Q26/44</f>
+        <v>-0.39318181818181819</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="83"/>
         <v>-0.05</v>
       </c>
-      <c r="R59">
-        <f t="shared" si="74"/>
-        <v>-0.39318181818181819</v>
-      </c>
       <c r="U59">
-        <f t="shared" ref="U59:V59" si="75">U26/44</f>
+        <f t="shared" ref="U59:V59" si="84">U26/44</f>
+        <v>-0.52954545454545454</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="84"/>
         <v>-0.05</v>
       </c>
-      <c r="V59">
-        <f t="shared" si="75"/>
-        <v>-0.52954545454545454</v>
-      </c>
       <c r="Y59">
-        <f t="shared" ref="Y59:Z59" si="76">Y26/44</f>
+        <f t="shared" ref="Y59:Z59" si="85">Y26/44</f>
+        <v>0.49772727272727268</v>
+      </c>
+      <c r="Z59">
+        <f t="shared" si="85"/>
         <v>-0.05</v>
       </c>
-      <c r="Z59">
-        <f t="shared" si="76"/>
-        <v>0.49772727272727268</v>
-      </c>
       <c r="AC59">
-        <f t="shared" ref="AC59:AD59" si="77">AC26/44</f>
+        <f t="shared" ref="AC59:AD59" si="86">AC26/44</f>
+        <v>0.63409090909090904</v>
+      </c>
+      <c r="AD59">
+        <f t="shared" si="86"/>
         <v>-0.05</v>
-      </c>
-      <c r="AD59">
-        <f t="shared" si="77"/>
-        <v>0.63409090909090904</v>
       </c>
     </row>
     <row r="60" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Q60">
-        <f t="shared" ref="Q60:R60" si="78">Q27/44</f>
-        <v>-5.6818181818181816E-2</v>
+        <f t="shared" ref="Q60:R60" si="87">Q27/44</f>
+        <v>-0.39772727272727271</v>
       </c>
       <c r="R60">
-        <f t="shared" si="78"/>
-        <v>-0.39772727272727271</v>
+        <f t="shared" si="87"/>
+        <v>-5.6818181818181816E-2</v>
       </c>
       <c r="U60">
-        <f t="shared" ref="U60:V60" si="79">U27/44</f>
-        <v>-5.6818181818181816E-2</v>
+        <f t="shared" ref="U60:V60" si="88">U27/44</f>
+        <v>-0.53409090909090906</v>
       </c>
       <c r="V60">
-        <f t="shared" si="79"/>
-        <v>-0.53409090909090906</v>
+        <f t="shared" si="88"/>
+        <v>-5.6818181818181816E-2</v>
       </c>
       <c r="Y60">
-        <f t="shared" ref="Y60:Z60" si="80">Y27/44</f>
-        <v>-5.6818181818181816E-2</v>
+        <f t="shared" ref="Y60:Z60" si="89">Y27/44</f>
+        <v>0.49318181818181817</v>
       </c>
       <c r="Z60">
-        <f t="shared" si="80"/>
-        <v>0.49318181818181817</v>
+        <f t="shared" si="89"/>
+        <v>-5.6818181818181816E-2</v>
       </c>
       <c r="AC60">
-        <f t="shared" ref="AC60:AD60" si="81">AC27/44</f>
-        <v>-5.6818181818181816E-2</v>
+        <f t="shared" ref="AC60:AD60" si="90">AC27/44</f>
+        <v>0.62954545454545452</v>
       </c>
       <c r="AD60">
-        <f t="shared" si="81"/>
-        <v>0.62954545454545452</v>
+        <f t="shared" si="90"/>
+        <v>-5.6818181818181816E-2</v>
       </c>
     </row>
     <row r="61" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Q61">
-        <f t="shared" ref="Q61:R61" si="82">Q28/44</f>
+        <f t="shared" ref="Q61:R61" si="91">Q28/44</f>
+        <v>-0.39318181818181819</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="91"/>
         <v>-0.13181818181818181</v>
       </c>
-      <c r="R61">
-        <f t="shared" si="82"/>
-        <v>-0.39318181818181819</v>
-      </c>
       <c r="U61">
-        <f t="shared" ref="U61:V61" si="83">U28/44</f>
+        <f t="shared" ref="U61:V61" si="92">U28/44</f>
+        <v>-0.52954545454545454</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="92"/>
         <v>-0.13181818181818181</v>
       </c>
-      <c r="V61">
-        <f t="shared" si="83"/>
-        <v>-0.52954545454545454</v>
-      </c>
       <c r="Y61">
-        <f t="shared" ref="Y61:Z61" si="84">Y28/44</f>
+        <f t="shared" ref="Y61:Z61" si="93">Y28/44</f>
+        <v>0.49772727272727268</v>
+      </c>
+      <c r="Z61">
+        <f t="shared" si="93"/>
         <v>-0.13181818181818181</v>
       </c>
-      <c r="Z61">
-        <f t="shared" si="84"/>
-        <v>0.49772727272727268</v>
-      </c>
       <c r="AC61">
-        <f t="shared" ref="AC61:AD61" si="85">AC28/44</f>
+        <f t="shared" ref="AC61:AD61" si="94">AC28/44</f>
+        <v>0.63409090909090904</v>
+      </c>
+      <c r="AD61">
+        <f t="shared" si="94"/>
         <v>-0.13181818181818181</v>
-      </c>
-      <c r="AD61">
-        <f t="shared" si="85"/>
-        <v>0.63409090909090904</v>
       </c>
     </row>
     <row r="62" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Q62">
-        <f t="shared" ref="Q62:R62" si="86">Q29/44</f>
+        <f t="shared" ref="Q62:R62" si="95">Q29/44</f>
+        <v>-0.38636363636363635</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="95"/>
         <v>-0.13181818181818181</v>
       </c>
-      <c r="R62">
-        <f t="shared" si="86"/>
-        <v>-0.38636363636363635</v>
-      </c>
       <c r="U62">
-        <f t="shared" ref="U62:V62" si="87">U29/44</f>
+        <f t="shared" ref="U62:V62" si="96">U29/44</f>
+        <v>-0.52272727272727271</v>
+      </c>
+      <c r="V62">
+        <f t="shared" si="96"/>
         <v>-0.13181818181818181</v>
       </c>
-      <c r="V62">
-        <f t="shared" si="87"/>
-        <v>-0.52272727272727271</v>
-      </c>
       <c r="Y62">
-        <f t="shared" ref="Y62:Z62" si="88">Y29/44</f>
+        <f t="shared" ref="Y62:Z62" si="97">Y29/44</f>
+        <v>0.50454545454545452</v>
+      </c>
+      <c r="Z62">
+        <f t="shared" si="97"/>
         <v>-0.13181818181818181</v>
       </c>
-      <c r="Z62">
-        <f t="shared" si="88"/>
-        <v>0.50454545454545452</v>
-      </c>
       <c r="AC62">
-        <f t="shared" ref="AC62:AD62" si="89">AC29/44</f>
+        <f t="shared" ref="AC62:AD62" si="98">AC29/44</f>
+        <v>0.64090909090909087</v>
+      </c>
+      <c r="AD62">
+        <f t="shared" si="98"/>
         <v>-0.13181818181818181</v>
-      </c>
-      <c r="AD62">
-        <f t="shared" si="89"/>
-        <v>0.64090909090909087</v>
       </c>
     </row>
     <row r="63" spans="17:31" x14ac:dyDescent="0.25">
       <c r="Q63">
-        <f t="shared" ref="Q63:R63" si="90">Q30/44</f>
-        <v>-5.6818181818181816E-2</v>
+        <f t="shared" ref="Q63:R63" si="99">Q30/44</f>
+        <v>-0.38181818181818183</v>
       </c>
       <c r="R63">
-        <f t="shared" si="90"/>
-        <v>-0.38181818181818183</v>
+        <f t="shared" si="99"/>
+        <v>-5.6818181818181816E-2</v>
       </c>
       <c r="U63">
-        <f t="shared" ref="U63:V63" si="91">U30/44</f>
-        <v>-5.6818181818181816E-2</v>
+        <f t="shared" ref="U63:V63" si="100">U30/44</f>
+        <v>-0.51818181818181819</v>
       </c>
       <c r="V63">
-        <f t="shared" si="91"/>
-        <v>-0.51818181818181819</v>
+        <f t="shared" si="100"/>
+        <v>-5.6818181818181816E-2</v>
       </c>
       <c r="Y63">
-        <f t="shared" ref="Y63:Z63" si="92">Y30/44</f>
-        <v>-5.6818181818181816E-2</v>
+        <f t="shared" ref="Y63:Z63" si="101">Y30/44</f>
+        <v>0.50909090909090904</v>
       </c>
       <c r="Z63">
-        <f t="shared" si="92"/>
-        <v>0.50909090909090904</v>
+        <f t="shared" si="101"/>
+        <v>-5.6818181818181816E-2</v>
       </c>
       <c r="AC63">
-        <f t="shared" ref="AC63:AD63" si="93">AC30/44</f>
-        <v>-5.6818181818181816E-2</v>
+        <f t="shared" ref="AC63:AD63" si="102">AC30/44</f>
+        <v>0.64545454545454539</v>
       </c>
       <c r="AD63">
-        <f t="shared" si="93"/>
-        <v>0.64545454545454539</v>
+        <f t="shared" si="102"/>
+        <v>-5.6818181818181816E-2</v>
       </c>
     </row>
     <row r="64" spans="17:31" x14ac:dyDescent="0.25">
@@ -2679,11 +2742,11 @@
         <v>0.27843137254901962</v>
       </c>
       <c r="R65">
-        <f t="shared" ref="R65:S65" si="94">R32/255</f>
+        <f t="shared" ref="R65:S65" si="103">R32/255</f>
         <v>0.27843137254901962</v>
       </c>
       <c r="S65">
-        <f t="shared" si="94"/>
+        <f t="shared" si="103"/>
         <v>0.27843137254901962</v>
       </c>
       <c r="U65">
@@ -2691,11 +2754,11 @@
         <v>0.27843137254901962</v>
       </c>
       <c r="V65">
-        <f t="shared" ref="V65:W65" si="95">V32/255</f>
+        <f t="shared" ref="V65:W65" si="104">V32/255</f>
         <v>0.27843137254901962</v>
       </c>
       <c r="W65">
-        <f t="shared" si="95"/>
+        <f t="shared" si="104"/>
         <v>0.27843137254901962</v>
       </c>
       <c r="Y65">
@@ -2703,11 +2766,11 @@
         <v>0.27843137254901962</v>
       </c>
       <c r="Z65">
-        <f t="shared" ref="Z65:AA65" si="96">Z32/255</f>
+        <f t="shared" ref="Z65:AA65" si="105">Z32/255</f>
         <v>0.27843137254901962</v>
       </c>
       <c r="AA65">
-        <f t="shared" si="96"/>
+        <f t="shared" si="105"/>
         <v>0.27843137254901962</v>
       </c>
       <c r="AC65">
@@ -2715,11 +2778,11 @@
         <v>0.27843137254901962</v>
       </c>
       <c r="AD65">
-        <f t="shared" ref="AD65:AE65" si="97">AD32/255</f>
+        <f t="shared" ref="AD65:AE65" si="106">AD32/255</f>
         <v>0.27843137254901962</v>
       </c>
       <c r="AE65">
-        <f t="shared" si="97"/>
+        <f t="shared" si="106"/>
         <v>0.27843137254901962</v>
       </c>
     </row>

--- a/bismarck.xlsx
+++ b/bismarck.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="18">
   <si>
     <t>contorno</t>
   </si>
@@ -47,6 +47,27 @@
   </si>
   <si>
     <t>canhao naval grande 2 msm</t>
+  </si>
+  <si>
+    <t>contorno 1</t>
+  </si>
+  <si>
+    <t>contorno 2 - msm</t>
+  </si>
+  <si>
+    <t>contorno 3 - msm</t>
+  </si>
+  <si>
+    <t>contorno 4 - msm</t>
+  </si>
+  <si>
+    <t>ponte 1 - msm</t>
+  </si>
+  <si>
+    <t>ponte 2 - msm</t>
+  </si>
+  <si>
+    <t>ponte 3 - msm</t>
   </si>
 </sst>
 </file>
@@ -102,9 +123,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -142,7 +163,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -214,7 +235,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -388,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE65"/>
+  <dimension ref="A1:AF70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB24" sqref="AB24"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC65" sqref="AC65:AE65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,7 +545,7 @@
         <v>2.4</v>
       </c>
       <c r="Y3">
-        <f t="shared" ref="Y3:Z8" si="5">U3+18+6+21.2</f>
+        <f t="shared" ref="Y3:Y8" si="5">U3+18+6+21.2</f>
         <v>23.8</v>
       </c>
       <c r="Z3">
@@ -532,7 +553,7 @@
         <v>2.4</v>
       </c>
       <c r="AC3">
-        <f t="shared" ref="AC3:AD8" si="7">Y3+6</f>
+        <f t="shared" ref="AC3:AC8" si="7">Y3+6</f>
         <v>29.8</v>
       </c>
       <c r="AD3">
@@ -1812,7 +1833,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="E33">
         <v>-0.95454545454545459</v>
       </c>
@@ -1820,7 +1841,7 @@
         <v>-2.2727272727272728E-2</v>
       </c>
     </row>
-    <row r="34" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="E34">
         <v>-1</v>
       </c>
@@ -1840,7 +1861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="E35">
         <f>A20/255</f>
         <v>0.66666666666666663</v>
@@ -1861,6 +1882,14 @@
         <f>R2/44</f>
         <v>4.5454545454545456E-2</v>
       </c>
+      <c r="S35">
+        <f>10000*Q35</f>
+        <v>-3363.6363636363635</v>
+      </c>
+      <c r="T35">
+        <f>10000*R35</f>
+        <v>454.54545454545456</v>
+      </c>
       <c r="U35">
         <f>U2/44</f>
         <v>-0.47272727272727272</v>
@@ -1869,6 +1898,14 @@
         <f>V2/44</f>
         <v>4.5454545454545456E-2</v>
       </c>
+      <c r="W35">
+        <f>10000*U35</f>
+        <v>-4727.272727272727</v>
+      </c>
+      <c r="X35">
+        <f>10000*V35</f>
+        <v>454.54545454545456</v>
+      </c>
       <c r="Y35">
         <f>Y2/44</f>
         <v>0.55454545454545456</v>
@@ -1877,6 +1914,14 @@
         <f>Z2/44</f>
         <v>4.5454545454545456E-2</v>
       </c>
+      <c r="AA35">
+        <f>10000*Y35</f>
+        <v>5545.454545454546</v>
+      </c>
+      <c r="AB35">
+        <f>10000*Z35</f>
+        <v>454.54545454545456</v>
+      </c>
       <c r="AC35">
         <f>AC2/44</f>
         <v>0.69090909090909092</v>
@@ -1885,212 +1930,631 @@
         <f>AD2/44</f>
         <v>4.5454545454545456E-2</v>
       </c>
-    </row>
-    <row r="36" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="AE35">
+        <f>10000*AC35</f>
+        <v>6909.090909090909</v>
+      </c>
+      <c r="AF35">
+        <f>10000*AD35</f>
+        <v>454.54545454545456</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="Q36">
         <f t="shared" ref="Q36" si="23">Q3/44</f>
         <v>-0.35000000000000003</v>
       </c>
       <c r="R36">
-        <f>R3/44</f>
+        <f t="shared" ref="R36:R41" si="24">R3/44</f>
         <v>5.4545454545454543E-2</v>
       </c>
+      <c r="S36">
+        <f t="shared" ref="S36:S41" si="25">10000*Q36</f>
+        <v>-3500.0000000000005</v>
+      </c>
+      <c r="T36">
+        <f t="shared" ref="T36:T41" si="26">10000*R36</f>
+        <v>545.45454545454538</v>
+      </c>
       <c r="U36">
-        <f t="shared" ref="U36:V36" si="24">U3/44</f>
+        <f t="shared" ref="U36:V36" si="27">U3/44</f>
         <v>-0.48636363636363633</v>
       </c>
       <c r="V36">
+        <f t="shared" si="27"/>
+        <v>5.4545454545454543E-2</v>
+      </c>
+      <c r="W36">
+        <f t="shared" ref="W36:W41" si="28">10000*U36</f>
+        <v>-4863.6363636363631</v>
+      </c>
+      <c r="X36">
+        <f t="shared" ref="X36:X41" si="29">10000*V36</f>
+        <v>545.45454545454538</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" ref="Y36:Z36" si="30">Y3/44</f>
+        <v>0.54090909090909089</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="30"/>
+        <v>5.4545454545454543E-2</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" ref="AA36:AA41" si="31">10000*Y36</f>
+        <v>5409.090909090909</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" ref="AB36:AB41" si="32">10000*Z36</f>
+        <v>545.45454545454538</v>
+      </c>
+      <c r="AC36">
+        <f t="shared" ref="AC36:AD36" si="33">AC3/44</f>
+        <v>0.67727272727272725</v>
+      </c>
+      <c r="AD36">
+        <f t="shared" si="33"/>
+        <v>5.4545454545454543E-2</v>
+      </c>
+      <c r="AE36">
+        <f t="shared" ref="AE36:AE41" si="34">10000*AC36</f>
+        <v>6772.7272727272721</v>
+      </c>
+      <c r="AF36">
+        <f t="shared" ref="AF36:AF41" si="35">10000*AD36</f>
+        <v>545.45454545454538</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="K37" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" ref="Q37" si="36">Q4/44</f>
+        <v>-0.37272727272727268</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="24"/>
+        <v>6.136363636363637E-2</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="25"/>
+        <v>-3727.272727272727</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="26"/>
+        <v>613.63636363636374</v>
+      </c>
+      <c r="U37">
+        <f t="shared" ref="U37:V37" si="37">U4/44</f>
+        <v>-0.50909090909090904</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="37"/>
+        <v>6.136363636363637E-2</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="28"/>
+        <v>-5090.9090909090901</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="29"/>
+        <v>613.63636363636374</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" ref="Y37:Z37" si="38">Y4/44</f>
+        <v>0.51818181818181819</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="38"/>
+        <v>6.136363636363637E-2</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="31"/>
+        <v>5181.818181818182</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="32"/>
+        <v>613.63636363636374</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" ref="AC37:AD37" si="39">AC4/44</f>
+        <v>0.65454545454545454</v>
+      </c>
+      <c r="AD37">
+        <f t="shared" si="39"/>
+        <v>6.136363636363637E-2</v>
+      </c>
+      <c r="AE37">
+        <f t="shared" si="34"/>
+        <v>6545.454545454545</v>
+      </c>
+      <c r="AF37">
+        <f t="shared" si="35"/>
+        <v>613.63636363636374</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>0.17727272727272728</v>
+      </c>
+      <c r="C38">
+        <f>10000*A38</f>
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <f>10000*B38</f>
+        <v>1772.7272727272727</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0.17727272727272728</v>
+      </c>
+      <c r="H38">
+        <f>10000*F38</f>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f>10000*G38</f>
+        <v>1772.7272727272727</v>
+      </c>
+      <c r="K38">
+        <v>0.19318181818181818</v>
+      </c>
+      <c r="L38">
+        <v>0.16363636363636364</v>
+      </c>
+      <c r="M38">
+        <f>10000*K38</f>
+        <v>1931.8181818181818</v>
+      </c>
+      <c r="N38">
+        <f>10000*L38</f>
+        <v>1636.3636363636363</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" ref="Q38" si="40">Q5/44</f>
+        <v>-0.39545454545454545</v>
+      </c>
+      <c r="R38">
         <f t="shared" si="24"/>
         <v>5.4545454545454543E-2</v>
       </c>
-      <c r="Y36">
-        <f t="shared" ref="Y36:Z36" si="25">Y3/44</f>
-        <v>0.54090909090909089</v>
-      </c>
-      <c r="Z36">
+      <c r="S38">
         <f t="shared" si="25"/>
+        <v>-3954.5454545454545</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="26"/>
+        <v>545.45454545454538</v>
+      </c>
+      <c r="U38">
+        <f t="shared" ref="U38:V38" si="41">U5/44</f>
+        <v>-0.53181818181818175</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="41"/>
         <v>5.4545454545454543E-2</v>
       </c>
-      <c r="AC36">
-        <f t="shared" ref="AC36:AD36" si="26">AC3/44</f>
-        <v>0.67727272727272725</v>
-      </c>
-      <c r="AD36">
+      <c r="W38">
+        <f t="shared" si="28"/>
+        <v>-5318.1818181818171</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="29"/>
+        <v>545.45454545454538</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" ref="Y38:Z38" si="42">Y5/44</f>
+        <v>0.49545454545454548</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="42"/>
+        <v>5.4545454545454543E-2</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="31"/>
+        <v>4954.545454545455</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="32"/>
+        <v>545.45454545454538</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" ref="AC38:AD38" si="43">AC5/44</f>
+        <v>0.63181818181818183</v>
+      </c>
+      <c r="AD38">
+        <f t="shared" si="43"/>
+        <v>5.4545454545454543E-2</v>
+      </c>
+      <c r="AE38">
+        <f t="shared" si="34"/>
+        <v>6318.181818181818</v>
+      </c>
+      <c r="AF38">
+        <f t="shared" si="35"/>
+        <v>545.45454545454538</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0.19318181818181818</v>
+      </c>
+      <c r="B39">
+        <v>0.16363636363636364</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39:C55" si="44">10000*A39</f>
+        <v>1931.8181818181818</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39:D55" si="45">10000*B39</f>
+        <v>1636.3636363636363</v>
+      </c>
+      <c r="F39">
+        <v>0.19318181818181818</v>
+      </c>
+      <c r="G39">
+        <v>0.16363636363636364</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ref="H39:H42" si="46">10000*F39</f>
+        <v>1931.8181818181818</v>
+      </c>
+      <c r="I39">
+        <f t="shared" ref="I39:I42" si="47">10000*G39</f>
+        <v>1636.3636363636363</v>
+      </c>
+      <c r="K39">
+        <v>0.32954545454545453</v>
+      </c>
+      <c r="L39">
+        <v>0.15454545454545454</v>
+      </c>
+      <c r="M39">
+        <f t="shared" ref="M39:M48" si="48">10000*K39</f>
+        <v>3295.4545454545455</v>
+      </c>
+      <c r="N39">
+        <f t="shared" ref="N39:N48" si="49">10000*L39</f>
+        <v>1545.4545454545455</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" ref="Q39" si="50">Q6/44</f>
+        <v>-0.40909090909090912</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="24"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="25"/>
+        <v>-4090.909090909091</v>
+      </c>
+      <c r="T39">
         <f t="shared" si="26"/>
-        <v>5.4545454545454543E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="5:31" x14ac:dyDescent="0.25">
-      <c r="Q37">
-        <f t="shared" ref="Q37" si="27">Q4/44</f>
-        <v>-0.37272727272727268</v>
-      </c>
-      <c r="R37">
-        <f>R4/44</f>
-        <v>6.136363636363637E-2</v>
-      </c>
-      <c r="U37">
-        <f t="shared" ref="U37:V37" si="28">U4/44</f>
-        <v>-0.50909090909090904</v>
-      </c>
-      <c r="V37">
+        <v>454.54545454545456</v>
+      </c>
+      <c r="U39">
+        <f t="shared" ref="U39:V39" si="51">U6/44</f>
+        <v>-0.54545454545454541</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="51"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="W39">
         <f t="shared" si="28"/>
-        <v>6.136363636363637E-2</v>
-      </c>
-      <c r="Y37">
-        <f t="shared" ref="Y37:Z37" si="29">Y4/44</f>
-        <v>0.51818181818181819</v>
-      </c>
-      <c r="Z37">
+        <v>-5454.545454545454</v>
+      </c>
+      <c r="X39">
         <f t="shared" si="29"/>
-        <v>6.136363636363637E-2</v>
-      </c>
-      <c r="AC37">
-        <f t="shared" ref="AC37:AD37" si="30">AC4/44</f>
-        <v>0.65454545454545454</v>
-      </c>
-      <c r="AD37">
-        <f t="shared" si="30"/>
-        <v>6.136363636363637E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="5:31" x14ac:dyDescent="0.25">
-      <c r="Q38">
-        <f t="shared" ref="Q38" si="31">Q5/44</f>
-        <v>-0.39545454545454545</v>
-      </c>
-      <c r="R38">
-        <f>R5/44</f>
-        <v>5.4545454545454543E-2</v>
-      </c>
-      <c r="U38">
-        <f t="shared" ref="U38:V38" si="32">U5/44</f>
-        <v>-0.53181818181818175</v>
-      </c>
-      <c r="V38">
+        <v>454.54545454545456</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" ref="Y39:Z39" si="52">Y6/44</f>
+        <v>0.48181818181818181</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="52"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="31"/>
+        <v>4818.181818181818</v>
+      </c>
+      <c r="AB39">
         <f t="shared" si="32"/>
-        <v>5.4545454545454543E-2</v>
-      </c>
-      <c r="Y38">
-        <f t="shared" ref="Y38:Z38" si="33">Y5/44</f>
-        <v>0.49545454545454548</v>
-      </c>
-      <c r="Z38">
-        <f t="shared" si="33"/>
-        <v>5.4545454545454543E-2</v>
-      </c>
-      <c r="AC38">
-        <f t="shared" ref="AC38:AD38" si="34">AC5/44</f>
-        <v>0.63181818181818183</v>
-      </c>
-      <c r="AD38">
+        <v>454.54545454545456</v>
+      </c>
+      <c r="AC39">
+        <f t="shared" ref="AC39:AD39" si="53">AC6/44</f>
+        <v>0.61818181818181817</v>
+      </c>
+      <c r="AD39">
+        <f t="shared" si="53"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="AE39">
         <f t="shared" si="34"/>
-        <v>5.4545454545454543E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="5:31" x14ac:dyDescent="0.25">
-      <c r="Q39">
-        <f t="shared" ref="Q39" si="35">Q6/44</f>
+        <v>6181.818181818182</v>
+      </c>
+      <c r="AF39">
+        <f t="shared" si="35"/>
+        <v>454.54545454545456</v>
+      </c>
+    </row>
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0.32954545454545453</v>
+      </c>
+      <c r="B40">
+        <v>0.15454545454545454</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="44"/>
+        <v>3295.4545454545455</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="45"/>
+        <v>1545.4545454545455</v>
+      </c>
+      <c r="F40">
+        <v>0.19318181818181818</v>
+      </c>
+      <c r="G40">
+        <v>-0.163636363636364</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="46"/>
+        <v>1931.8181818181818</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="47"/>
+        <v>-1636.3636363636399</v>
+      </c>
+      <c r="K40">
+        <v>0.55681818181818177</v>
+      </c>
+      <c r="L40">
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="48"/>
+        <v>5568.181818181818</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="49"/>
+        <v>1363.6363636363635</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" ref="Q40" si="54">Q7/44</f>
         <v>-0.40909090909090912</v>
       </c>
-      <c r="R39">
-        <f>R6/44</f>
-        <v>4.5454545454545456E-2</v>
-      </c>
-      <c r="U39">
-        <f t="shared" ref="U39:V39" si="36">U6/44</f>
+      <c r="R40">
+        <f t="shared" si="24"/>
+        <v>-5.6818181818181816E-2</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="25"/>
+        <v>-4090.909090909091</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="26"/>
+        <v>-568.18181818181813</v>
+      </c>
+      <c r="U40">
+        <f t="shared" ref="U40:V40" si="55">U7/44</f>
         <v>-0.54545454545454541</v>
       </c>
-      <c r="V39">
-        <f t="shared" si="36"/>
-        <v>4.5454545454545456E-2</v>
-      </c>
-      <c r="Y39">
-        <f t="shared" ref="Y39:Z39" si="37">Y6/44</f>
+      <c r="V40">
+        <f t="shared" si="55"/>
+        <v>-5.6818181818181816E-2</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="28"/>
+        <v>-5454.545454545454</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="29"/>
+        <v>-568.18181818181813</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" ref="Y40:Z40" si="56">Y7/44</f>
         <v>0.48181818181818181</v>
       </c>
-      <c r="Z39">
-        <f t="shared" si="37"/>
-        <v>4.5454545454545456E-2</v>
-      </c>
-      <c r="AC39">
-        <f t="shared" ref="AC39:AD39" si="38">AC6/44</f>
+      <c r="Z40">
+        <f t="shared" si="56"/>
+        <v>-5.6818181818181816E-2</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="31"/>
+        <v>4818.181818181818</v>
+      </c>
+      <c r="AB40">
+        <f t="shared" si="32"/>
+        <v>-568.18181818181813</v>
+      </c>
+      <c r="AC40">
+        <f t="shared" ref="AC40:AD40" si="57">AC7/44</f>
         <v>0.61818181818181817</v>
       </c>
-      <c r="AD39">
-        <f t="shared" si="38"/>
-        <v>4.5454545454545456E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="5:31" x14ac:dyDescent="0.25">
-      <c r="Q40">
-        <f t="shared" ref="Q40" si="39">Q7/44</f>
-        <v>-0.40909090909090912</v>
-      </c>
-      <c r="R40">
-        <f>R7/44</f>
+      <c r="AD40">
+        <f t="shared" si="57"/>
         <v>-5.6818181818181816E-2</v>
       </c>
-      <c r="U40">
-        <f t="shared" ref="U40:V40" si="40">U7/44</f>
-        <v>-0.54545454545454541</v>
-      </c>
-      <c r="V40">
-        <f t="shared" si="40"/>
+      <c r="AE40">
+        <f t="shared" si="34"/>
+        <v>6181.818181818182</v>
+      </c>
+      <c r="AF40">
+        <f t="shared" si="35"/>
+        <v>-568.18181818181813</v>
+      </c>
+    </row>
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0.55681818181818177</v>
+      </c>
+      <c r="B41">
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="44"/>
+        <v>5568.181818181818</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="45"/>
+        <v>1363.6363636363635</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>-0.177272727272727</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="47"/>
+        <v>-1772.72727272727</v>
+      </c>
+      <c r="K41">
+        <v>0.69772727272727275</v>
+      </c>
+      <c r="L41">
+        <v>0.11363636363636363</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="48"/>
+        <v>6977.2727272727279</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="49"/>
+        <v>1136.3636363636363</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" ref="Q41" si="58">Q8/44</f>
+        <v>-0.33636363636363636</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="24"/>
         <v>-5.6818181818181816E-2</v>
       </c>
-      <c r="Y40">
-        <f t="shared" ref="Y40:Z40" si="41">Y7/44</f>
-        <v>0.48181818181818181</v>
-      </c>
-      <c r="Z40">
-        <f t="shared" si="41"/>
+      <c r="S41">
+        <f t="shared" si="25"/>
+        <v>-3363.6363636363635</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="26"/>
+        <v>-568.18181818181813</v>
+      </c>
+      <c r="U41">
+        <f t="shared" ref="U41:V41" si="59">U8/44</f>
+        <v>-0.47272727272727272</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="59"/>
         <v>-5.6818181818181816E-2</v>
       </c>
-      <c r="AC40">
-        <f t="shared" ref="AC40:AD40" si="42">AC7/44</f>
-        <v>0.61818181818181817</v>
-      </c>
-      <c r="AD40">
-        <f t="shared" si="42"/>
+      <c r="W41">
+        <f t="shared" si="28"/>
+        <v>-4727.272727272727</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="29"/>
+        <v>-568.18181818181813</v>
+      </c>
+      <c r="Y41">
+        <f t="shared" ref="Y41:Z41" si="60">Y8/44</f>
+        <v>0.55454545454545456</v>
+      </c>
+      <c r="Z41">
+        <f t="shared" si="60"/>
         <v>-5.6818181818181816E-2</v>
       </c>
-    </row>
-    <row r="41" spans="5:31" x14ac:dyDescent="0.25">
-      <c r="Q41">
-        <f t="shared" ref="Q41" si="43">Q8/44</f>
-        <v>-0.33636363636363636</v>
-      </c>
-      <c r="R41">
-        <f>R8/44</f>
+      <c r="AA41">
+        <f t="shared" si="31"/>
+        <v>5545.454545454546</v>
+      </c>
+      <c r="AB41">
+        <f t="shared" si="32"/>
+        <v>-568.18181818181813</v>
+      </c>
+      <c r="AC41">
+        <f t="shared" ref="AC41:AD41" si="61">AC8/44</f>
+        <v>0.69090909090909092</v>
+      </c>
+      <c r="AD41">
+        <f t="shared" si="61"/>
         <v>-5.6818181818181816E-2</v>
       </c>
-      <c r="U41">
-        <f t="shared" ref="U41:V41" si="44">U8/44</f>
-        <v>-0.47272727272727272</v>
-      </c>
-      <c r="V41">
+      <c r="AE41">
+        <f t="shared" si="34"/>
+        <v>6909.090909090909</v>
+      </c>
+      <c r="AF41">
+        <f t="shared" si="35"/>
+        <v>-568.18181818181813</v>
+      </c>
+    </row>
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0.69772727272727275</v>
+      </c>
+      <c r="B42">
+        <v>0.11363636363636363</v>
+      </c>
+      <c r="C42">
         <f t="shared" si="44"/>
-        <v>-5.6818181818181816E-2</v>
-      </c>
-      <c r="Y41">
-        <f t="shared" ref="Y41:Z41" si="45">Y8/44</f>
-        <v>0.55454545454545456</v>
-      </c>
-      <c r="Z41">
+        <v>6977.2727272727279</v>
+      </c>
+      <c r="D42">
         <f t="shared" si="45"/>
-        <v>-5.6818181818181816E-2</v>
-      </c>
-      <c r="AC41">
-        <f t="shared" ref="AC41:AD41" si="46">AC8/44</f>
-        <v>0.69090909090909092</v>
-      </c>
-      <c r="AD41">
+        <v>1136.3636363636363</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0.17727272727272728</v>
+      </c>
+      <c r="H42">
         <f t="shared" si="46"/>
-        <v>-5.6818181818181816E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="5:31" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="47"/>
+        <v>1772.7272727272727</v>
+      </c>
+      <c r="K42">
+        <v>0.8136363636363636</v>
+      </c>
+      <c r="L42">
+        <v>8.4090909090909091E-2</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="48"/>
+        <v>8136.363636363636</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="49"/>
+        <v>840.90909090909088</v>
+      </c>
       <c r="Q42" t="s">
         <v>1</v>
       </c>
@@ -2104,17 +2568,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0.8136363636363636</v>
+      </c>
+      <c r="B43">
+        <v>8.4090909090909091E-2</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="44"/>
+        <v>8136.363636363636</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="45"/>
+        <v>840.90909090909088</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H43">
+        <v>0.52156862745098043</v>
+      </c>
+      <c r="I43">
+        <v>0.38823529411764707</v>
+      </c>
+      <c r="K43">
+        <v>0.8136363636363636</v>
+      </c>
+      <c r="L43">
+        <v>-8.4090909090909105E-2</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="48"/>
+        <v>8136.363636363636</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="49"/>
+        <v>-840.90909090909111</v>
+      </c>
       <c r="Q43">
         <f>Q10/255</f>
         <v>0.50588235294117645</v>
       </c>
       <c r="R43">
-        <f t="shared" ref="R43:S43" si="47">R10/255</f>
+        <f t="shared" ref="R43:S43" si="62">R10/255</f>
         <v>0.51372549019607838</v>
       </c>
       <c r="S43">
-        <f t="shared" si="47"/>
+        <f t="shared" si="62"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="U43">
@@ -2122,11 +2626,11 @@
         <v>0.50588235294117645</v>
       </c>
       <c r="V43">
-        <f t="shared" ref="V43:W43" si="48">V10/255</f>
+        <f t="shared" ref="V43:W43" si="63">V10/255</f>
         <v>0.51372549019607838</v>
       </c>
       <c r="W43">
-        <f t="shared" si="48"/>
+        <f t="shared" si="63"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="Y43">
@@ -2134,11 +2638,11 @@
         <v>0.50588235294117645</v>
       </c>
       <c r="Z43">
-        <f t="shared" ref="Z43:AA43" si="49">Z10/255</f>
+        <f t="shared" ref="Z43:AA43" si="64">Z10/255</f>
         <v>0.51372549019607838</v>
       </c>
       <c r="AA43">
-        <f t="shared" si="49"/>
+        <f t="shared" si="64"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="AC43">
@@ -2146,15 +2650,73 @@
         <v>0.50588235294117645</v>
       </c>
       <c r="AD43">
-        <f t="shared" ref="AD43:AE43" si="50">AD10/255</f>
+        <f t="shared" ref="AD43:AE43" si="65">AD10/255</f>
         <v>0.51372549019607838</v>
       </c>
       <c r="AE43">
-        <f t="shared" si="50"/>
+        <f t="shared" si="65"/>
         <v>0.52941176470588236</v>
       </c>
     </row>
-    <row r="45" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0.92045454545454541</v>
+      </c>
+      <c r="B44">
+        <v>5.6818181818181816E-2</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="44"/>
+        <v>9204.545454545454</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="45"/>
+        <v>568.18181818181813</v>
+      </c>
+      <c r="K44">
+        <v>0.69772727272727275</v>
+      </c>
+      <c r="L44">
+        <v>-0.11363636363636399</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="48"/>
+        <v>6977.2727272727279</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="49"/>
+        <v>-1136.3636363636399</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0.96590909090909094</v>
+      </c>
+      <c r="B45">
+        <v>3.4090909090909088E-2</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="44"/>
+        <v>9659.0909090909099</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="45"/>
+        <v>340.90909090909088</v>
+      </c>
+      <c r="K45">
+        <v>0.55681818181818177</v>
+      </c>
+      <c r="L45">
+        <v>-0.13636363636363599</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="48"/>
+        <v>5568.181818181818</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="49"/>
+        <v>-1363.6363636363599</v>
+      </c>
       <c r="Q45" t="s">
         <v>9</v>
       </c>
@@ -2168,7 +2730,35 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="44"/>
+        <v>10000</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0.32954545454545453</v>
+      </c>
+      <c r="L46">
+        <v>-0.15454545454545501</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="48"/>
+        <v>3295.4545454545455</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="49"/>
+        <v>-1545.45454545455</v>
+      </c>
       <c r="Q46">
         <f>Q13/44</f>
         <v>-0.34772727272727272</v>
@@ -2177,6 +2767,14 @@
         <f>R13/44</f>
         <v>-5.6818181818181816E-2</v>
       </c>
+      <c r="S46">
+        <f>10000*Q46</f>
+        <v>-3477.272727272727</v>
+      </c>
+      <c r="T46">
+        <f>10000*R46</f>
+        <v>-568.18181818181813</v>
+      </c>
       <c r="U46">
         <f>U13/44</f>
         <v>-0.48409090909090913</v>
@@ -2185,6 +2783,14 @@
         <f>V13/44</f>
         <v>-5.6818181818181816E-2</v>
       </c>
+      <c r="W46">
+        <f>10000*U46</f>
+        <v>-4840.909090909091</v>
+      </c>
+      <c r="X46">
+        <f>10000*V46</f>
+        <v>-568.18181818181813</v>
+      </c>
       <c r="Y46">
         <f>Y13/44</f>
         <v>0.5431818181818181</v>
@@ -2193,6 +2799,14 @@
         <f>Z13/44</f>
         <v>-5.6818181818181816E-2</v>
       </c>
+      <c r="AA46">
+        <f>10000*Y46</f>
+        <v>5431.8181818181811</v>
+      </c>
+      <c r="AB46">
+        <f>10000*Z46</f>
+        <v>-568.18181818181813</v>
+      </c>
       <c r="AC46">
         <f>AC13/44</f>
         <v>0.67954545454545456</v>
@@ -2201,212 +2815,628 @@
         <f>AD13/44</f>
         <v>-5.6818181818181816E-2</v>
       </c>
-    </row>
-    <row r="47" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="AE46">
+        <f>10000*AC46</f>
+        <v>6795.454545454546</v>
+      </c>
+      <c r="AF46">
+        <f>10000*AD46</f>
+        <v>-568.18181818181813</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>0.96590909090909094</v>
+      </c>
+      <c r="B47">
+        <v>-3.4090909090909088E-2</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="44"/>
+        <v>9659.0909090909099</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="45"/>
+        <v>-340.90909090909088</v>
+      </c>
+      <c r="K47">
+        <v>0.19318181818181818</v>
+      </c>
+      <c r="L47">
+        <v>-0.163636363636364</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="48"/>
+        <v>1931.8181818181818</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="49"/>
+        <v>-1636.3636363636399</v>
+      </c>
       <c r="Q47">
-        <f t="shared" ref="Q47:R47" si="51">Q14/44</f>
+        <f t="shared" ref="Q47:R47" si="66">Q14/44</f>
         <v>-0.35227272727272729</v>
       </c>
       <c r="R47">
-        <f t="shared" si="51"/>
+        <f t="shared" si="66"/>
         <v>-0.05</v>
       </c>
+      <c r="S47">
+        <f t="shared" ref="S47:S52" si="67">10000*Q47</f>
+        <v>-3522.727272727273</v>
+      </c>
+      <c r="T47">
+        <f t="shared" ref="T47:T52" si="68">10000*R47</f>
+        <v>-500</v>
+      </c>
       <c r="U47">
-        <f t="shared" ref="U47:V47" si="52">U14/44</f>
+        <f t="shared" ref="U47:V47" si="69">U14/44</f>
         <v>-0.48863636363636365</v>
       </c>
       <c r="V47">
-        <f t="shared" si="52"/>
+        <f t="shared" si="69"/>
         <v>-0.05</v>
       </c>
+      <c r="W47">
+        <f t="shared" ref="W47:W52" si="70">10000*U47</f>
+        <v>-4886.363636363636</v>
+      </c>
+      <c r="X47">
+        <f t="shared" ref="X47:X52" si="71">10000*V47</f>
+        <v>-500</v>
+      </c>
       <c r="Y47">
-        <f t="shared" ref="Y47:Z47" si="53">Y14/44</f>
+        <f t="shared" ref="Y47:Z47" si="72">Y14/44</f>
         <v>0.53863636363636358</v>
       </c>
       <c r="Z47">
-        <f t="shared" si="53"/>
+        <f t="shared" si="72"/>
         <v>-0.05</v>
       </c>
+      <c r="AA47">
+        <f t="shared" ref="AA47:AA52" si="73">10000*Y47</f>
+        <v>5386.363636363636</v>
+      </c>
+      <c r="AB47">
+        <f t="shared" ref="AB47:AB52" si="74">10000*Z47</f>
+        <v>-500</v>
+      </c>
       <c r="AC47">
-        <f t="shared" ref="AC47:AD47" si="54">AC14/44</f>
+        <f t="shared" ref="AC47:AD47" si="75">AC14/44</f>
         <v>0.67499999999999993</v>
       </c>
       <c r="AD47">
-        <f t="shared" si="54"/>
+        <f t="shared" si="75"/>
         <v>-0.05</v>
       </c>
-    </row>
-    <row r="48" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="AE47">
+        <f t="shared" ref="AE47:AE52" si="76">10000*AC47</f>
+        <v>6749.9999999999991</v>
+      </c>
+      <c r="AF47">
+        <f t="shared" ref="AF47:AF52" si="77">10000*AD47</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>0.92045454545454541</v>
+      </c>
+      <c r="B48">
+        <v>-5.6818181818181816E-2</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="44"/>
+        <v>9204.545454545454</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="45"/>
+        <v>-568.18181818181813</v>
+      </c>
+      <c r="K48">
+        <v>0.19318181818181818</v>
+      </c>
+      <c r="L48">
+        <v>0.16363636363636364</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="48"/>
+        <v>1931.8181818181818</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="49"/>
+        <v>1636.3636363636363</v>
+      </c>
       <c r="Q48">
-        <f t="shared" ref="Q48:R48" si="55">Q15/44</f>
+        <f t="shared" ref="Q48:R48" si="78">Q15/44</f>
         <v>-0.35909090909090913</v>
       </c>
       <c r="R48">
-        <f t="shared" si="55"/>
+        <f t="shared" si="78"/>
         <v>-0.05</v>
       </c>
+      <c r="S48">
+        <f t="shared" si="67"/>
+        <v>-3590.9090909090914</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="68"/>
+        <v>-500</v>
+      </c>
       <c r="U48">
-        <f t="shared" ref="U48:V48" si="56">U15/44</f>
+        <f t="shared" ref="U48:V48" si="79">U15/44</f>
         <v>-0.49545454545454548</v>
       </c>
       <c r="V48">
-        <f t="shared" si="56"/>
+        <f t="shared" si="79"/>
         <v>-0.05</v>
       </c>
+      <c r="W48">
+        <f t="shared" si="70"/>
+        <v>-4954.545454545455</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="71"/>
+        <v>-500</v>
+      </c>
       <c r="Y48">
-        <f t="shared" ref="Y48:Z48" si="57">Y15/44</f>
+        <f t="shared" ref="Y48:Z48" si="80">Y15/44</f>
         <v>0.53181818181818175</v>
       </c>
       <c r="Z48">
-        <f t="shared" si="57"/>
+        <f t="shared" si="80"/>
         <v>-0.05</v>
       </c>
+      <c r="AA48">
+        <f t="shared" si="73"/>
+        <v>5318.1818181818171</v>
+      </c>
+      <c r="AB48">
+        <f t="shared" si="74"/>
+        <v>-500</v>
+      </c>
       <c r="AC48">
-        <f t="shared" ref="AC48:AD48" si="58">AC15/44</f>
+        <f t="shared" ref="AC48:AD48" si="81">AC15/44</f>
         <v>0.6681818181818181</v>
       </c>
       <c r="AD48">
-        <f t="shared" si="58"/>
+        <f t="shared" si="81"/>
         <v>-0.05</v>
       </c>
-    </row>
-    <row r="49" spans="17:31" x14ac:dyDescent="0.25">
+      <c r="AE48">
+        <f t="shared" si="76"/>
+        <v>6681.8181818181811</v>
+      </c>
+      <c r="AF48">
+        <f t="shared" si="77"/>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>0.8136363636363636</v>
+      </c>
+      <c r="B49">
+        <v>-8.4090909090909091E-2</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="44"/>
+        <v>8136.363636363636</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="45"/>
+        <v>-840.90909090909088</v>
+      </c>
       <c r="Q49">
-        <f t="shared" ref="Q49:R49" si="59">Q16/44</f>
+        <f t="shared" ref="Q49:R49" si="82">Q16/44</f>
         <v>-0.36363636363636365</v>
       </c>
       <c r="R49">
-        <f t="shared" si="59"/>
+        <f t="shared" si="82"/>
         <v>-5.6818181818181816E-2</v>
       </c>
+      <c r="S49">
+        <f t="shared" si="67"/>
+        <v>-3636.3636363636365</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="68"/>
+        <v>-568.18181818181813</v>
+      </c>
       <c r="U49">
-        <f t="shared" ref="U49:V49" si="60">U16/44</f>
+        <f t="shared" ref="U49:V49" si="83">U16/44</f>
         <v>-0.5</v>
       </c>
       <c r="V49">
-        <f t="shared" si="60"/>
+        <f t="shared" si="83"/>
         <v>-5.6818181818181816E-2</v>
       </c>
+      <c r="W49">
+        <f t="shared" si="70"/>
+        <v>-5000</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="71"/>
+        <v>-568.18181818181813</v>
+      </c>
       <c r="Y49">
-        <f t="shared" ref="Y49:Z49" si="61">Y16/44</f>
+        <f t="shared" ref="Y49:Z49" si="84">Y16/44</f>
         <v>0.52727272727272723</v>
       </c>
       <c r="Z49">
-        <f t="shared" si="61"/>
+        <f t="shared" si="84"/>
         <v>-5.6818181818181816E-2</v>
       </c>
+      <c r="AA49">
+        <f t="shared" si="73"/>
+        <v>5272.7272727272721</v>
+      </c>
+      <c r="AB49">
+        <f t="shared" si="74"/>
+        <v>-568.18181818181813</v>
+      </c>
       <c r="AC49">
-        <f t="shared" ref="AC49:AD49" si="62">AC16/44</f>
+        <f t="shared" ref="AC49:AD49" si="85">AC16/44</f>
         <v>0.66363636363636358</v>
       </c>
       <c r="AD49">
-        <f t="shared" si="62"/>
+        <f t="shared" si="85"/>
         <v>-5.6818181818181816E-2</v>
       </c>
-    </row>
-    <row r="50" spans="17:31" x14ac:dyDescent="0.25">
+      <c r="AE49">
+        <f t="shared" si="76"/>
+        <v>6636.363636363636</v>
+      </c>
+      <c r="AF49">
+        <f t="shared" si="77"/>
+        <v>-568.18181818181813</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>0.69772727272727275</v>
+      </c>
+      <c r="B50">
+        <v>-0.11363636363636363</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="44"/>
+        <v>6977.2727272727279</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="45"/>
+        <v>-1136.3636363636363</v>
+      </c>
+      <c r="F50" t="s">
+        <v>14</v>
+      </c>
+      <c r="K50" t="s">
+        <v>15</v>
+      </c>
       <c r="Q50">
-        <f t="shared" ref="Q50:R50" si="63">Q17/44</f>
+        <f t="shared" ref="Q50:R50" si="86">Q17/44</f>
         <v>-0.35909090909090913</v>
       </c>
       <c r="R50">
-        <f t="shared" si="63"/>
+        <f t="shared" si="86"/>
         <v>-0.13181818181818181</v>
       </c>
+      <c r="S50">
+        <f t="shared" si="67"/>
+        <v>-3590.9090909090914</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="68"/>
+        <v>-1318.181818181818</v>
+      </c>
       <c r="U50">
-        <f t="shared" ref="U50:V50" si="64">U17/44</f>
+        <f t="shared" ref="U50:V50" si="87">U17/44</f>
         <v>-0.49545454545454548</v>
       </c>
       <c r="V50">
-        <f t="shared" si="64"/>
+        <f t="shared" si="87"/>
         <v>-0.13181818181818181</v>
       </c>
+      <c r="W50">
+        <f t="shared" si="70"/>
+        <v>-4954.545454545455</v>
+      </c>
+      <c r="X50">
+        <f t="shared" si="71"/>
+        <v>-1318.181818181818</v>
+      </c>
       <c r="Y50">
-        <f t="shared" ref="Y50:Z50" si="65">Y17/44</f>
+        <f t="shared" ref="Y50:Z50" si="88">Y17/44</f>
         <v>0.53181818181818175</v>
       </c>
       <c r="Z50">
-        <f t="shared" si="65"/>
+        <f t="shared" si="88"/>
         <v>-0.13181818181818181</v>
       </c>
+      <c r="AA50">
+        <f t="shared" si="73"/>
+        <v>5318.1818181818171</v>
+      </c>
+      <c r="AB50">
+        <f t="shared" si="74"/>
+        <v>-1318.181818181818</v>
+      </c>
       <c r="AC50">
-        <f t="shared" ref="AC50:AD50" si="66">AC17/44</f>
+        <f t="shared" ref="AC50:AD50" si="89">AC17/44</f>
         <v>0.6681818181818181</v>
       </c>
       <c r="AD50">
-        <f t="shared" si="66"/>
+        <f t="shared" si="89"/>
         <v>-0.13181818181818181</v>
       </c>
-    </row>
-    <row r="51" spans="17:31" x14ac:dyDescent="0.25">
+      <c r="AE50">
+        <f t="shared" si="76"/>
+        <v>6681.8181818181811</v>
+      </c>
+      <c r="AF50">
+        <f t="shared" si="77"/>
+        <v>-1318.181818181818</v>
+      </c>
+    </row>
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>0.55681818181818177</v>
+      </c>
+      <c r="B51">
+        <v>-0.13636363636363635</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="44"/>
+        <v>5568.181818181818</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="45"/>
+        <v>-1363.6363636363635</v>
+      </c>
+      <c r="F51">
+        <v>0.8136363636363636</v>
+      </c>
+      <c r="G51">
+        <v>8.4090909090909091E-2</v>
+      </c>
+      <c r="H51">
+        <f>10000*F51</f>
+        <v>8136.363636363636</v>
+      </c>
+      <c r="I51">
+        <f>10000*G51</f>
+        <v>840.90909090909088</v>
+      </c>
+      <c r="K51">
+        <v>0.11363636363636363</v>
+      </c>
+      <c r="L51">
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="M51">
+        <f>10000*K51</f>
+        <v>1136.3636363636363</v>
+      </c>
+      <c r="N51">
+        <f>10000*L51</f>
+        <v>454.54545454545456</v>
+      </c>
       <c r="Q51">
-        <f t="shared" ref="Q51:R51" si="67">Q18/44</f>
+        <f t="shared" ref="Q51:R51" si="90">Q18/44</f>
         <v>-0.35227272727272729</v>
       </c>
       <c r="R51">
+        <f t="shared" si="90"/>
+        <v>-0.13181818181818181</v>
+      </c>
+      <c r="S51">
         <f t="shared" si="67"/>
+        <v>-3522.727272727273</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="68"/>
+        <v>-1318.181818181818</v>
+      </c>
+      <c r="U51">
+        <f t="shared" ref="U51:V51" si="91">U18/44</f>
+        <v>-0.48863636363636365</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="91"/>
         <v>-0.13181818181818181</v>
       </c>
-      <c r="U51">
-        <f t="shared" ref="U51:V51" si="68">U18/44</f>
-        <v>-0.48863636363636365</v>
-      </c>
-      <c r="V51">
+      <c r="W51">
+        <f t="shared" si="70"/>
+        <v>-4886.363636363636</v>
+      </c>
+      <c r="X51">
+        <f t="shared" si="71"/>
+        <v>-1318.181818181818</v>
+      </c>
+      <c r="Y51">
+        <f t="shared" ref="Y51:Z51" si="92">Y18/44</f>
+        <v>0.53863636363636358</v>
+      </c>
+      <c r="Z51">
+        <f t="shared" si="92"/>
+        <v>-0.13181818181818181</v>
+      </c>
+      <c r="AA51">
+        <f t="shared" si="73"/>
+        <v>5386.363636363636</v>
+      </c>
+      <c r="AB51">
+        <f t="shared" si="74"/>
+        <v>-1318.181818181818</v>
+      </c>
+      <c r="AC51">
+        <f t="shared" ref="AC51:AD51" si="93">AC18/44</f>
+        <v>0.67499999999999993</v>
+      </c>
+      <c r="AD51">
+        <f t="shared" si="93"/>
+        <v>-0.13181818181818181</v>
+      </c>
+      <c r="AE51">
+        <f t="shared" si="76"/>
+        <v>6749.9999999999991</v>
+      </c>
+      <c r="AF51">
+        <f t="shared" si="77"/>
+        <v>-1318.181818181818</v>
+      </c>
+    </row>
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>0.32954545454545453</v>
+      </c>
+      <c r="B52">
+        <v>-0.15454545454545454</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="44"/>
+        <v>3295.4545454545455</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="45"/>
+        <v>-1545.4545454545455</v>
+      </c>
+      <c r="F52">
+        <v>0.92045454545454541</v>
+      </c>
+      <c r="G52">
+        <v>5.6818181818181816E-2</v>
+      </c>
+      <c r="H52">
+        <f t="shared" ref="H52:H58" si="94">10000*F52</f>
+        <v>9204.545454545454</v>
+      </c>
+      <c r="I52">
+        <f t="shared" ref="I52:I58" si="95">10000*G52</f>
+        <v>568.18181818181813</v>
+      </c>
+      <c r="K52">
+        <v>6.8181818181818177E-2</v>
+      </c>
+      <c r="L52">
+        <v>6.8181818181818177E-2</v>
+      </c>
+      <c r="M52">
+        <f t="shared" ref="M52:M59" si="96">10000*K52</f>
+        <v>681.81818181818176</v>
+      </c>
+      <c r="N52">
+        <f t="shared" ref="N52:N59" si="97">10000*L52</f>
+        <v>681.81818181818176</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" ref="Q52:R52" si="98">Q19/44</f>
+        <v>-0.34772727272727272</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="98"/>
+        <v>-5.6818181818181816E-2</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="67"/>
+        <v>-3477.272727272727</v>
+      </c>
+      <c r="T52">
         <f t="shared" si="68"/>
-        <v>-0.13181818181818181</v>
-      </c>
-      <c r="Y51">
-        <f t="shared" ref="Y51:Z51" si="69">Y18/44</f>
-        <v>0.53863636363636358</v>
-      </c>
-      <c r="Z51">
-        <f t="shared" si="69"/>
-        <v>-0.13181818181818181</v>
-      </c>
-      <c r="AC51">
-        <f t="shared" ref="AC51:AD51" si="70">AC18/44</f>
-        <v>0.67499999999999993</v>
-      </c>
-      <c r="AD51">
+        <v>-568.18181818181813</v>
+      </c>
+      <c r="U52">
+        <f t="shared" ref="U52:V52" si="99">U19/44</f>
+        <v>-0.48409090909090913</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="99"/>
+        <v>-5.6818181818181816E-2</v>
+      </c>
+      <c r="W52">
         <f t="shared" si="70"/>
-        <v>-0.13181818181818181</v>
-      </c>
-    </row>
-    <row r="52" spans="17:31" x14ac:dyDescent="0.25">
-      <c r="Q52">
-        <f t="shared" ref="Q52:R52" si="71">Q19/44</f>
-        <v>-0.34772727272727272</v>
-      </c>
-      <c r="R52">
+        <v>-4840.909090909091</v>
+      </c>
+      <c r="X52">
         <f t="shared" si="71"/>
+        <v>-568.18181818181813</v>
+      </c>
+      <c r="Y52">
+        <f t="shared" ref="Y52:Z52" si="100">Y19/44</f>
+        <v>0.5431818181818181</v>
+      </c>
+      <c r="Z52">
+        <f t="shared" si="100"/>
         <v>-5.6818181818181816E-2</v>
       </c>
-      <c r="U52">
-        <f t="shared" ref="U52:V52" si="72">U19/44</f>
-        <v>-0.48409090909090913</v>
-      </c>
-      <c r="V52">
-        <f t="shared" si="72"/>
+      <c r="AA52">
+        <f t="shared" si="73"/>
+        <v>5431.8181818181811</v>
+      </c>
+      <c r="AB52">
+        <f t="shared" si="74"/>
+        <v>-568.18181818181813</v>
+      </c>
+      <c r="AC52">
+        <f t="shared" ref="AC52:AD52" si="101">AC19/44</f>
+        <v>0.67954545454545456</v>
+      </c>
+      <c r="AD52">
+        <f t="shared" si="101"/>
         <v>-5.6818181818181816E-2</v>
       </c>
-      <c r="Y52">
-        <f t="shared" ref="Y52:Z52" si="73">Y19/44</f>
-        <v>0.5431818181818181</v>
-      </c>
-      <c r="Z52">
-        <f t="shared" si="73"/>
-        <v>-5.6818181818181816E-2</v>
-      </c>
-      <c r="AC52">
-        <f t="shared" ref="AC52:AD52" si="74">AC19/44</f>
-        <v>0.67954545454545456</v>
-      </c>
-      <c r="AD52">
-        <f t="shared" si="74"/>
-        <v>-5.6818181818181816E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="17:31" x14ac:dyDescent="0.25">
+      <c r="AE52">
+        <f t="shared" si="76"/>
+        <v>6795.454545454546</v>
+      </c>
+      <c r="AF52">
+        <f t="shared" si="77"/>
+        <v>-568.18181818181813</v>
+      </c>
+    </row>
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>0.19318181818181818</v>
+      </c>
+      <c r="B53">
+        <v>-0.16363636363636364</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="44"/>
+        <v>1931.8181818181818</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="45"/>
+        <v>-1636.3636363636363</v>
+      </c>
+      <c r="F53">
+        <v>0.96590909090909094</v>
+      </c>
+      <c r="G53">
+        <v>3.4090909090909088E-2</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="94"/>
+        <v>9659.0909090909099</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="95"/>
+        <v>340.90909090909088</v>
+      </c>
+      <c r="K53">
+        <v>3.1818181818181815E-2</v>
+      </c>
+      <c r="L53">
+        <v>6.363636363636363E-2</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="96"/>
+        <v>318.18181818181813</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="97"/>
+        <v>636.36363636363626</v>
+      </c>
       <c r="Q53" t="s">
         <v>1</v>
       </c>
@@ -2420,17 +3450,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="17:31" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>-0.17727272727272728</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="45"/>
+        <v>-1772.7272727272727</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="94"/>
+        <v>10000</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>-4.5454545454545456E-2</v>
+      </c>
+      <c r="L54">
+        <v>4.0909090909090909E-2</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="96"/>
+        <v>-454.54545454545456</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="97"/>
+        <v>409.09090909090907</v>
+      </c>
       <c r="Q54">
         <f>Q21/255</f>
         <v>0.27843137254901962</v>
       </c>
       <c r="R54">
-        <f t="shared" ref="R54:S54" si="75">R21/255</f>
+        <f t="shared" ref="R54:S54" si="102">R21/255</f>
         <v>0.27843137254901962</v>
       </c>
       <c r="S54">
-        <f t="shared" si="75"/>
+        <f t="shared" si="102"/>
         <v>0.27843137254901962</v>
       </c>
       <c r="U54">
@@ -2438,11 +3510,11 @@
         <v>0.27843137254901962</v>
       </c>
       <c r="V54">
-        <f t="shared" ref="V54:W54" si="76">V21/255</f>
+        <f t="shared" ref="V54:W54" si="103">V21/255</f>
         <v>0.27843137254901962</v>
       </c>
       <c r="W54">
-        <f t="shared" si="76"/>
+        <f t="shared" si="103"/>
         <v>0.27843137254901962</v>
       </c>
       <c r="Y54">
@@ -2450,11 +3522,11 @@
         <v>0.27843137254901962</v>
       </c>
       <c r="Z54">
-        <f t="shared" ref="Z54:AA54" si="77">Z21/255</f>
+        <f t="shared" ref="Z54:AA54" si="104">Z21/255</f>
         <v>0.27843137254901962</v>
       </c>
       <c r="AA54">
-        <f t="shared" si="77"/>
+        <f t="shared" si="104"/>
         <v>0.27843137254901962</v>
       </c>
       <c r="AC54">
@@ -2462,15 +3534,99 @@
         <v>0.27843137254901962</v>
       </c>
       <c r="AD54">
-        <f t="shared" ref="AD54:AE54" si="78">AD21/255</f>
+        <f t="shared" ref="AD54:AE54" si="105">AD21/255</f>
         <v>0.27843137254901962</v>
       </c>
       <c r="AE54">
-        <f t="shared" si="78"/>
+        <f t="shared" si="105"/>
         <v>0.27843137254901962</v>
       </c>
     </row>
-    <row r="56" spans="17:31" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>0.17727272727272728</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="45"/>
+        <v>1772.7272727272727</v>
+      </c>
+      <c r="F55">
+        <v>0.96590909090909094</v>
+      </c>
+      <c r="G55">
+        <v>-3.4090909090909088E-2</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="94"/>
+        <v>9659.0909090909099</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="95"/>
+        <v>-340.90909090909088</v>
+      </c>
+      <c r="K55">
+        <v>-4.5454545454545456E-2</v>
+      </c>
+      <c r="L55">
+        <v>-4.0909090909090909E-2</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="96"/>
+        <v>-454.54545454545456</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="97"/>
+        <v>-409.09090909090907</v>
+      </c>
+    </row>
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C56">
+        <v>0.52156862745098043</v>
+      </c>
+      <c r="D56">
+        <v>0.38823529411764707</v>
+      </c>
+      <c r="F56">
+        <v>0.92045454545454541</v>
+      </c>
+      <c r="G56">
+        <v>-5.6818181818181816E-2</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="94"/>
+        <v>9204.545454545454</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="95"/>
+        <v>-568.18181818181813</v>
+      </c>
+      <c r="K56">
+        <v>3.1818181818181815E-2</v>
+      </c>
+      <c r="L56">
+        <v>-6.363636363636363E-2</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="96"/>
+        <v>318.18181818181813</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="97"/>
+        <v>-636.36363636363626</v>
+      </c>
       <c r="Q56" t="s">
         <v>10</v>
       </c>
@@ -2484,7 +3640,35 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="17:31" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>0.8136363636363636</v>
+      </c>
+      <c r="G57">
+        <v>-8.4090909090909091E-2</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="94"/>
+        <v>8136.363636363636</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="95"/>
+        <v>-840.90909090909088</v>
+      </c>
+      <c r="K57">
+        <v>6.8181818181818177E-2</v>
+      </c>
+      <c r="L57">
+        <v>-6.8181818181818177E-2</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="96"/>
+        <v>681.81818181818176</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="97"/>
+        <v>-681.81818181818176</v>
+      </c>
       <c r="Q57">
         <f>Q24/44</f>
         <v>-0.38181818181818183</v>
@@ -2493,6 +3677,14 @@
         <f>R24/44</f>
         <v>-5.6818181818181816E-2</v>
       </c>
+      <c r="S57">
+        <f>10000*Q57</f>
+        <v>-3818.1818181818185</v>
+      </c>
+      <c r="T57">
+        <f>10000*R57</f>
+        <v>-568.18181818181813</v>
+      </c>
       <c r="U57">
         <f>U24/44</f>
         <v>-0.51818181818181819</v>
@@ -2501,6 +3693,14 @@
         <f>V24/44</f>
         <v>-5.6818181818181816E-2</v>
       </c>
+      <c r="W57">
+        <f>10000*U57</f>
+        <v>-5181.818181818182</v>
+      </c>
+      <c r="X57">
+        <f>10000*V57</f>
+        <v>-568.18181818181813</v>
+      </c>
       <c r="Y57">
         <f>Y24/44</f>
         <v>0.50909090909090904</v>
@@ -2509,6 +3709,14 @@
         <f>Z24/44</f>
         <v>-5.6818181818181816E-2</v>
       </c>
+      <c r="AA57">
+        <f>10000*Y57</f>
+        <v>5090.9090909090901</v>
+      </c>
+      <c r="AB57">
+        <f>10000*Z57</f>
+        <v>-568.18181818181813</v>
+      </c>
       <c r="AC57">
         <f>AC24/44</f>
         <v>0.64545454545454539</v>
@@ -2517,212 +3725,553 @@
         <f>AD24/44</f>
         <v>-5.6818181818181816E-2</v>
       </c>
-    </row>
-    <row r="58" spans="17:31" x14ac:dyDescent="0.25">
+      <c r="AE57">
+        <f>10000*AC57</f>
+        <v>6454.545454545454</v>
+      </c>
+      <c r="AF57">
+        <f>10000*AD57</f>
+        <v>-568.18181818181813</v>
+      </c>
+    </row>
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>0.8136363636363636</v>
+      </c>
+      <c r="G58">
+        <v>8.4090909090909091E-2</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="94"/>
+        <v>8136.363636363636</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="95"/>
+        <v>840.90909090909088</v>
+      </c>
+      <c r="K58">
+        <v>0.11363636363636363</v>
+      </c>
+      <c r="L58">
+        <v>-4.5454545454545456E-2</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="96"/>
+        <v>1136.3636363636363</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="97"/>
+        <v>-454.54545454545456</v>
+      </c>
       <c r="Q58">
-        <f t="shared" ref="Q58:R58" si="79">Q25/44</f>
+        <f t="shared" ref="Q58:R58" si="106">Q25/44</f>
         <v>-0.38636363636363635</v>
       </c>
       <c r="R58">
-        <f t="shared" si="79"/>
+        <f t="shared" si="106"/>
         <v>-0.05</v>
       </c>
+      <c r="S58">
+        <f t="shared" ref="S58:S63" si="107">10000*Q58</f>
+        <v>-3863.6363636363635</v>
+      </c>
+      <c r="T58">
+        <f t="shared" ref="T58:T63" si="108">10000*R58</f>
+        <v>-500</v>
+      </c>
       <c r="U58">
-        <f t="shared" ref="U58:V58" si="80">U25/44</f>
+        <f t="shared" ref="U58:V58" si="109">U25/44</f>
         <v>-0.52272727272727271</v>
       </c>
       <c r="V58">
-        <f t="shared" si="80"/>
+        <f t="shared" si="109"/>
         <v>-0.05</v>
       </c>
+      <c r="W58">
+        <f t="shared" ref="W58:W63" si="110">10000*U58</f>
+        <v>-5227.272727272727</v>
+      </c>
+      <c r="X58">
+        <f t="shared" ref="X58:X63" si="111">10000*V58</f>
+        <v>-500</v>
+      </c>
       <c r="Y58">
-        <f t="shared" ref="Y58:Z58" si="81">Y25/44</f>
+        <f t="shared" ref="Y58:Z58" si="112">Y25/44</f>
         <v>0.50454545454545452</v>
       </c>
       <c r="Z58">
-        <f t="shared" si="81"/>
+        <f t="shared" si="112"/>
         <v>-0.05</v>
       </c>
+      <c r="AA58">
+        <f t="shared" ref="AA58:AA63" si="113">10000*Y58</f>
+        <v>5045.454545454545</v>
+      </c>
+      <c r="AB58">
+        <f t="shared" ref="AB58:AB63" si="114">10000*Z58</f>
+        <v>-500</v>
+      </c>
       <c r="AC58">
-        <f t="shared" ref="AC58:AD58" si="82">AC25/44</f>
+        <f t="shared" ref="AC58:AD58" si="115">AC25/44</f>
         <v>0.64090909090909087</v>
       </c>
       <c r="AD58">
-        <f t="shared" si="82"/>
+        <f t="shared" si="115"/>
         <v>-0.05</v>
       </c>
-    </row>
-    <row r="59" spans="17:31" x14ac:dyDescent="0.25">
+      <c r="AE58">
+        <f t="shared" ref="AE58:AE63" si="116">10000*AC58</f>
+        <v>6409.090909090909</v>
+      </c>
+      <c r="AF58">
+        <f t="shared" ref="AF58:AF63" si="117">10000*AD58</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="K59">
+        <v>0.11363636363636363</v>
+      </c>
+      <c r="L59">
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="96"/>
+        <v>1136.3636363636363</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="97"/>
+        <v>454.54545454545456</v>
+      </c>
       <c r="Q59">
-        <f t="shared" ref="Q59:R59" si="83">Q26/44</f>
+        <f t="shared" ref="Q59:R59" si="118">Q26/44</f>
         <v>-0.39318181818181819</v>
       </c>
       <c r="R59">
-        <f t="shared" si="83"/>
+        <f t="shared" si="118"/>
         <v>-0.05</v>
       </c>
+      <c r="S59">
+        <f t="shared" si="107"/>
+        <v>-3931.818181818182</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="108"/>
+        <v>-500</v>
+      </c>
       <c r="U59">
-        <f t="shared" ref="U59:V59" si="84">U26/44</f>
+        <f t="shared" ref="U59:V59" si="119">U26/44</f>
         <v>-0.52954545454545454</v>
       </c>
       <c r="V59">
-        <f t="shared" si="84"/>
+        <f t="shared" si="119"/>
         <v>-0.05</v>
       </c>
+      <c r="W59">
+        <f t="shared" si="110"/>
+        <v>-5295.454545454545</v>
+      </c>
+      <c r="X59">
+        <f t="shared" si="111"/>
+        <v>-500</v>
+      </c>
       <c r="Y59">
-        <f t="shared" ref="Y59:Z59" si="85">Y26/44</f>
+        <f t="shared" ref="Y59:Z59" si="120">Y26/44</f>
         <v>0.49772727272727268</v>
       </c>
       <c r="Z59">
-        <f t="shared" si="85"/>
+        <f t="shared" si="120"/>
         <v>-0.05</v>
       </c>
+      <c r="AA59">
+        <f t="shared" si="113"/>
+        <v>4977.272727272727</v>
+      </c>
+      <c r="AB59">
+        <f t="shared" si="114"/>
+        <v>-500</v>
+      </c>
       <c r="AC59">
-        <f t="shared" ref="AC59:AD59" si="86">AC26/44</f>
+        <f t="shared" ref="AC59:AD59" si="121">AC26/44</f>
         <v>0.63409090909090904</v>
       </c>
       <c r="AD59">
-        <f t="shared" si="86"/>
+        <f t="shared" si="121"/>
         <v>-0.05</v>
       </c>
-    </row>
-    <row r="60" spans="17:31" x14ac:dyDescent="0.25">
+      <c r="AE59">
+        <f t="shared" si="116"/>
+        <v>6340.9090909090901</v>
+      </c>
+      <c r="AF59">
+        <f t="shared" si="117"/>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="K60">
+        <v>0.41960784313725491</v>
+      </c>
+      <c r="L60">
+        <v>0.41960784313725491</v>
+      </c>
+      <c r="M60">
+        <v>0.41960784313725491</v>
+      </c>
       <c r="Q60">
-        <f t="shared" ref="Q60:R60" si="87">Q27/44</f>
+        <f t="shared" ref="Q60:R60" si="122">Q27/44</f>
         <v>-0.39772727272727271</v>
       </c>
       <c r="R60">
-        <f t="shared" si="87"/>
+        <f t="shared" si="122"/>
         <v>-5.6818181818181816E-2</v>
       </c>
+      <c r="S60">
+        <f t="shared" si="107"/>
+        <v>-3977.272727272727</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="108"/>
+        <v>-568.18181818181813</v>
+      </c>
       <c r="U60">
-        <f t="shared" ref="U60:V60" si="88">U27/44</f>
+        <f t="shared" ref="U60:V60" si="123">U27/44</f>
         <v>-0.53409090909090906</v>
       </c>
       <c r="V60">
-        <f t="shared" si="88"/>
+        <f t="shared" si="123"/>
         <v>-5.6818181818181816E-2</v>
       </c>
+      <c r="W60">
+        <f t="shared" si="110"/>
+        <v>-5340.909090909091</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="111"/>
+        <v>-568.18181818181813</v>
+      </c>
       <c r="Y60">
-        <f t="shared" ref="Y60:Z60" si="89">Y27/44</f>
+        <f t="shared" ref="Y60:Z60" si="124">Y27/44</f>
         <v>0.49318181818181817</v>
       </c>
       <c r="Z60">
-        <f t="shared" si="89"/>
+        <f t="shared" si="124"/>
         <v>-5.6818181818181816E-2</v>
       </c>
+      <c r="AA60">
+        <f t="shared" si="113"/>
+        <v>4931.818181818182</v>
+      </c>
+      <c r="AB60">
+        <f t="shared" si="114"/>
+        <v>-568.18181818181813</v>
+      </c>
       <c r="AC60">
-        <f t="shared" ref="AC60:AD60" si="90">AC27/44</f>
+        <f t="shared" ref="AC60:AD60" si="125">AC27/44</f>
         <v>0.62954545454545452</v>
       </c>
       <c r="AD60">
-        <f t="shared" si="90"/>
+        <f t="shared" si="125"/>
         <v>-5.6818181818181816E-2</v>
       </c>
-    </row>
-    <row r="61" spans="17:31" x14ac:dyDescent="0.25">
+      <c r="AE60">
+        <f t="shared" si="116"/>
+        <v>6295.454545454545</v>
+      </c>
+      <c r="AF60">
+        <f t="shared" si="117"/>
+        <v>-568.18181818181813</v>
+      </c>
+    </row>
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" t="s">
+        <v>17</v>
+      </c>
       <c r="Q61">
-        <f t="shared" ref="Q61:R61" si="91">Q28/44</f>
+        <f t="shared" ref="Q61:R61" si="126">Q28/44</f>
         <v>-0.39318181818181819</v>
       </c>
       <c r="R61">
-        <f t="shared" si="91"/>
+        <f t="shared" si="126"/>
         <v>-0.13181818181818181</v>
       </c>
+      <c r="S61">
+        <f t="shared" si="107"/>
+        <v>-3931.818181818182</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="108"/>
+        <v>-1318.181818181818</v>
+      </c>
       <c r="U61">
-        <f t="shared" ref="U61:V61" si="92">U28/44</f>
+        <f t="shared" ref="U61:V61" si="127">U28/44</f>
         <v>-0.52954545454545454</v>
       </c>
       <c r="V61">
-        <f t="shared" si="92"/>
+        <f t="shared" si="127"/>
         <v>-0.13181818181818181</v>
       </c>
+      <c r="W61">
+        <f t="shared" si="110"/>
+        <v>-5295.454545454545</v>
+      </c>
+      <c r="X61">
+        <f t="shared" si="111"/>
+        <v>-1318.181818181818</v>
+      </c>
       <c r="Y61">
-        <f t="shared" ref="Y61:Z61" si="93">Y28/44</f>
+        <f t="shared" ref="Y61:Z61" si="128">Y28/44</f>
         <v>0.49772727272727268</v>
       </c>
       <c r="Z61">
-        <f t="shared" si="93"/>
+        <f t="shared" si="128"/>
         <v>-0.13181818181818181</v>
       </c>
+      <c r="AA61">
+        <f t="shared" si="113"/>
+        <v>4977.272727272727</v>
+      </c>
+      <c r="AB61">
+        <f t="shared" si="114"/>
+        <v>-1318.181818181818</v>
+      </c>
       <c r="AC61">
-        <f t="shared" ref="AC61:AD61" si="94">AC28/44</f>
+        <f t="shared" ref="AC61:AD61" si="129">AC28/44</f>
         <v>0.63409090909090904</v>
       </c>
       <c r="AD61">
-        <f t="shared" si="94"/>
+        <f t="shared" si="129"/>
         <v>-0.13181818181818181</v>
       </c>
-    </row>
-    <row r="62" spans="17:31" x14ac:dyDescent="0.25">
+      <c r="AE61">
+        <f t="shared" si="116"/>
+        <v>6340.9090909090901</v>
+      </c>
+      <c r="AF61">
+        <f t="shared" si="117"/>
+        <v>-1318.181818181818</v>
+      </c>
+    </row>
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>-4.5454545454545456E-2</v>
+      </c>
+      <c r="B62">
+        <v>4.0909090909090909E-2</v>
+      </c>
+      <c r="C62">
+        <f>10000*A62</f>
+        <v>-454.54545454545456</v>
+      </c>
+      <c r="D62">
+        <f>10000*B62</f>
+        <v>409.09090909090907</v>
+      </c>
+      <c r="F62">
+        <v>-0.13636363636363635</v>
+      </c>
+      <c r="G62">
+        <v>5.909090909090909E-2</v>
+      </c>
+      <c r="H62">
+        <f>10000*F62</f>
+        <v>-1363.6363636363635</v>
+      </c>
+      <c r="I62">
+        <f>10000*G62</f>
+        <v>590.90909090909088</v>
+      </c>
       <c r="Q62">
-        <f t="shared" ref="Q62:R62" si="95">Q29/44</f>
+        <f t="shared" ref="Q62:R62" si="130">Q29/44</f>
         <v>-0.38636363636363635</v>
       </c>
       <c r="R62">
-        <f t="shared" si="95"/>
+        <f t="shared" si="130"/>
         <v>-0.13181818181818181</v>
       </c>
+      <c r="S62">
+        <f t="shared" si="107"/>
+        <v>-3863.6363636363635</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="108"/>
+        <v>-1318.181818181818</v>
+      </c>
       <c r="U62">
-        <f t="shared" ref="U62:V62" si="96">U29/44</f>
+        <f t="shared" ref="U62:V62" si="131">U29/44</f>
         <v>-0.52272727272727271</v>
       </c>
       <c r="V62">
-        <f t="shared" si="96"/>
+        <f t="shared" si="131"/>
         <v>-0.13181818181818181</v>
       </c>
+      <c r="W62">
+        <f t="shared" si="110"/>
+        <v>-5227.272727272727</v>
+      </c>
+      <c r="X62">
+        <f t="shared" si="111"/>
+        <v>-1318.181818181818</v>
+      </c>
       <c r="Y62">
-        <f t="shared" ref="Y62:Z62" si="97">Y29/44</f>
+        <f t="shared" ref="Y62:Z62" si="132">Y29/44</f>
         <v>0.50454545454545452</v>
       </c>
       <c r="Z62">
-        <f t="shared" si="97"/>
+        <f t="shared" si="132"/>
         <v>-0.13181818181818181</v>
       </c>
+      <c r="AA62">
+        <f t="shared" si="113"/>
+        <v>5045.454545454545</v>
+      </c>
+      <c r="AB62">
+        <f t="shared" si="114"/>
+        <v>-1318.181818181818</v>
+      </c>
       <c r="AC62">
-        <f t="shared" ref="AC62:AD62" si="98">AC29/44</f>
+        <f t="shared" ref="AC62:AD62" si="133">AC29/44</f>
         <v>0.64090909090909087</v>
       </c>
       <c r="AD62">
-        <f t="shared" si="98"/>
+        <f t="shared" si="133"/>
         <v>-0.13181818181818181</v>
       </c>
-    </row>
-    <row r="63" spans="17:31" x14ac:dyDescent="0.25">
+      <c r="AE62">
+        <f t="shared" si="116"/>
+        <v>6409.090909090909</v>
+      </c>
+      <c r="AF62">
+        <f t="shared" si="117"/>
+        <v>-1318.181818181818</v>
+      </c>
+    </row>
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>-0.10227272727272728</v>
+      </c>
+      <c r="B63">
+        <v>5.6818181818181816E-2</v>
+      </c>
+      <c r="C63">
+        <f t="shared" ref="C63:C68" si="134">10000*A63</f>
+        <v>-1022.7272727272727</v>
+      </c>
+      <c r="D63">
+        <f t="shared" ref="D63:D68" si="135">10000*B63</f>
+        <v>568.18181818181813</v>
+      </c>
+      <c r="F63">
+        <v>-0.17272727272727273</v>
+      </c>
+      <c r="G63">
+        <v>6.8181818181818177E-2</v>
+      </c>
+      <c r="H63">
+        <f t="shared" ref="H63:H70" si="136">10000*F63</f>
+        <v>-1727.2727272727273</v>
+      </c>
+      <c r="I63">
+        <f t="shared" ref="I63:I70" si="137">10000*G63</f>
+        <v>681.81818181818176</v>
+      </c>
       <c r="Q63">
-        <f t="shared" ref="Q63:R63" si="99">Q30/44</f>
+        <f t="shared" ref="Q63:R63" si="138">Q30/44</f>
         <v>-0.38181818181818183</v>
       </c>
       <c r="R63">
-        <f t="shared" si="99"/>
+        <f t="shared" si="138"/>
         <v>-5.6818181818181816E-2</v>
       </c>
+      <c r="S63">
+        <f t="shared" si="107"/>
+        <v>-3818.1818181818185</v>
+      </c>
+      <c r="T63">
+        <f t="shared" si="108"/>
+        <v>-568.18181818181813</v>
+      </c>
       <c r="U63">
-        <f t="shared" ref="U63:V63" si="100">U30/44</f>
+        <f t="shared" ref="U63:V63" si="139">U30/44</f>
         <v>-0.51818181818181819</v>
       </c>
       <c r="V63">
-        <f t="shared" si="100"/>
+        <f t="shared" si="139"/>
         <v>-5.6818181818181816E-2</v>
       </c>
+      <c r="W63">
+        <f t="shared" si="110"/>
+        <v>-5181.818181818182</v>
+      </c>
+      <c r="X63">
+        <f t="shared" si="111"/>
+        <v>-568.18181818181813</v>
+      </c>
       <c r="Y63">
-        <f t="shared" ref="Y63:Z63" si="101">Y30/44</f>
+        <f t="shared" ref="Y63:Z63" si="140">Y30/44</f>
         <v>0.50909090909090904</v>
       </c>
       <c r="Z63">
-        <f t="shared" si="101"/>
+        <f t="shared" si="140"/>
         <v>-5.6818181818181816E-2</v>
       </c>
+      <c r="AA63">
+        <f t="shared" si="113"/>
+        <v>5090.9090909090901</v>
+      </c>
+      <c r="AB63">
+        <f t="shared" si="114"/>
+        <v>-568.18181818181813</v>
+      </c>
       <c r="AC63">
-        <f t="shared" ref="AC63:AD63" si="102">AC30/44</f>
+        <f t="shared" ref="AC63:AD63" si="141">AC30/44</f>
         <v>0.64545454545454539</v>
       </c>
       <c r="AD63">
-        <f t="shared" si="102"/>
+        <f t="shared" si="141"/>
         <v>-5.6818181818181816E-2</v>
       </c>
-    </row>
-    <row r="64" spans="17:31" x14ac:dyDescent="0.25">
+      <c r="AE63">
+        <f t="shared" si="116"/>
+        <v>6454.545454545454</v>
+      </c>
+      <c r="AF63">
+        <f t="shared" si="117"/>
+        <v>-568.18181818181813</v>
+      </c>
+    </row>
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>-0.13636363636363635</v>
+      </c>
+      <c r="B64">
+        <v>5.909090909090909E-2</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="134"/>
+        <v>-1363.6363636363635</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="135"/>
+        <v>590.90909090909088</v>
+      </c>
+      <c r="F64">
+        <v>-0.23863636363636365</v>
+      </c>
+      <c r="G64">
+        <v>6.8181818181818177E-2</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="136"/>
+        <v>-2386.3636363636365</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="137"/>
+        <v>681.81818181818176</v>
+      </c>
       <c r="Q64" t="s">
         <v>1</v>
       </c>
@@ -2736,17 +4285,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="17:31" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>-0.13636363636363635</v>
+      </c>
+      <c r="B65">
+        <v>-5.9090909090909097E-2</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="134"/>
+        <v>-1363.6363636363635</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="135"/>
+        <v>-590.90909090909099</v>
+      </c>
+      <c r="F65">
+        <v>-0.30681818181818182</v>
+      </c>
+      <c r="G65">
+        <v>2.2727272727272728E-2</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="136"/>
+        <v>-3068.181818181818</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="137"/>
+        <v>227.27272727272728</v>
+      </c>
       <c r="Q65">
         <f>Q32/255</f>
         <v>0.27843137254901962</v>
       </c>
       <c r="R65">
-        <f t="shared" ref="R65:S65" si="103">R32/255</f>
+        <f t="shared" ref="R65:S65" si="142">R32/255</f>
         <v>0.27843137254901962</v>
       </c>
       <c r="S65">
-        <f t="shared" si="103"/>
+        <f t="shared" si="142"/>
         <v>0.27843137254901962</v>
       </c>
       <c r="U65">
@@ -2754,11 +4331,11 @@
         <v>0.27843137254901962</v>
       </c>
       <c r="V65">
-        <f t="shared" ref="V65:W65" si="104">V32/255</f>
+        <f t="shared" ref="V65:W65" si="143">V32/255</f>
         <v>0.27843137254901962</v>
       </c>
       <c r="W65">
-        <f t="shared" si="104"/>
+        <f t="shared" si="143"/>
         <v>0.27843137254901962</v>
       </c>
       <c r="Y65">
@@ -2766,11 +4343,11 @@
         <v>0.27843137254901962</v>
       </c>
       <c r="Z65">
-        <f t="shared" ref="Z65:AA65" si="105">Z32/255</f>
+        <f t="shared" ref="Z65:AA65" si="144">Z32/255</f>
         <v>0.27843137254901962</v>
       </c>
       <c r="AA65">
-        <f t="shared" si="105"/>
+        <f t="shared" si="144"/>
         <v>0.27843137254901962</v>
       </c>
       <c r="AC65">
@@ -2778,12 +4355,134 @@
         <v>0.27843137254901962</v>
       </c>
       <c r="AD65">
-        <f t="shared" ref="AD65:AE65" si="106">AD32/255</f>
+        <f t="shared" ref="AD65:AE65" si="145">AD32/255</f>
         <v>0.27843137254901962</v>
       </c>
       <c r="AE65">
-        <f t="shared" si="106"/>
+        <f t="shared" si="145"/>
         <v>0.27843137254901962</v>
+      </c>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>-0.10227272727272728</v>
+      </c>
+      <c r="B66">
+        <v>-5.6818181818181802E-2</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="134"/>
+        <v>-1022.7272727272727</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="135"/>
+        <v>-568.18181818181802</v>
+      </c>
+      <c r="F66">
+        <v>-0.30681818181818182</v>
+      </c>
+      <c r="G66">
+        <v>-2.2727272727272728E-2</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="136"/>
+        <v>-3068.181818181818</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="137"/>
+        <v>-227.27272727272728</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>-4.5454545454545456E-2</v>
+      </c>
+      <c r="B67">
+        <v>-4.0909090909090902E-2</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="134"/>
+        <v>-454.54545454545456</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="135"/>
+        <v>-409.09090909090901</v>
+      </c>
+      <c r="F67">
+        <v>-0.23863636363636365</v>
+      </c>
+      <c r="G67">
+        <v>-6.8181818181818177E-2</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="136"/>
+        <v>-2386.3636363636365</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="137"/>
+        <v>-681.81818181818176</v>
+      </c>
+    </row>
+    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>-4.5454545454545456E-2</v>
+      </c>
+      <c r="B68">
+        <v>4.0909090909090909E-2</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="134"/>
+        <v>-454.54545454545456</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="135"/>
+        <v>409.09090909090907</v>
+      </c>
+      <c r="F68">
+        <v>-0.17272727272727273</v>
+      </c>
+      <c r="G68">
+        <v>-6.8181818181818177E-2</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="136"/>
+        <v>-1727.2727272727273</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="137"/>
+        <v>-681.81818181818176</v>
+      </c>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <v>-0.13636363636363635</v>
+      </c>
+      <c r="G69">
+        <v>-5.909090909090909E-2</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="136"/>
+        <v>-1363.6363636363635</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="137"/>
+        <v>-590.90909090909088</v>
+      </c>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <v>-0.13636363636363635</v>
+      </c>
+      <c r="G70">
+        <v>5.909090909090909E-2</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="136"/>
+        <v>-1363.6363636363635</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="137"/>
+        <v>590.90909090909088</v>
       </c>
     </row>
   </sheetData>

--- a/bismarck.xlsx
+++ b/bismarck.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="14">
   <si>
     <t>contorno</t>
   </si>
@@ -47,18 +47,6 @@
   </si>
   <si>
     <t>canhao naval grande 2 msm</t>
-  </si>
-  <si>
-    <t>contorno 1</t>
-  </si>
-  <si>
-    <t>contorno 2 - msm</t>
-  </si>
-  <si>
-    <t>contorno 3 - msm</t>
-  </si>
-  <si>
-    <t>contorno 4 - msm</t>
   </si>
   <si>
     <t>ponte 1 - msm</t>
@@ -411,8 +399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC65" sqref="AC65:AE65"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D56" sqref="A37:D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,6 +445,14 @@
         <f>A2/44</f>
         <v>0</v>
       </c>
+      <c r="G2">
+        <f>10000*E2</f>
+        <v>-10000</v>
+      </c>
+      <c r="H2">
+        <f>10000*F2</f>
+        <v>0</v>
+      </c>
       <c r="I2">
         <v>2</v>
       </c>
@@ -516,6 +512,14 @@
         <f t="shared" ref="F3:F18" si="0">A3/44</f>
         <v>2.2727272727272728E-2</v>
       </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G34" si="1">10000*E3</f>
+        <v>-9545.454545454546</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H34" si="2">10000*F3</f>
+        <v>227.27272727272728</v>
+      </c>
       <c r="I3">
         <v>3</v>
       </c>
@@ -523,11 +527,11 @@
         <v>3</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M10" si="1">J3/44</f>
+        <f t="shared" ref="M3:M10" si="3">J3/44</f>
         <v>6.8181818181818177E-2</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N10" si="2">I3/44</f>
+        <f t="shared" ref="N3:N10" si="4">I3/44</f>
         <v>6.8181818181818177E-2</v>
       </c>
       <c r="Q3">
@@ -537,27 +541,27 @@
         <v>2.4</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U8" si="3">Q3-6</f>
+        <f t="shared" ref="U3:U8" si="5">Q3-6</f>
         <v>-21.4</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3:V8" si="4">R3</f>
+        <f t="shared" ref="V3:V8" si="6">R3</f>
         <v>2.4</v>
       </c>
       <c r="Y3">
-        <f t="shared" ref="Y3:Y8" si="5">U3+18+6+21.2</f>
+        <f t="shared" ref="Y3:Y8" si="7">U3+18+6+21.2</f>
         <v>23.8</v>
       </c>
       <c r="Z3">
-        <f t="shared" ref="Z3:Z8" si="6">V3</f>
+        <f t="shared" ref="Z3:Z8" si="8">V3</f>
         <v>2.4</v>
       </c>
       <c r="AC3">
-        <f t="shared" ref="AC3:AC8" si="7">Y3+6</f>
+        <f t="shared" ref="AC3:AC8" si="9">Y3+6</f>
         <v>29.8</v>
       </c>
       <c r="AD3">
-        <f t="shared" ref="AD3:AD8" si="8">Z3</f>
+        <f t="shared" ref="AD3:AD8" si="10">Z3</f>
         <v>2.4</v>
       </c>
     </row>
@@ -575,6 +579,14 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>-8409.0909090909099</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
       <c r="I4">
         <v>2.8</v>
       </c>
@@ -582,11 +594,11 @@
         <v>1.4</v>
       </c>
       <c r="M4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.1818181818181815E-2</v>
       </c>
       <c r="N4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.363636363636363E-2</v>
       </c>
       <c r="Q4">
@@ -596,27 +608,27 @@
         <v>2.7</v>
       </c>
       <c r="U4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-22.4</v>
       </c>
       <c r="V4">
-        <f t="shared" si="4"/>
-        <v>2.7</v>
-      </c>
-      <c r="Y4">
-        <f t="shared" si="5"/>
-        <v>22.8</v>
-      </c>
-      <c r="Z4">
         <f t="shared" si="6"/>
         <v>2.7</v>
       </c>
+      <c r="Y4">
+        <f t="shared" si="7"/>
+        <v>22.8</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="8"/>
+        <v>2.7</v>
+      </c>
       <c r="AC4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>28.8</v>
       </c>
       <c r="AD4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.7</v>
       </c>
     </row>
@@ -634,6 +646,14 @@
         <f t="shared" si="0"/>
         <v>8.4090909090909091E-2</v>
       </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>-6886.363636363636</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>840.90909090909088</v>
+      </c>
       <c r="I5">
         <v>1.8</v>
       </c>
@@ -641,11 +661,11 @@
         <v>-2</v>
       </c>
       <c r="M5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-4.5454545454545456E-2</v>
       </c>
       <c r="N5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.0909090909090909E-2</v>
       </c>
       <c r="Q5">
@@ -655,27 +675,27 @@
         <v>2.4</v>
       </c>
       <c r="U5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-23.4</v>
       </c>
       <c r="V5">
-        <f t="shared" si="4"/>
-        <v>2.4</v>
-      </c>
-      <c r="Y5">
-        <f t="shared" si="5"/>
-        <v>21.8</v>
-      </c>
-      <c r="Z5">
         <f t="shared" si="6"/>
         <v>2.4</v>
       </c>
+      <c r="Y5">
+        <f t="shared" si="7"/>
+        <v>21.8</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="8"/>
+        <v>2.4</v>
+      </c>
       <c r="AC5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>27.8</v>
       </c>
       <c r="AD5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.4</v>
       </c>
     </row>
@@ -693,6 +713,14 @@
         <f t="shared" si="0"/>
         <v>0.11363636363636363</v>
       </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>-5340.909090909091</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>1136.3636363636363</v>
+      </c>
       <c r="I6">
         <v>2.5</v>
       </c>
@@ -700,11 +728,11 @@
         <v>-4.5</v>
       </c>
       <c r="M6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.10227272727272728</v>
       </c>
       <c r="N6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.6818181818181816E-2</v>
       </c>
       <c r="Q6">
@@ -714,27 +742,27 @@
         <v>2</v>
       </c>
       <c r="U6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-24</v>
       </c>
       <c r="V6">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="Y6">
-        <f t="shared" si="5"/>
-        <v>21.2</v>
-      </c>
-      <c r="Z6">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
+      <c r="Y6">
+        <f t="shared" si="7"/>
+        <v>21.2</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
       <c r="AC6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>27.2</v>
       </c>
       <c r="AD6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
@@ -752,6 +780,14 @@
         <f t="shared" si="0"/>
         <v>0.13636363636363635</v>
       </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>-3863.6363636363635</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>1363.6363636363635</v>
+      </c>
       <c r="I7">
         <v>2.6</v>
       </c>
@@ -759,11 +795,11 @@
         <v>-6</v>
       </c>
       <c r="M7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.13636363636363635</v>
       </c>
       <c r="N7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.909090909090909E-2</v>
       </c>
       <c r="Q7">
@@ -773,27 +809,27 @@
         <v>-2.5</v>
       </c>
       <c r="U7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-24</v>
       </c>
       <c r="V7">
-        <f t="shared" si="4"/>
-        <v>-2.5</v>
-      </c>
-      <c r="Y7">
-        <f t="shared" si="5"/>
-        <v>21.2</v>
-      </c>
-      <c r="Z7">
         <f t="shared" si="6"/>
         <v>-2.5</v>
       </c>
+      <c r="Y7">
+        <f t="shared" si="7"/>
+        <v>21.2</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="8"/>
+        <v>-2.5</v>
+      </c>
       <c r="AC7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>27.2</v>
       </c>
       <c r="AD7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-2.5</v>
       </c>
     </row>
@@ -811,6 +847,14 @@
         <f t="shared" si="0"/>
         <v>0.15909090909090909</v>
       </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>-2340.909090909091</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>1590.909090909091</v>
+      </c>
       <c r="I8">
         <v>3</v>
       </c>
@@ -818,11 +862,11 @@
         <v>-7.6</v>
       </c>
       <c r="M8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.17272727272727273</v>
       </c>
       <c r="N8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.8181818181818177E-2</v>
       </c>
       <c r="Q8">
@@ -832,27 +876,27 @@
         <v>-2.5</v>
       </c>
       <c r="U8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-20.8</v>
       </c>
       <c r="V8">
-        <f t="shared" si="4"/>
-        <v>-2.5</v>
-      </c>
-      <c r="Y8">
-        <f t="shared" si="5"/>
-        <v>24.4</v>
-      </c>
-      <c r="Z8">
         <f t="shared" si="6"/>
         <v>-2.5</v>
       </c>
+      <c r="Y8">
+        <f t="shared" si="7"/>
+        <v>24.4</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="8"/>
+        <v>-2.5</v>
+      </c>
       <c r="AC8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>30.4</v>
       </c>
       <c r="AD8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-2.5</v>
       </c>
     </row>
@@ -870,6 +914,14 @@
         <f t="shared" si="0"/>
         <v>0.17045454545454544</v>
       </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>-1022.7272727272727</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>1704.5454545454545</v>
+      </c>
       <c r="I9">
         <v>3</v>
       </c>
@@ -877,11 +929,11 @@
         <v>-10.5</v>
       </c>
       <c r="M9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.23863636363636365</v>
       </c>
       <c r="N9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.8181818181818177E-2</v>
       </c>
       <c r="Q9" t="s">
@@ -911,6 +963,14 @@
         <f t="shared" si="0"/>
         <v>0.17727272727272728</v>
       </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>1772.7272727272727</v>
+      </c>
       <c r="I10">
         <v>1</v>
       </c>
@@ -918,11 +978,11 @@
         <v>-13.5</v>
       </c>
       <c r="M10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.30681818181818182</v>
       </c>
       <c r="N10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.2727272727272728E-2</v>
       </c>
       <c r="Q10">
@@ -976,6 +1036,14 @@
         <f t="shared" si="0"/>
         <v>0.16363636363636364</v>
       </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>1931.8181818181818</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>1636.3636363636363</v>
+      </c>
       <c r="I11" t="s">
         <v>1</v>
       </c>
@@ -1000,6 +1068,14 @@
         <f t="shared" si="0"/>
         <v>0.15454545454545454</v>
       </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>3295.4545454545455</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>1545.4545454545455</v>
+      </c>
       <c r="I12">
         <v>107</v>
       </c>
@@ -1042,6 +1118,14 @@
         <f t="shared" si="0"/>
         <v>0.13636363636363635</v>
       </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>5568.181818181818</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>1363.6363636363635</v>
+      </c>
       <c r="M13">
         <v>-0.17272727272727273</v>
       </c>
@@ -1093,6 +1177,14 @@
         <f t="shared" si="0"/>
         <v>0.11363636363636363</v>
       </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>6977.2727272727279</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>1136.3636363636363</v>
+      </c>
       <c r="M14">
         <v>-0.13636363636363635</v>
       </c>
@@ -1106,27 +1198,27 @@
         <v>-2.2000000000000002</v>
       </c>
       <c r="U14">
-        <f t="shared" ref="U14:U19" si="9">Q14-6</f>
+        <f t="shared" ref="U14:U19" si="11">Q14-6</f>
         <v>-21.5</v>
       </c>
       <c r="V14">
-        <f t="shared" ref="V14:V19" si="10">R14</f>
+        <f t="shared" ref="V14:V19" si="12">R14</f>
         <v>-2.2000000000000002</v>
       </c>
       <c r="Y14">
-        <f t="shared" ref="Y14:Y19" si="11">U14+18+6+21.2</f>
+        <f t="shared" ref="Y14:Y19" si="13">U14+18+6+21.2</f>
         <v>23.7</v>
       </c>
       <c r="Z14">
-        <f t="shared" ref="Z14:Z19" si="12">V14</f>
+        <f t="shared" ref="Z14:Z19" si="14">V14</f>
         <v>-2.2000000000000002</v>
       </c>
       <c r="AC14">
-        <f t="shared" ref="AC14:AC19" si="13">Y14+6</f>
+        <f t="shared" ref="AC14:AC19" si="15">Y14+6</f>
         <v>29.7</v>
       </c>
       <c r="AD14">
-        <f t="shared" ref="AD14:AD19" si="14">Z14</f>
+        <f t="shared" ref="AD14:AD19" si="16">Z14</f>
         <v>-2.2000000000000002</v>
       </c>
     </row>
@@ -1144,6 +1236,14 @@
         <f t="shared" si="0"/>
         <v>8.4090909090909091E-2</v>
       </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>8136.363636363636</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>840.90909090909088</v>
+      </c>
       <c r="M15">
         <v>-0.10227272727272728</v>
       </c>
@@ -1157,27 +1257,27 @@
         <v>-2.2000000000000002</v>
       </c>
       <c r="U15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-21.8</v>
       </c>
       <c r="V15">
-        <f t="shared" si="10"/>
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="Y15">
-        <f t="shared" si="11"/>
-        <v>23.4</v>
-      </c>
-      <c r="Z15">
         <f t="shared" si="12"/>
         <v>-2.2000000000000002</v>
       </c>
+      <c r="Y15">
+        <f t="shared" si="13"/>
+        <v>23.4</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="14"/>
+        <v>-2.2000000000000002</v>
+      </c>
       <c r="AC15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>29.4</v>
       </c>
       <c r="AD15">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-2.2000000000000002</v>
       </c>
     </row>
@@ -1195,6 +1295,14 @@
         <f t="shared" si="0"/>
         <v>5.6818181818181816E-2</v>
       </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>9204.545454545454</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>568.18181818181813</v>
+      </c>
       <c r="M16">
         <v>-4.5454545454545456E-2</v>
       </c>
@@ -1208,27 +1316,27 @@
         <v>-2.5</v>
       </c>
       <c r="U16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-22</v>
       </c>
       <c r="V16">
-        <f t="shared" si="10"/>
-        <v>-2.5</v>
-      </c>
-      <c r="Y16">
-        <f t="shared" si="11"/>
-        <v>23.2</v>
-      </c>
-      <c r="Z16">
         <f t="shared" si="12"/>
         <v>-2.5</v>
       </c>
+      <c r="Y16">
+        <f t="shared" si="13"/>
+        <v>23.2</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="14"/>
+        <v>-2.5</v>
+      </c>
       <c r="AC16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>29.2</v>
       </c>
       <c r="AD16">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-2.5</v>
       </c>
     </row>
@@ -1246,6 +1354,14 @@
         <f t="shared" si="0"/>
         <v>3.4090909090909088E-2</v>
       </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>9659.0909090909099</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>340.90909090909088</v>
+      </c>
       <c r="M17">
         <v>3.1818181818181815E-2</v>
       </c>
@@ -1259,27 +1375,27 @@
         <v>-5.8</v>
       </c>
       <c r="U17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-21.8</v>
       </c>
       <c r="V17">
-        <f t="shared" si="10"/>
-        <v>-5.8</v>
-      </c>
-      <c r="Y17">
-        <f t="shared" si="11"/>
-        <v>23.4</v>
-      </c>
-      <c r="Z17">
         <f t="shared" si="12"/>
         <v>-5.8</v>
       </c>
+      <c r="Y17">
+        <f t="shared" si="13"/>
+        <v>23.4</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="14"/>
+        <v>-5.8</v>
+      </c>
       <c r="AC17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>29.4</v>
       </c>
       <c r="AD17">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-5.8</v>
       </c>
     </row>
@@ -1297,6 +1413,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M18">
         <v>6.8181818181818177E-2</v>
       </c>
@@ -1310,27 +1434,27 @@
         <v>-5.8</v>
       </c>
       <c r="U18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-21.5</v>
       </c>
       <c r="V18">
-        <f t="shared" si="10"/>
-        <v>-5.8</v>
-      </c>
-      <c r="Y18">
-        <f t="shared" si="11"/>
-        <v>23.7</v>
-      </c>
-      <c r="Z18">
         <f t="shared" si="12"/>
         <v>-5.8</v>
       </c>
+      <c r="Y18">
+        <f t="shared" si="13"/>
+        <v>23.7</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="14"/>
+        <v>-5.8</v>
+      </c>
       <c r="AC18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>29.7</v>
       </c>
       <c r="AD18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-5.8</v>
       </c>
     </row>
@@ -1344,6 +1468,14 @@
       <c r="F19">
         <v>-3.4090909090909088E-2</v>
       </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>9659.0909090909099</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>-340.90909090909088</v>
+      </c>
       <c r="M19">
         <v>0.11363636363636363</v>
       </c>
@@ -1357,27 +1489,27 @@
         <v>-2.5</v>
       </c>
       <c r="U19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-21.3</v>
       </c>
       <c r="V19">
-        <f t="shared" si="10"/>
-        <v>-2.5</v>
-      </c>
-      <c r="Y19">
-        <f t="shared" si="11"/>
-        <v>23.9</v>
-      </c>
-      <c r="Z19">
         <f t="shared" si="12"/>
         <v>-2.5</v>
       </c>
+      <c r="Y19">
+        <f t="shared" si="13"/>
+        <v>23.9</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="14"/>
+        <v>-2.5</v>
+      </c>
       <c r="AC19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>29.9</v>
       </c>
       <c r="AD19">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>-2.5</v>
       </c>
     </row>
@@ -1397,6 +1529,14 @@
       <c r="F20">
         <v>-5.6818181818181816E-2</v>
       </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>9204.545454545454</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>-568.18181818181813</v>
+      </c>
       <c r="M20">
         <v>0.11363636363636363</v>
       </c>
@@ -1423,6 +1563,14 @@
       <c r="F21">
         <v>-8.4090909090909091E-2</v>
       </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>8136.363636363636</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>-840.90909090909088</v>
+      </c>
       <c r="M21" t="s">
         <v>1</v>
       </c>
@@ -1470,16 +1618,24 @@
       <c r="F22">
         <v>-0.11363636363636363</v>
       </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>6977.2727272727279</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>-1136.3636363636363</v>
+      </c>
       <c r="M22">
         <f>I12/255</f>
         <v>0.41960784313725491</v>
       </c>
       <c r="N22">
-        <f t="shared" ref="N22:O22" si="15">J12/255</f>
+        <f t="shared" ref="N22:O22" si="17">J12/255</f>
         <v>0.41960784313725491</v>
       </c>
       <c r="O22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.41960784313725491</v>
       </c>
     </row>
@@ -1490,6 +1646,14 @@
       <c r="F23">
         <v>-0.13636363636363635</v>
       </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>5568.181818181818</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>-1363.6363636363635</v>
+      </c>
       <c r="Q23" t="s">
         <v>7</v>
       </c>
@@ -1510,6 +1674,14 @@
       <c r="F24">
         <v>-0.15454545454545454</v>
       </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>3295.4545454545455</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>-1545.4545454545455</v>
+      </c>
       <c r="Q24">
         <v>-16.8</v>
       </c>
@@ -1548,6 +1720,14 @@
       <c r="F25">
         <v>-0.16363636363636364</v>
       </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>1931.8181818181818</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>-1636.3636363636363</v>
+      </c>
       <c r="Q25">
         <v>-17</v>
       </c>
@@ -1555,27 +1735,27 @@
         <v>-2.2000000000000002</v>
       </c>
       <c r="U25">
-        <f t="shared" ref="U25:U30" si="16">Q25-6</f>
+        <f t="shared" ref="U25:U30" si="18">Q25-6</f>
         <v>-23</v>
       </c>
       <c r="V25">
-        <f t="shared" ref="V25:V30" si="17">R25</f>
+        <f t="shared" ref="V25:V30" si="19">R25</f>
         <v>-2.2000000000000002</v>
       </c>
       <c r="Y25">
-        <f t="shared" ref="Y25:Y30" si="18">U25+18+6+21.2</f>
+        <f t="shared" ref="Y25:Y30" si="20">U25+18+6+21.2</f>
         <v>22.2</v>
       </c>
       <c r="Z25">
-        <f t="shared" ref="Z25:Z30" si="19">V25</f>
+        <f t="shared" ref="Z25:Z30" si="21">V25</f>
         <v>-2.2000000000000002</v>
       </c>
       <c r="AC25">
-        <f t="shared" ref="AC25:AC30" si="20">Y25+6</f>
+        <f t="shared" ref="AC25:AC30" si="22">Y25+6</f>
         <v>28.2</v>
       </c>
       <c r="AD25">
-        <f t="shared" ref="AD25:AD30" si="21">Z25</f>
+        <f t="shared" ref="AD25:AD30" si="23">Z25</f>
         <v>-2.2000000000000002</v>
       </c>
     </row>
@@ -1586,6 +1766,14 @@
       <c r="F26">
         <v>-0.17727272727272728</v>
       </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>-1772.7272727272727</v>
+      </c>
       <c r="Q26">
         <v>-17.3</v>
       </c>
@@ -1593,27 +1781,27 @@
         <v>-2.2000000000000002</v>
       </c>
       <c r="U26">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-23.3</v>
       </c>
       <c r="V26">
-        <f t="shared" si="17"/>
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="Y26">
-        <f t="shared" si="18"/>
-        <v>21.9</v>
-      </c>
-      <c r="Z26">
         <f t="shared" si="19"/>
         <v>-2.2000000000000002</v>
       </c>
+      <c r="Y26">
+        <f t="shared" si="20"/>
+        <v>21.9</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="21"/>
+        <v>-2.2000000000000002</v>
+      </c>
       <c r="AC26">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>27.9</v>
       </c>
       <c r="AD26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-2.2000000000000002</v>
       </c>
     </row>
@@ -1624,6 +1812,14 @@
       <c r="F27">
         <v>-0.17045454545454544</v>
       </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>-1022.7272727272727</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>-1704.5454545454545</v>
+      </c>
       <c r="Q27">
         <v>-17.5</v>
       </c>
@@ -1631,27 +1827,27 @@
         <v>-2.5</v>
       </c>
       <c r="U27">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-23.5</v>
       </c>
       <c r="V27">
-        <f t="shared" si="17"/>
-        <v>-2.5</v>
-      </c>
-      <c r="Y27">
-        <f t="shared" si="18"/>
-        <v>21.7</v>
-      </c>
-      <c r="Z27">
         <f t="shared" si="19"/>
         <v>-2.5</v>
       </c>
+      <c r="Y27">
+        <f t="shared" si="20"/>
+        <v>21.7</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="21"/>
+        <v>-2.5</v>
+      </c>
       <c r="AC27">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>27.7</v>
       </c>
       <c r="AD27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-2.5</v>
       </c>
     </row>
@@ -1662,6 +1858,14 @@
       <c r="F28">
         <v>-0.15909090909090909</v>
       </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>-2340.909090909091</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>-1590.909090909091</v>
+      </c>
       <c r="Q28">
         <v>-17.3</v>
       </c>
@@ -1669,27 +1873,27 @@
         <v>-5.8</v>
       </c>
       <c r="U28">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-23.3</v>
       </c>
       <c r="V28">
-        <f t="shared" si="17"/>
-        <v>-5.8</v>
-      </c>
-      <c r="Y28">
-        <f t="shared" si="18"/>
-        <v>21.9</v>
-      </c>
-      <c r="Z28">
         <f t="shared" si="19"/>
         <v>-5.8</v>
       </c>
+      <c r="Y28">
+        <f t="shared" si="20"/>
+        <v>21.9</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="21"/>
+        <v>-5.8</v>
+      </c>
       <c r="AC28">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>27.9</v>
       </c>
       <c r="AD28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-5.8</v>
       </c>
     </row>
@@ -1700,6 +1904,14 @@
       <c r="F29">
         <v>-0.13636363636363635</v>
       </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>-3863.6363636363635</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>-1363.6363636363635</v>
+      </c>
       <c r="Q29">
         <v>-17</v>
       </c>
@@ -1707,27 +1919,27 @@
         <v>-5.8</v>
       </c>
       <c r="U29">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-23</v>
       </c>
       <c r="V29">
-        <f t="shared" si="17"/>
-        <v>-5.8</v>
-      </c>
-      <c r="Y29">
-        <f t="shared" si="18"/>
-        <v>22.2</v>
-      </c>
-      <c r="Z29">
         <f t="shared" si="19"/>
         <v>-5.8</v>
       </c>
+      <c r="Y29">
+        <f t="shared" si="20"/>
+        <v>22.2</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="21"/>
+        <v>-5.8</v>
+      </c>
       <c r="AC29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>28.2</v>
       </c>
       <c r="AD29">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-5.8</v>
       </c>
     </row>
@@ -1738,6 +1950,14 @@
       <c r="F30">
         <v>-0.11363636363636363</v>
       </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>-5340.909090909091</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>-1136.3636363636363</v>
+      </c>
       <c r="Q30">
         <v>-16.8</v>
       </c>
@@ -1745,27 +1965,27 @@
         <v>-2.5</v>
       </c>
       <c r="U30">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-22.8</v>
       </c>
       <c r="V30">
-        <f t="shared" si="17"/>
-        <v>-2.5</v>
-      </c>
-      <c r="Y30">
-        <f t="shared" si="18"/>
-        <v>22.4</v>
-      </c>
-      <c r="Z30">
         <f t="shared" si="19"/>
         <v>-2.5</v>
       </c>
+      <c r="Y30">
+        <f t="shared" si="20"/>
+        <v>22.4</v>
+      </c>
+      <c r="Z30">
+        <f t="shared" si="21"/>
+        <v>-2.5</v>
+      </c>
       <c r="AC30">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>28.4</v>
       </c>
       <c r="AD30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-2.5</v>
       </c>
     </row>
@@ -1776,6 +1996,14 @@
       <c r="F31">
         <v>-8.4090909090909091E-2</v>
       </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>-6886.363636363636</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>-840.90909090909088</v>
+      </c>
       <c r="Q31" t="s">
         <v>1</v>
       </c>
@@ -1796,6 +2024,14 @@
       <c r="F32">
         <v>-0.05</v>
       </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>-8409.0909090909099</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>-500</v>
+      </c>
       <c r="Q32">
         <v>71</v>
       </c>
@@ -1833,21 +2069,37 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:32" x14ac:dyDescent="0.25">
       <c r="E33">
         <v>-0.95454545454545459</v>
       </c>
       <c r="F33">
         <v>-2.2727272727272728E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>-9545.454545454546</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>-227.27272727272728</v>
+      </c>
+    </row>
+    <row r="34" spans="5:32" x14ac:dyDescent="0.25">
       <c r="E34">
         <v>-1</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>-10000</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="Q34" t="s">
         <v>8</v>
       </c>
@@ -1861,17 +2113,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:32" x14ac:dyDescent="0.25">
       <c r="E35">
         <f>A20/255</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="F35">
-        <f t="shared" ref="F35:G35" si="22">B20/255</f>
+        <f t="shared" ref="F35:G35" si="24">B20/255</f>
         <v>0.52156862745098043</v>
       </c>
       <c r="G35">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.38823529411764707</v>
       </c>
       <c r="Q35">
@@ -1939,622 +2191,403 @@
         <v>454.54545454545456</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:32" x14ac:dyDescent="0.25">
       <c r="Q36">
-        <f t="shared" ref="Q36" si="23">Q3/44</f>
+        <f t="shared" ref="Q36" si="25">Q3/44</f>
         <v>-0.35000000000000003</v>
       </c>
       <c r="R36">
-        <f t="shared" ref="R36:R41" si="24">R3/44</f>
+        <f t="shared" ref="R36:R41" si="26">R3/44</f>
         <v>5.4545454545454543E-2</v>
       </c>
       <c r="S36">
-        <f t="shared" ref="S36:S41" si="25">10000*Q36</f>
+        <f t="shared" ref="S36:S41" si="27">10000*Q36</f>
         <v>-3500.0000000000005</v>
       </c>
       <c r="T36">
-        <f t="shared" ref="T36:T41" si="26">10000*R36</f>
+        <f t="shared" ref="T36:T41" si="28">10000*R36</f>
         <v>545.45454545454538</v>
       </c>
       <c r="U36">
-        <f t="shared" ref="U36:V36" si="27">U3/44</f>
+        <f t="shared" ref="U36:V36" si="29">U3/44</f>
         <v>-0.48636363636363633</v>
       </c>
       <c r="V36">
+        <f t="shared" si="29"/>
+        <v>5.4545454545454543E-2</v>
+      </c>
+      <c r="W36">
+        <f t="shared" ref="W36:W41" si="30">10000*U36</f>
+        <v>-4863.6363636363631</v>
+      </c>
+      <c r="X36">
+        <f t="shared" ref="X36:X41" si="31">10000*V36</f>
+        <v>545.45454545454538</v>
+      </c>
+      <c r="Y36">
+        <f t="shared" ref="Y36:Z36" si="32">Y3/44</f>
+        <v>0.54090909090909089</v>
+      </c>
+      <c r="Z36">
+        <f t="shared" si="32"/>
+        <v>5.4545454545454543E-2</v>
+      </c>
+      <c r="AA36">
+        <f t="shared" ref="AA36:AA41" si="33">10000*Y36</f>
+        <v>5409.090909090909</v>
+      </c>
+      <c r="AB36">
+        <f t="shared" ref="AB36:AB41" si="34">10000*Z36</f>
+        <v>545.45454545454538</v>
+      </c>
+      <c r="AC36">
+        <f t="shared" ref="AC36:AD36" si="35">AC3/44</f>
+        <v>0.67727272727272725</v>
+      </c>
+      <c r="AD36">
+        <f t="shared" si="35"/>
+        <v>5.4545454545454543E-2</v>
+      </c>
+      <c r="AE36">
+        <f t="shared" ref="AE36:AE41" si="36">10000*AC36</f>
+        <v>6772.7272727272721</v>
+      </c>
+      <c r="AF36">
+        <f t="shared" ref="AF36:AF41" si="37">10000*AD36</f>
+        <v>545.45454545454538</v>
+      </c>
+    </row>
+    <row r="37" spans="5:32" x14ac:dyDescent="0.25">
+      <c r="Q37">
+        <f t="shared" ref="Q37" si="38">Q4/44</f>
+        <v>-0.37272727272727268</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="26"/>
+        <v>6.136363636363637E-2</v>
+      </c>
+      <c r="S37">
         <f t="shared" si="27"/>
-        <v>5.4545454545454543E-2</v>
-      </c>
-      <c r="W36">
-        <f t="shared" ref="W36:W41" si="28">10000*U36</f>
-        <v>-4863.6363636363631</v>
-      </c>
-      <c r="X36">
-        <f t="shared" ref="X36:X41" si="29">10000*V36</f>
-        <v>545.45454545454538</v>
-      </c>
-      <c r="Y36">
-        <f t="shared" ref="Y36:Z36" si="30">Y3/44</f>
-        <v>0.54090909090909089</v>
-      </c>
-      <c r="Z36">
-        <f t="shared" si="30"/>
-        <v>5.4545454545454543E-2</v>
-      </c>
-      <c r="AA36">
-        <f t="shared" ref="AA36:AA41" si="31">10000*Y36</f>
-        <v>5409.090909090909</v>
-      </c>
-      <c r="AB36">
-        <f t="shared" ref="AB36:AB41" si="32">10000*Z36</f>
-        <v>545.45454545454538</v>
-      </c>
-      <c r="AC36">
-        <f t="shared" ref="AC36:AD36" si="33">AC3/44</f>
-        <v>0.67727272727272725</v>
-      </c>
-      <c r="AD36">
-        <f t="shared" si="33"/>
-        <v>5.4545454545454543E-2</v>
-      </c>
-      <c r="AE36">
-        <f t="shared" ref="AE36:AE41" si="34">10000*AC36</f>
-        <v>6772.7272727272721</v>
-      </c>
-      <c r="AF36">
-        <f t="shared" ref="AF36:AF41" si="35">10000*AD36</f>
-        <v>545.45454545454538</v>
-      </c>
-    </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" t="s">
-        <v>12</v>
-      </c>
-      <c r="K37" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q37">
-        <f t="shared" ref="Q37" si="36">Q4/44</f>
-        <v>-0.37272727272727268</v>
-      </c>
-      <c r="R37">
-        <f t="shared" si="24"/>
-        <v>6.136363636363637E-2</v>
-      </c>
-      <c r="S37">
-        <f t="shared" si="25"/>
         <v>-3727.272727272727</v>
       </c>
       <c r="T37">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>613.63636363636374</v>
       </c>
       <c r="U37">
-        <f t="shared" ref="U37:V37" si="37">U4/44</f>
+        <f t="shared" ref="U37:V37" si="39">U4/44</f>
         <v>-0.50909090909090904</v>
       </c>
       <c r="V37">
-        <f t="shared" si="37"/>
-        <v>6.136363636363637E-2</v>
-      </c>
-      <c r="W37">
-        <f t="shared" si="28"/>
-        <v>-5090.9090909090901</v>
-      </c>
-      <c r="X37">
-        <f t="shared" si="29"/>
-        <v>613.63636363636374</v>
-      </c>
-      <c r="Y37">
-        <f t="shared" ref="Y37:Z37" si="38">Y4/44</f>
-        <v>0.51818181818181819</v>
-      </c>
-      <c r="Z37">
-        <f t="shared" si="38"/>
-        <v>6.136363636363637E-2</v>
-      </c>
-      <c r="AA37">
-        <f t="shared" si="31"/>
-        <v>5181.818181818182</v>
-      </c>
-      <c r="AB37">
-        <f t="shared" si="32"/>
-        <v>613.63636363636374</v>
-      </c>
-      <c r="AC37">
-        <f t="shared" ref="AC37:AD37" si="39">AC4/44</f>
-        <v>0.65454545454545454</v>
-      </c>
-      <c r="AD37">
         <f t="shared" si="39"/>
         <v>6.136363636363637E-2</v>
       </c>
+      <c r="W37">
+        <f t="shared" si="30"/>
+        <v>-5090.9090909090901</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="31"/>
+        <v>613.63636363636374</v>
+      </c>
+      <c r="Y37">
+        <f t="shared" ref="Y37:Z37" si="40">Y4/44</f>
+        <v>0.51818181818181819</v>
+      </c>
+      <c r="Z37">
+        <f t="shared" si="40"/>
+        <v>6.136363636363637E-2</v>
+      </c>
+      <c r="AA37">
+        <f t="shared" si="33"/>
+        <v>5181.818181818182</v>
+      </c>
+      <c r="AB37">
+        <f t="shared" si="34"/>
+        <v>613.63636363636374</v>
+      </c>
+      <c r="AC37">
+        <f t="shared" ref="AC37:AD37" si="41">AC4/44</f>
+        <v>0.65454545454545454</v>
+      </c>
+      <c r="AD37">
+        <f t="shared" si="41"/>
+        <v>6.136363636363637E-2</v>
+      </c>
       <c r="AE37">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>6545.454545454545</v>
       </c>
       <c r="AF37">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>613.63636363636374</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>0</v>
-      </c>
-      <c r="B38">
-        <v>0.17727272727272728</v>
-      </c>
-      <c r="C38">
-        <f>10000*A38</f>
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <f>10000*B38</f>
-        <v>1772.7272727272727</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0.17727272727272728</v>
-      </c>
-      <c r="H38">
-        <f>10000*F38</f>
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <f>10000*G38</f>
-        <v>1772.7272727272727</v>
-      </c>
-      <c r="K38">
-        <v>0.19318181818181818</v>
-      </c>
-      <c r="L38">
-        <v>0.16363636363636364</v>
-      </c>
-      <c r="M38">
-        <f>10000*K38</f>
-        <v>1931.8181818181818</v>
-      </c>
-      <c r="N38">
-        <f>10000*L38</f>
-        <v>1636.3636363636363</v>
-      </c>
+    <row r="38" spans="5:32" x14ac:dyDescent="0.25">
       <c r="Q38">
-        <f t="shared" ref="Q38" si="40">Q5/44</f>
+        <f t="shared" ref="Q38" si="42">Q5/44</f>
         <v>-0.39545454545454545</v>
       </c>
       <c r="R38">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5.4545454545454543E-2</v>
       </c>
       <c r="S38">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-3954.5454545454545</v>
       </c>
       <c r="T38">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>545.45454545454538</v>
       </c>
       <c r="U38">
-        <f t="shared" ref="U38:V38" si="41">U5/44</f>
+        <f t="shared" ref="U38:V38" si="43">U5/44</f>
         <v>-0.53181818181818175</v>
       </c>
       <c r="V38">
-        <f t="shared" si="41"/>
-        <v>5.4545454545454543E-2</v>
-      </c>
-      <c r="W38">
-        <f t="shared" si="28"/>
-        <v>-5318.1818181818171</v>
-      </c>
-      <c r="X38">
-        <f t="shared" si="29"/>
-        <v>545.45454545454538</v>
-      </c>
-      <c r="Y38">
-        <f t="shared" ref="Y38:Z38" si="42">Y5/44</f>
-        <v>0.49545454545454548</v>
-      </c>
-      <c r="Z38">
-        <f t="shared" si="42"/>
-        <v>5.4545454545454543E-2</v>
-      </c>
-      <c r="AA38">
-        <f t="shared" si="31"/>
-        <v>4954.545454545455</v>
-      </c>
-      <c r="AB38">
-        <f t="shared" si="32"/>
-        <v>545.45454545454538</v>
-      </c>
-      <c r="AC38">
-        <f t="shared" ref="AC38:AD38" si="43">AC5/44</f>
-        <v>0.63181818181818183</v>
-      </c>
-      <c r="AD38">
         <f t="shared" si="43"/>
         <v>5.4545454545454543E-2</v>
       </c>
+      <c r="W38">
+        <f t="shared" si="30"/>
+        <v>-5318.1818181818171</v>
+      </c>
+      <c r="X38">
+        <f t="shared" si="31"/>
+        <v>545.45454545454538</v>
+      </c>
+      <c r="Y38">
+        <f t="shared" ref="Y38:Z38" si="44">Y5/44</f>
+        <v>0.49545454545454548</v>
+      </c>
+      <c r="Z38">
+        <f t="shared" si="44"/>
+        <v>5.4545454545454543E-2</v>
+      </c>
+      <c r="AA38">
+        <f t="shared" si="33"/>
+        <v>4954.545454545455</v>
+      </c>
+      <c r="AB38">
+        <f t="shared" si="34"/>
+        <v>545.45454545454538</v>
+      </c>
+      <c r="AC38">
+        <f t="shared" ref="AC38:AD38" si="45">AC5/44</f>
+        <v>0.63181818181818183</v>
+      </c>
+      <c r="AD38">
+        <f t="shared" si="45"/>
+        <v>5.4545454545454543E-2</v>
+      </c>
       <c r="AE38">
+        <f t="shared" si="36"/>
+        <v>6318.181818181818</v>
+      </c>
+      <c r="AF38">
+        <f t="shared" si="37"/>
+        <v>545.45454545454538</v>
+      </c>
+    </row>
+    <row r="39" spans="5:32" x14ac:dyDescent="0.25">
+      <c r="Q39">
+        <f t="shared" ref="Q39" si="46">Q6/44</f>
+        <v>-0.40909090909090912</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="26"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="27"/>
+        <v>-4090.909090909091</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="28"/>
+        <v>454.54545454545456</v>
+      </c>
+      <c r="U39">
+        <f t="shared" ref="U39:V39" si="47">U6/44</f>
+        <v>-0.54545454545454541</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="47"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="W39">
+        <f t="shared" si="30"/>
+        <v>-5454.545454545454</v>
+      </c>
+      <c r="X39">
+        <f t="shared" si="31"/>
+        <v>454.54545454545456</v>
+      </c>
+      <c r="Y39">
+        <f t="shared" ref="Y39:Z39" si="48">Y6/44</f>
+        <v>0.48181818181818181</v>
+      </c>
+      <c r="Z39">
+        <f t="shared" si="48"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="AA39">
+        <f t="shared" si="33"/>
+        <v>4818.181818181818</v>
+      </c>
+      <c r="AB39">
         <f t="shared" si="34"/>
-        <v>6318.181818181818</v>
-      </c>
-      <c r="AF38">
-        <f t="shared" si="35"/>
-        <v>545.45454545454538</v>
-      </c>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>0.19318181818181818</v>
-      </c>
-      <c r="B39">
-        <v>0.16363636363636364</v>
-      </c>
-      <c r="C39">
-        <f t="shared" ref="C39:C55" si="44">10000*A39</f>
-        <v>1931.8181818181818</v>
-      </c>
-      <c r="D39">
-        <f t="shared" ref="D39:D55" si="45">10000*B39</f>
-        <v>1636.3636363636363</v>
-      </c>
-      <c r="F39">
-        <v>0.19318181818181818</v>
-      </c>
-      <c r="G39">
-        <v>0.16363636363636364</v>
-      </c>
-      <c r="H39">
-        <f t="shared" ref="H39:H42" si="46">10000*F39</f>
-        <v>1931.8181818181818</v>
-      </c>
-      <c r="I39">
-        <f t="shared" ref="I39:I42" si="47">10000*G39</f>
-        <v>1636.3636363636363</v>
-      </c>
-      <c r="K39">
-        <v>0.32954545454545453</v>
-      </c>
-      <c r="L39">
-        <v>0.15454545454545454</v>
-      </c>
-      <c r="M39">
-        <f t="shared" ref="M39:M48" si="48">10000*K39</f>
-        <v>3295.4545454545455</v>
-      </c>
-      <c r="N39">
-        <f t="shared" ref="N39:N48" si="49">10000*L39</f>
-        <v>1545.4545454545455</v>
-      </c>
-      <c r="Q39">
-        <f t="shared" ref="Q39" si="50">Q6/44</f>
+        <v>454.54545454545456</v>
+      </c>
+      <c r="AC39">
+        <f t="shared" ref="AC39:AD39" si="49">AC6/44</f>
+        <v>0.61818181818181817</v>
+      </c>
+      <c r="AD39">
+        <f t="shared" si="49"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="AE39">
+        <f t="shared" si="36"/>
+        <v>6181.818181818182</v>
+      </c>
+      <c r="AF39">
+        <f t="shared" si="37"/>
+        <v>454.54545454545456</v>
+      </c>
+    </row>
+    <row r="40" spans="5:32" x14ac:dyDescent="0.25">
+      <c r="Q40">
+        <f t="shared" ref="Q40" si="50">Q7/44</f>
         <v>-0.40909090909090912</v>
       </c>
-      <c r="R39">
-        <f t="shared" si="24"/>
-        <v>4.5454545454545456E-2</v>
-      </c>
-      <c r="S39">
-        <f t="shared" si="25"/>
+      <c r="R40">
+        <f t="shared" si="26"/>
+        <v>-5.6818181818181816E-2</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="27"/>
         <v>-4090.909090909091</v>
       </c>
-      <c r="T39">
+      <c r="T40">
+        <f t="shared" si="28"/>
+        <v>-568.18181818181813</v>
+      </c>
+      <c r="U40">
+        <f t="shared" ref="U40:V40" si="51">U7/44</f>
+        <v>-0.54545454545454541</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="51"/>
+        <v>-5.6818181818181816E-2</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="30"/>
+        <v>-5454.545454545454</v>
+      </c>
+      <c r="X40">
+        <f t="shared" si="31"/>
+        <v>-568.18181818181813</v>
+      </c>
+      <c r="Y40">
+        <f t="shared" ref="Y40:Z40" si="52">Y7/44</f>
+        <v>0.48181818181818181</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" si="52"/>
+        <v>-5.6818181818181816E-2</v>
+      </c>
+      <c r="AA40">
+        <f t="shared" si="33"/>
+        <v>4818.181818181818</v>
+      </c>
+      <c r="AB40">
+        <f t="shared" si="34"/>
+        <v>-568.18181818181813</v>
+      </c>
+      <c r="AC40">
+        <f t="shared" ref="AC40:AD40" si="53">AC7/44</f>
+        <v>0.61818181818181817</v>
+      </c>
+      <c r="AD40">
+        <f t="shared" si="53"/>
+        <v>-5.6818181818181816E-2</v>
+      </c>
+      <c r="AE40">
+        <f t="shared" si="36"/>
+        <v>6181.818181818182</v>
+      </c>
+      <c r="AF40">
+        <f t="shared" si="37"/>
+        <v>-568.18181818181813</v>
+      </c>
+    </row>
+    <row r="41" spans="5:32" x14ac:dyDescent="0.25">
+      <c r="Q41">
+        <f t="shared" ref="Q41" si="54">Q8/44</f>
+        <v>-0.33636363636363636</v>
+      </c>
+      <c r="R41">
         <f t="shared" si="26"/>
-        <v>454.54545454545456</v>
-      </c>
-      <c r="U39">
-        <f t="shared" ref="U39:V39" si="51">U6/44</f>
-        <v>-0.54545454545454541</v>
-      </c>
-      <c r="V39">
-        <f t="shared" si="51"/>
-        <v>4.5454545454545456E-2</v>
-      </c>
-      <c r="W39">
+        <v>-5.6818181818181816E-2</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="27"/>
+        <v>-3363.6363636363635</v>
+      </c>
+      <c r="T41">
         <f t="shared" si="28"/>
-        <v>-5454.545454545454</v>
-      </c>
-      <c r="X39">
-        <f t="shared" si="29"/>
-        <v>454.54545454545456</v>
-      </c>
-      <c r="Y39">
-        <f t="shared" ref="Y39:Z39" si="52">Y6/44</f>
-        <v>0.48181818181818181</v>
-      </c>
-      <c r="Z39">
-        <f t="shared" si="52"/>
-        <v>4.5454545454545456E-2</v>
-      </c>
-      <c r="AA39">
-        <f t="shared" si="31"/>
-        <v>4818.181818181818</v>
-      </c>
-      <c r="AB39">
-        <f t="shared" si="32"/>
-        <v>454.54545454545456</v>
-      </c>
-      <c r="AC39">
-        <f t="shared" ref="AC39:AD39" si="53">AC6/44</f>
-        <v>0.61818181818181817</v>
-      </c>
-      <c r="AD39">
-        <f t="shared" si="53"/>
-        <v>4.5454545454545456E-2</v>
-      </c>
-      <c r="AE39">
-        <f t="shared" si="34"/>
-        <v>6181.818181818182</v>
-      </c>
-      <c r="AF39">
-        <f t="shared" si="35"/>
-        <v>454.54545454545456</v>
-      </c>
-    </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>0.32954545454545453</v>
-      </c>
-      <c r="B40">
-        <v>0.15454545454545454</v>
-      </c>
-      <c r="C40">
-        <f t="shared" si="44"/>
-        <v>3295.4545454545455</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="45"/>
-        <v>1545.4545454545455</v>
-      </c>
-      <c r="F40">
-        <v>0.19318181818181818</v>
-      </c>
-      <c r="G40">
-        <v>-0.163636363636364</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="46"/>
-        <v>1931.8181818181818</v>
-      </c>
-      <c r="I40">
-        <f t="shared" si="47"/>
-        <v>-1636.3636363636399</v>
-      </c>
-      <c r="K40">
-        <v>0.55681818181818177</v>
-      </c>
-      <c r="L40">
-        <v>0.13636363636363635</v>
-      </c>
-      <c r="M40">
-        <f t="shared" si="48"/>
-        <v>5568.181818181818</v>
-      </c>
-      <c r="N40">
-        <f t="shared" si="49"/>
-        <v>1363.6363636363635</v>
-      </c>
-      <c r="Q40">
-        <f t="shared" ref="Q40" si="54">Q7/44</f>
-        <v>-0.40909090909090912</v>
-      </c>
-      <c r="R40">
-        <f t="shared" si="24"/>
-        <v>-5.6818181818181816E-2</v>
-      </c>
-      <c r="S40">
-        <f t="shared" si="25"/>
-        <v>-4090.909090909091</v>
-      </c>
-      <c r="T40">
-        <f t="shared" si="26"/>
         <v>-568.18181818181813</v>
       </c>
-      <c r="U40">
-        <f t="shared" ref="U40:V40" si="55">U7/44</f>
-        <v>-0.54545454545454541</v>
-      </c>
-      <c r="V40">
+      <c r="U41">
+        <f t="shared" ref="U41:V41" si="55">U8/44</f>
+        <v>-0.47272727272727272</v>
+      </c>
+      <c r="V41">
         <f t="shared" si="55"/>
         <v>-5.6818181818181816E-2</v>
       </c>
-      <c r="W40">
-        <f t="shared" si="28"/>
-        <v>-5454.545454545454</v>
-      </c>
-      <c r="X40">
-        <f t="shared" si="29"/>
+      <c r="W41">
+        <f t="shared" si="30"/>
+        <v>-4727.272727272727</v>
+      </c>
+      <c r="X41">
+        <f t="shared" si="31"/>
         <v>-568.18181818181813</v>
       </c>
-      <c r="Y40">
-        <f t="shared" ref="Y40:Z40" si="56">Y7/44</f>
-        <v>0.48181818181818181</v>
-      </c>
-      <c r="Z40">
+      <c r="Y41">
+        <f t="shared" ref="Y41:Z41" si="56">Y8/44</f>
+        <v>0.55454545454545456</v>
+      </c>
+      <c r="Z41">
         <f t="shared" si="56"/>
         <v>-5.6818181818181816E-2</v>
       </c>
-      <c r="AA40">
-        <f t="shared" si="31"/>
-        <v>4818.181818181818</v>
-      </c>
-      <c r="AB40">
-        <f t="shared" si="32"/>
+      <c r="AA41">
+        <f t="shared" si="33"/>
+        <v>5545.454545454546</v>
+      </c>
+      <c r="AB41">
+        <f t="shared" si="34"/>
         <v>-568.18181818181813</v>
       </c>
-      <c r="AC40">
-        <f t="shared" ref="AC40:AD40" si="57">AC7/44</f>
-        <v>0.61818181818181817</v>
-      </c>
-      <c r="AD40">
+      <c r="AC41">
+        <f t="shared" ref="AC41:AD41" si="57">AC8/44</f>
+        <v>0.69090909090909092</v>
+      </c>
+      <c r="AD41">
         <f t="shared" si="57"/>
         <v>-5.6818181818181816E-2</v>
       </c>
-      <c r="AE40">
-        <f t="shared" si="34"/>
-        <v>6181.818181818182</v>
-      </c>
-      <c r="AF40">
-        <f t="shared" si="35"/>
+      <c r="AE41">
+        <f t="shared" si="36"/>
+        <v>6909.090909090909</v>
+      </c>
+      <c r="AF41">
+        <f t="shared" si="37"/>
         <v>-568.18181818181813</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>0.55681818181818177</v>
-      </c>
-      <c r="B41">
-        <v>0.13636363636363635</v>
-      </c>
-      <c r="C41">
-        <f t="shared" si="44"/>
-        <v>5568.181818181818</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="45"/>
-        <v>1363.6363636363635</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>-0.177272727272727</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="47"/>
-        <v>-1772.72727272727</v>
-      </c>
-      <c r="K41">
-        <v>0.69772727272727275</v>
-      </c>
-      <c r="L41">
-        <v>0.11363636363636363</v>
-      </c>
-      <c r="M41">
-        <f t="shared" si="48"/>
-        <v>6977.2727272727279</v>
-      </c>
-      <c r="N41">
-        <f t="shared" si="49"/>
-        <v>1136.3636363636363</v>
-      </c>
-      <c r="Q41">
-        <f t="shared" ref="Q41" si="58">Q8/44</f>
-        <v>-0.33636363636363636</v>
-      </c>
-      <c r="R41">
-        <f t="shared" si="24"/>
-        <v>-5.6818181818181816E-2</v>
-      </c>
-      <c r="S41">
-        <f t="shared" si="25"/>
-        <v>-3363.6363636363635</v>
-      </c>
-      <c r="T41">
-        <f t="shared" si="26"/>
-        <v>-568.18181818181813</v>
-      </c>
-      <c r="U41">
-        <f t="shared" ref="U41:V41" si="59">U8/44</f>
-        <v>-0.47272727272727272</v>
-      </c>
-      <c r="V41">
-        <f t="shared" si="59"/>
-        <v>-5.6818181818181816E-2</v>
-      </c>
-      <c r="W41">
-        <f t="shared" si="28"/>
-        <v>-4727.272727272727</v>
-      </c>
-      <c r="X41">
-        <f t="shared" si="29"/>
-        <v>-568.18181818181813</v>
-      </c>
-      <c r="Y41">
-        <f t="shared" ref="Y41:Z41" si="60">Y8/44</f>
-        <v>0.55454545454545456</v>
-      </c>
-      <c r="Z41">
-        <f t="shared" si="60"/>
-        <v>-5.6818181818181816E-2</v>
-      </c>
-      <c r="AA41">
-        <f t="shared" si="31"/>
-        <v>5545.454545454546</v>
-      </c>
-      <c r="AB41">
-        <f t="shared" si="32"/>
-        <v>-568.18181818181813</v>
-      </c>
-      <c r="AC41">
-        <f t="shared" ref="AC41:AD41" si="61">AC8/44</f>
-        <v>0.69090909090909092</v>
-      </c>
-      <c r="AD41">
-        <f t="shared" si="61"/>
-        <v>-5.6818181818181816E-2</v>
-      </c>
-      <c r="AE41">
-        <f t="shared" si="34"/>
-        <v>6909.090909090909</v>
-      </c>
-      <c r="AF41">
-        <f t="shared" si="35"/>
-        <v>-568.18181818181813</v>
-      </c>
-    </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>0.69772727272727275</v>
-      </c>
-      <c r="B42">
-        <v>0.11363636363636363</v>
-      </c>
-      <c r="C42">
-        <f t="shared" si="44"/>
-        <v>6977.2727272727279</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="45"/>
-        <v>1136.3636363636363</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0.17727272727272728</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="47"/>
-        <v>1772.7272727272727</v>
-      </c>
-      <c r="K42">
-        <v>0.8136363636363636</v>
-      </c>
-      <c r="L42">
-        <v>8.4090909090909091E-2</v>
-      </c>
-      <c r="M42">
-        <f t="shared" si="48"/>
-        <v>8136.363636363636</v>
-      </c>
-      <c r="N42">
-        <f t="shared" si="49"/>
-        <v>840.90909090909088</v>
-      </c>
+    <row r="42" spans="5:32" x14ac:dyDescent="0.25">
       <c r="Q42" t="s">
         <v>1</v>
       </c>
@@ -2568,57 +2601,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>0.8136363636363636</v>
-      </c>
-      <c r="B43">
-        <v>8.4090909090909091E-2</v>
-      </c>
-      <c r="C43">
-        <f t="shared" si="44"/>
-        <v>8136.363636363636</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="45"/>
-        <v>840.90909090909088</v>
-      </c>
-      <c r="F43" t="s">
-        <v>1</v>
-      </c>
-      <c r="G43">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="H43">
-        <v>0.52156862745098043</v>
-      </c>
-      <c r="I43">
-        <v>0.38823529411764707</v>
-      </c>
-      <c r="K43">
-        <v>0.8136363636363636</v>
-      </c>
-      <c r="L43">
-        <v>-8.4090909090909105E-2</v>
-      </c>
-      <c r="M43">
-        <f t="shared" si="48"/>
-        <v>8136.363636363636</v>
-      </c>
-      <c r="N43">
-        <f t="shared" si="49"/>
-        <v>-840.90909090909111</v>
-      </c>
+    <row r="43" spans="5:32" x14ac:dyDescent="0.25">
       <c r="Q43">
         <f>Q10/255</f>
         <v>0.50588235294117645</v>
       </c>
       <c r="R43">
-        <f t="shared" ref="R43:S43" si="62">R10/255</f>
+        <f t="shared" ref="R43:S43" si="58">R10/255</f>
         <v>0.51372549019607838</v>
       </c>
       <c r="S43">
-        <f t="shared" si="62"/>
+        <f t="shared" si="58"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="U43">
@@ -2626,11 +2619,11 @@
         <v>0.50588235294117645</v>
       </c>
       <c r="V43">
-        <f t="shared" ref="V43:W43" si="63">V10/255</f>
+        <f t="shared" ref="V43:W43" si="59">V10/255</f>
         <v>0.51372549019607838</v>
       </c>
       <c r="W43">
-        <f t="shared" si="63"/>
+        <f t="shared" si="59"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="Y43">
@@ -2638,11 +2631,11 @@
         <v>0.50588235294117645</v>
       </c>
       <c r="Z43">
-        <f t="shared" ref="Z43:AA43" si="64">Z10/255</f>
+        <f t="shared" ref="Z43:AA43" si="60">Z10/255</f>
         <v>0.51372549019607838</v>
       </c>
       <c r="AA43">
-        <f t="shared" si="64"/>
+        <f t="shared" si="60"/>
         <v>0.52941176470588236</v>
       </c>
       <c r="AC43">
@@ -2650,73 +2643,15 @@
         <v>0.50588235294117645</v>
       </c>
       <c r="AD43">
-        <f t="shared" ref="AD43:AE43" si="65">AD10/255</f>
+        <f t="shared" ref="AD43:AE43" si="61">AD10/255</f>
         <v>0.51372549019607838</v>
       </c>
       <c r="AE43">
-        <f t="shared" si="65"/>
+        <f t="shared" si="61"/>
         <v>0.52941176470588236</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>0.92045454545454541</v>
-      </c>
-      <c r="B44">
-        <v>5.6818181818181816E-2</v>
-      </c>
-      <c r="C44">
-        <f t="shared" si="44"/>
-        <v>9204.545454545454</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="45"/>
-        <v>568.18181818181813</v>
-      </c>
-      <c r="K44">
-        <v>0.69772727272727275</v>
-      </c>
-      <c r="L44">
-        <v>-0.11363636363636399</v>
-      </c>
-      <c r="M44">
-        <f t="shared" si="48"/>
-        <v>6977.2727272727279</v>
-      </c>
-      <c r="N44">
-        <f t="shared" si="49"/>
-        <v>-1136.3636363636399</v>
-      </c>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>0.96590909090909094</v>
-      </c>
-      <c r="B45">
-        <v>3.4090909090909088E-2</v>
-      </c>
-      <c r="C45">
-        <f t="shared" si="44"/>
-        <v>9659.0909090909099</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="45"/>
-        <v>340.90909090909088</v>
-      </c>
-      <c r="K45">
-        <v>0.55681818181818177</v>
-      </c>
-      <c r="L45">
-        <v>-0.13636363636363599</v>
-      </c>
-      <c r="M45">
-        <f t="shared" si="48"/>
-        <v>5568.181818181818</v>
-      </c>
-      <c r="N45">
-        <f t="shared" si="49"/>
-        <v>-1363.6363636363599</v>
-      </c>
+    <row r="45" spans="5:32" x14ac:dyDescent="0.25">
       <c r="Q45" t="s">
         <v>9</v>
       </c>
@@ -2730,35 +2665,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>1</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46">
-        <f t="shared" si="44"/>
-        <v>10000</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0.32954545454545453</v>
-      </c>
-      <c r="L46">
-        <v>-0.15454545454545501</v>
-      </c>
-      <c r="M46">
-        <f t="shared" si="48"/>
-        <v>3295.4545454545455</v>
-      </c>
-      <c r="N46">
-        <f t="shared" si="49"/>
-        <v>-1545.45454545455</v>
-      </c>
+    <row r="46" spans="5:32" x14ac:dyDescent="0.25">
       <c r="Q46">
         <f>Q13/44</f>
         <v>-0.34772727272727272</v>
@@ -2824,389 +2731,274 @@
         <v>-568.18181818181813</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>0.96590909090909094</v>
-      </c>
-      <c r="B47">
-        <v>-3.4090909090909088E-2</v>
-      </c>
-      <c r="C47">
-        <f t="shared" si="44"/>
-        <v>9659.0909090909099</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="45"/>
-        <v>-340.90909090909088</v>
-      </c>
-      <c r="K47">
-        <v>0.19318181818181818</v>
-      </c>
-      <c r="L47">
-        <v>-0.163636363636364</v>
-      </c>
-      <c r="M47">
-        <f t="shared" si="48"/>
-        <v>1931.8181818181818</v>
-      </c>
-      <c r="N47">
-        <f t="shared" si="49"/>
-        <v>-1636.3636363636399</v>
-      </c>
+    <row r="47" spans="5:32" x14ac:dyDescent="0.25">
       <c r="Q47">
-        <f t="shared" ref="Q47:R47" si="66">Q14/44</f>
+        <f t="shared" ref="Q47:R47" si="62">Q14/44</f>
         <v>-0.35227272727272729</v>
       </c>
       <c r="R47">
-        <f t="shared" si="66"/>
+        <f t="shared" si="62"/>
         <v>-0.05</v>
       </c>
       <c r="S47">
-        <f t="shared" ref="S47:S52" si="67">10000*Q47</f>
+        <f t="shared" ref="S47:S52" si="63">10000*Q47</f>
         <v>-3522.727272727273</v>
       </c>
       <c r="T47">
-        <f t="shared" ref="T47:T52" si="68">10000*R47</f>
+        <f t="shared" ref="T47:T52" si="64">10000*R47</f>
         <v>-500</v>
       </c>
       <c r="U47">
-        <f t="shared" ref="U47:V47" si="69">U14/44</f>
+        <f t="shared" ref="U47:V47" si="65">U14/44</f>
         <v>-0.48863636363636365</v>
       </c>
       <c r="V47">
-        <f t="shared" si="69"/>
+        <f t="shared" si="65"/>
         <v>-0.05</v>
       </c>
       <c r="W47">
-        <f t="shared" ref="W47:W52" si="70">10000*U47</f>
+        <f t="shared" ref="W47:W52" si="66">10000*U47</f>
         <v>-4886.363636363636</v>
       </c>
       <c r="X47">
-        <f t="shared" ref="X47:X52" si="71">10000*V47</f>
+        <f t="shared" ref="X47:X52" si="67">10000*V47</f>
         <v>-500</v>
       </c>
       <c r="Y47">
-        <f t="shared" ref="Y47:Z47" si="72">Y14/44</f>
+        <f t="shared" ref="Y47:Z47" si="68">Y14/44</f>
         <v>0.53863636363636358</v>
       </c>
       <c r="Z47">
-        <f t="shared" si="72"/>
+        <f t="shared" si="68"/>
         <v>-0.05</v>
       </c>
       <c r="AA47">
-        <f t="shared" ref="AA47:AA52" si="73">10000*Y47</f>
+        <f t="shared" ref="AA47:AA52" si="69">10000*Y47</f>
         <v>5386.363636363636</v>
       </c>
       <c r="AB47">
-        <f t="shared" ref="AB47:AB52" si="74">10000*Z47</f>
+        <f t="shared" ref="AB47:AB52" si="70">10000*Z47</f>
         <v>-500</v>
       </c>
       <c r="AC47">
-        <f t="shared" ref="AC47:AD47" si="75">AC14/44</f>
+        <f t="shared" ref="AC47:AD47" si="71">AC14/44</f>
         <v>0.67499999999999993</v>
       </c>
       <c r="AD47">
+        <f t="shared" si="71"/>
+        <v>-0.05</v>
+      </c>
+      <c r="AE47">
+        <f t="shared" ref="AE47:AE52" si="72">10000*AC47</f>
+        <v>6749.9999999999991</v>
+      </c>
+      <c r="AF47">
+        <f t="shared" ref="AF47:AF52" si="73">10000*AD47</f>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="48" spans="5:32" x14ac:dyDescent="0.25">
+      <c r="Q48">
+        <f t="shared" ref="Q48:R48" si="74">Q15/44</f>
+        <v>-0.35909090909090913</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="74"/>
+        <v>-0.05</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="63"/>
+        <v>-3590.9090909090914</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="64"/>
+        <v>-500</v>
+      </c>
+      <c r="U48">
+        <f t="shared" ref="U48:V48" si="75">U15/44</f>
+        <v>-0.49545454545454548</v>
+      </c>
+      <c r="V48">
         <f t="shared" si="75"/>
         <v>-0.05</v>
       </c>
-      <c r="AE47">
-        <f t="shared" ref="AE47:AE52" si="76">10000*AC47</f>
-        <v>6749.9999999999991</v>
-      </c>
-      <c r="AF47">
-        <f t="shared" ref="AF47:AF52" si="77">10000*AD47</f>
+      <c r="W48">
+        <f t="shared" si="66"/>
+        <v>-4954.545454545455</v>
+      </c>
+      <c r="X48">
+        <f t="shared" si="67"/>
         <v>-500</v>
       </c>
-    </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>0.92045454545454541</v>
-      </c>
-      <c r="B48">
+      <c r="Y48">
+        <f t="shared" ref="Y48:Z48" si="76">Y15/44</f>
+        <v>0.53181818181818175</v>
+      </c>
+      <c r="Z48">
+        <f t="shared" si="76"/>
+        <v>-0.05</v>
+      </c>
+      <c r="AA48">
+        <f t="shared" si="69"/>
+        <v>5318.1818181818171</v>
+      </c>
+      <c r="AB48">
+        <f t="shared" si="70"/>
+        <v>-500</v>
+      </c>
+      <c r="AC48">
+        <f t="shared" ref="AC48:AD48" si="77">AC15/44</f>
+        <v>0.6681818181818181</v>
+      </c>
+      <c r="AD48">
+        <f t="shared" si="77"/>
+        <v>-0.05</v>
+      </c>
+      <c r="AE48">
+        <f t="shared" si="72"/>
+        <v>6681.8181818181811</v>
+      </c>
+      <c r="AF48">
+        <f t="shared" si="73"/>
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="Q49">
+        <f t="shared" ref="Q49:R49" si="78">Q16/44</f>
+        <v>-0.36363636363636365</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="78"/>
         <v>-5.6818181818181816E-2</v>
       </c>
-      <c r="C48">
-        <f t="shared" si="44"/>
-        <v>9204.545454545454</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="45"/>
+      <c r="S49">
+        <f t="shared" si="63"/>
+        <v>-3636.3636363636365</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="64"/>
         <v>-568.18181818181813</v>
       </c>
-      <c r="K48">
-        <v>0.19318181818181818</v>
-      </c>
-      <c r="L48">
-        <v>0.16363636363636364</v>
-      </c>
-      <c r="M48">
-        <f t="shared" si="48"/>
-        <v>1931.8181818181818</v>
-      </c>
-      <c r="N48">
-        <f t="shared" si="49"/>
-        <v>1636.3636363636363</v>
-      </c>
-      <c r="Q48">
-        <f t="shared" ref="Q48:R48" si="78">Q15/44</f>
+      <c r="U49">
+        <f t="shared" ref="U49:V49" si="79">U16/44</f>
+        <v>-0.5</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="79"/>
+        <v>-5.6818181818181816E-2</v>
+      </c>
+      <c r="W49">
+        <f t="shared" si="66"/>
+        <v>-5000</v>
+      </c>
+      <c r="X49">
+        <f t="shared" si="67"/>
+        <v>-568.18181818181813</v>
+      </c>
+      <c r="Y49">
+        <f t="shared" ref="Y49:Z49" si="80">Y16/44</f>
+        <v>0.52727272727272723</v>
+      </c>
+      <c r="Z49">
+        <f t="shared" si="80"/>
+        <v>-5.6818181818181816E-2</v>
+      </c>
+      <c r="AA49">
+        <f t="shared" si="69"/>
+        <v>5272.7272727272721</v>
+      </c>
+      <c r="AB49">
+        <f t="shared" si="70"/>
+        <v>-568.18181818181813</v>
+      </c>
+      <c r="AC49">
+        <f t="shared" ref="AC49:AD49" si="81">AC16/44</f>
+        <v>0.66363636363636358</v>
+      </c>
+      <c r="AD49">
+        <f t="shared" si="81"/>
+        <v>-5.6818181818181816E-2</v>
+      </c>
+      <c r="AE49">
+        <f t="shared" si="72"/>
+        <v>6636.363636363636</v>
+      </c>
+      <c r="AF49">
+        <f t="shared" si="73"/>
+        <v>-568.18181818181813</v>
+      </c>
+    </row>
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="K50" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" ref="Q50:R50" si="82">Q17/44</f>
         <v>-0.35909090909090913</v>
       </c>
-      <c r="R48">
-        <f t="shared" si="78"/>
-        <v>-0.05</v>
-      </c>
-      <c r="S48">
+      <c r="R50">
+        <f t="shared" si="82"/>
+        <v>-0.13181818181818181</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="63"/>
+        <v>-3590.9090909090914</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="64"/>
+        <v>-1318.181818181818</v>
+      </c>
+      <c r="U50">
+        <f t="shared" ref="U50:V50" si="83">U17/44</f>
+        <v>-0.49545454545454548</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="83"/>
+        <v>-0.13181818181818181</v>
+      </c>
+      <c r="W50">
+        <f t="shared" si="66"/>
+        <v>-4954.545454545455</v>
+      </c>
+      <c r="X50">
         <f t="shared" si="67"/>
-        <v>-3590.9090909090914</v>
-      </c>
-      <c r="T48">
-        <f t="shared" si="68"/>
-        <v>-500</v>
-      </c>
-      <c r="U48">
-        <f t="shared" ref="U48:V48" si="79">U15/44</f>
-        <v>-0.49545454545454548</v>
-      </c>
-      <c r="V48">
-        <f t="shared" si="79"/>
-        <v>-0.05</v>
-      </c>
-      <c r="W48">
+        <v>-1318.181818181818</v>
+      </c>
+      <c r="Y50">
+        <f t="shared" ref="Y50:Z50" si="84">Y17/44</f>
+        <v>0.53181818181818175</v>
+      </c>
+      <c r="Z50">
+        <f t="shared" si="84"/>
+        <v>-0.13181818181818181</v>
+      </c>
+      <c r="AA50">
+        <f t="shared" si="69"/>
+        <v>5318.1818181818171</v>
+      </c>
+      <c r="AB50">
         <f t="shared" si="70"/>
-        <v>-4954.545454545455</v>
-      </c>
-      <c r="X48">
-        <f t="shared" si="71"/>
-        <v>-500</v>
-      </c>
-      <c r="Y48">
-        <f t="shared" ref="Y48:Z48" si="80">Y15/44</f>
-        <v>0.53181818181818175</v>
-      </c>
-      <c r="Z48">
-        <f t="shared" si="80"/>
-        <v>-0.05</v>
-      </c>
-      <c r="AA48">
+        <v>-1318.181818181818</v>
+      </c>
+      <c r="AC50">
+        <f t="shared" ref="AC50:AD50" si="85">AC17/44</f>
+        <v>0.6681818181818181</v>
+      </c>
+      <c r="AD50">
+        <f t="shared" si="85"/>
+        <v>-0.13181818181818181</v>
+      </c>
+      <c r="AE50">
+        <f t="shared" si="72"/>
+        <v>6681.8181818181811</v>
+      </c>
+      <c r="AF50">
         <f t="shared" si="73"/>
-        <v>5318.1818181818171</v>
-      </c>
-      <c r="AB48">
-        <f t="shared" si="74"/>
-        <v>-500</v>
-      </c>
-      <c r="AC48">
-        <f t="shared" ref="AC48:AD48" si="81">AC15/44</f>
-        <v>0.6681818181818181</v>
-      </c>
-      <c r="AD48">
-        <f t="shared" si="81"/>
-        <v>-0.05</v>
-      </c>
-      <c r="AE48">
-        <f t="shared" si="76"/>
-        <v>6681.8181818181811</v>
-      </c>
-      <c r="AF48">
-        <f t="shared" si="77"/>
-        <v>-500</v>
-      </c>
-    </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>0.8136363636363636</v>
-      </c>
-      <c r="B49">
-        <v>-8.4090909090909091E-2</v>
-      </c>
-      <c r="C49">
-        <f t="shared" si="44"/>
-        <v>8136.363636363636</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="45"/>
-        <v>-840.90909090909088</v>
-      </c>
-      <c r="Q49">
-        <f t="shared" ref="Q49:R49" si="82">Q16/44</f>
-        <v>-0.36363636363636365</v>
-      </c>
-      <c r="R49">
-        <f t="shared" si="82"/>
-        <v>-5.6818181818181816E-2</v>
-      </c>
-      <c r="S49">
-        <f t="shared" si="67"/>
-        <v>-3636.3636363636365</v>
-      </c>
-      <c r="T49">
-        <f t="shared" si="68"/>
-        <v>-568.18181818181813</v>
-      </c>
-      <c r="U49">
-        <f t="shared" ref="U49:V49" si="83">U16/44</f>
-        <v>-0.5</v>
-      </c>
-      <c r="V49">
-        <f t="shared" si="83"/>
-        <v>-5.6818181818181816E-2</v>
-      </c>
-      <c r="W49">
-        <f t="shared" si="70"/>
-        <v>-5000</v>
-      </c>
-      <c r="X49">
-        <f t="shared" si="71"/>
-        <v>-568.18181818181813</v>
-      </c>
-      <c r="Y49">
-        <f t="shared" ref="Y49:Z49" si="84">Y16/44</f>
-        <v>0.52727272727272723</v>
-      </c>
-      <c r="Z49">
-        <f t="shared" si="84"/>
-        <v>-5.6818181818181816E-2</v>
-      </c>
-      <c r="AA49">
-        <f t="shared" si="73"/>
-        <v>5272.7272727272721</v>
-      </c>
-      <c r="AB49">
-        <f t="shared" si="74"/>
-        <v>-568.18181818181813</v>
-      </c>
-      <c r="AC49">
-        <f t="shared" ref="AC49:AD49" si="85">AC16/44</f>
-        <v>0.66363636363636358</v>
-      </c>
-      <c r="AD49">
-        <f t="shared" si="85"/>
-        <v>-5.6818181818181816E-2</v>
-      </c>
-      <c r="AE49">
-        <f t="shared" si="76"/>
-        <v>6636.363636363636</v>
-      </c>
-      <c r="AF49">
-        <f t="shared" si="77"/>
-        <v>-568.18181818181813</v>
-      </c>
-    </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>0.69772727272727275</v>
-      </c>
-      <c r="B50">
-        <v>-0.11363636363636363</v>
-      </c>
-      <c r="C50">
-        <f t="shared" si="44"/>
-        <v>6977.2727272727279</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="45"/>
-        <v>-1136.3636363636363</v>
-      </c>
-      <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="K50" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q50">
-        <f t="shared" ref="Q50:R50" si="86">Q17/44</f>
-        <v>-0.35909090909090913</v>
-      </c>
-      <c r="R50">
-        <f t="shared" si="86"/>
-        <v>-0.13181818181818181</v>
-      </c>
-      <c r="S50">
-        <f t="shared" si="67"/>
-        <v>-3590.9090909090914</v>
-      </c>
-      <c r="T50">
-        <f t="shared" si="68"/>
         <v>-1318.181818181818</v>
       </c>
-      <c r="U50">
-        <f t="shared" ref="U50:V50" si="87">U17/44</f>
-        <v>-0.49545454545454548</v>
-      </c>
-      <c r="V50">
-        <f t="shared" si="87"/>
-        <v>-0.13181818181818181</v>
-      </c>
-      <c r="W50">
-        <f t="shared" si="70"/>
-        <v>-4954.545454545455</v>
-      </c>
-      <c r="X50">
-        <f t="shared" si="71"/>
-        <v>-1318.181818181818</v>
-      </c>
-      <c r="Y50">
-        <f t="shared" ref="Y50:Z50" si="88">Y17/44</f>
-        <v>0.53181818181818175</v>
-      </c>
-      <c r="Z50">
-        <f t="shared" si="88"/>
-        <v>-0.13181818181818181</v>
-      </c>
-      <c r="AA50">
-        <f t="shared" si="73"/>
-        <v>5318.1818181818171</v>
-      </c>
-      <c r="AB50">
-        <f t="shared" si="74"/>
-        <v>-1318.181818181818</v>
-      </c>
-      <c r="AC50">
-        <f t="shared" ref="AC50:AD50" si="89">AC17/44</f>
-        <v>0.6681818181818181</v>
-      </c>
-      <c r="AD50">
-        <f t="shared" si="89"/>
-        <v>-0.13181818181818181</v>
-      </c>
-      <c r="AE50">
-        <f t="shared" si="76"/>
-        <v>6681.8181818181811</v>
-      </c>
-      <c r="AF50">
-        <f t="shared" si="77"/>
-        <v>-1318.181818181818</v>
-      </c>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>0.55681818181818177</v>
-      </c>
-      <c r="B51">
-        <v>-0.13636363636363635</v>
-      </c>
-      <c r="C51">
-        <f t="shared" si="44"/>
-        <v>5568.181818181818</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="45"/>
-        <v>-1363.6363636363635</v>
-      </c>
-      <c r="F51">
-        <v>0.8136363636363636</v>
-      </c>
-      <c r="G51">
-        <v>8.4090909090909091E-2</v>
-      </c>
-      <c r="H51">
-        <f>10000*F51</f>
-        <v>8136.363636363636</v>
-      </c>
-      <c r="I51">
-        <f>10000*G51</f>
-        <v>840.90909090909088</v>
-      </c>
       <c r="K51">
         <v>0.11363636363636363</v>
       </c>
@@ -3222,99 +3014,71 @@
         <v>454.54545454545456</v>
       </c>
       <c r="Q51">
-        <f t="shared" ref="Q51:R51" si="90">Q18/44</f>
+        <f t="shared" ref="Q51:R51" si="86">Q18/44</f>
         <v>-0.35227272727272729</v>
       </c>
       <c r="R51">
-        <f t="shared" si="90"/>
+        <f t="shared" si="86"/>
         <v>-0.13181818181818181</v>
       </c>
       <c r="S51">
+        <f t="shared" si="63"/>
+        <v>-3522.727272727273</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="64"/>
+        <v>-1318.181818181818</v>
+      </c>
+      <c r="U51">
+        <f t="shared" ref="U51:V51" si="87">U18/44</f>
+        <v>-0.48863636363636365</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="87"/>
+        <v>-0.13181818181818181</v>
+      </c>
+      <c r="W51">
+        <f t="shared" si="66"/>
+        <v>-4886.363636363636</v>
+      </c>
+      <c r="X51">
         <f t="shared" si="67"/>
-        <v>-3522.727272727273</v>
-      </c>
-      <c r="T51">
-        <f t="shared" si="68"/>
         <v>-1318.181818181818</v>
       </c>
-      <c r="U51">
-        <f t="shared" ref="U51:V51" si="91">U18/44</f>
-        <v>-0.48863636363636365</v>
-      </c>
-      <c r="V51">
-        <f t="shared" si="91"/>
+      <c r="Y51">
+        <f t="shared" ref="Y51:Z51" si="88">Y18/44</f>
+        <v>0.53863636363636358</v>
+      </c>
+      <c r="Z51">
+        <f t="shared" si="88"/>
         <v>-0.13181818181818181</v>
       </c>
-      <c r="W51">
+      <c r="AA51">
+        <f t="shared" si="69"/>
+        <v>5386.363636363636</v>
+      </c>
+      <c r="AB51">
         <f t="shared" si="70"/>
-        <v>-4886.363636363636</v>
-      </c>
-      <c r="X51">
-        <f t="shared" si="71"/>
         <v>-1318.181818181818</v>
       </c>
-      <c r="Y51">
-        <f t="shared" ref="Y51:Z51" si="92">Y18/44</f>
-        <v>0.53863636363636358</v>
-      </c>
-      <c r="Z51">
-        <f t="shared" si="92"/>
+      <c r="AC51">
+        <f t="shared" ref="AC51:AD51" si="89">AC18/44</f>
+        <v>0.67499999999999993</v>
+      </c>
+      <c r="AD51">
+        <f t="shared" si="89"/>
         <v>-0.13181818181818181</v>
       </c>
-      <c r="AA51">
+      <c r="AE51">
+        <f t="shared" si="72"/>
+        <v>6749.9999999999991</v>
+      </c>
+      <c r="AF51">
         <f t="shared" si="73"/>
-        <v>5386.363636363636</v>
-      </c>
-      <c r="AB51">
-        <f t="shared" si="74"/>
         <v>-1318.181818181818</v>
       </c>
-      <c r="AC51">
-        <f t="shared" ref="AC51:AD51" si="93">AC18/44</f>
-        <v>0.67499999999999993</v>
-      </c>
-      <c r="AD51">
-        <f t="shared" si="93"/>
-        <v>-0.13181818181818181</v>
-      </c>
-      <c r="AE51">
-        <f t="shared" si="76"/>
-        <v>6749.9999999999991</v>
-      </c>
-      <c r="AF51">
-        <f t="shared" si="77"/>
-        <v>-1318.181818181818</v>
-      </c>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>0.32954545454545453</v>
-      </c>
-      <c r="B52">
-        <v>-0.15454545454545454</v>
-      </c>
-      <c r="C52">
-        <f t="shared" si="44"/>
-        <v>3295.4545454545455</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="45"/>
-        <v>-1545.4545454545455</v>
-      </c>
-      <c r="F52">
-        <v>0.92045454545454541</v>
-      </c>
-      <c r="G52">
-        <v>5.6818181818181816E-2</v>
-      </c>
-      <c r="H52">
-        <f t="shared" ref="H52:H58" si="94">10000*F52</f>
-        <v>9204.545454545454</v>
-      </c>
-      <c r="I52">
-        <f t="shared" ref="I52:I58" si="95">10000*G52</f>
-        <v>568.18181818181813</v>
-      </c>
       <c r="K52">
         <v>6.8181818181818177E-2</v>
       </c>
@@ -3322,107 +3086,79 @@
         <v>6.8181818181818177E-2</v>
       </c>
       <c r="M52">
-        <f t="shared" ref="M52:M59" si="96">10000*K52</f>
+        <f t="shared" ref="M52:M59" si="90">10000*K52</f>
         <v>681.81818181818176</v>
       </c>
       <c r="N52">
-        <f t="shared" ref="N52:N59" si="97">10000*L52</f>
+        <f t="shared" ref="N52:N59" si="91">10000*L52</f>
         <v>681.81818181818176</v>
       </c>
       <c r="Q52">
-        <f t="shared" ref="Q52:R52" si="98">Q19/44</f>
+        <f t="shared" ref="Q52:R52" si="92">Q19/44</f>
         <v>-0.34772727272727272</v>
       </c>
       <c r="R52">
-        <f t="shared" si="98"/>
+        <f t="shared" si="92"/>
         <v>-5.6818181818181816E-2</v>
       </c>
       <c r="S52">
+        <f t="shared" si="63"/>
+        <v>-3477.272727272727</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="64"/>
+        <v>-568.18181818181813</v>
+      </c>
+      <c r="U52">
+        <f t="shared" ref="U52:V52" si="93">U19/44</f>
+        <v>-0.48409090909090913</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="93"/>
+        <v>-5.6818181818181816E-2</v>
+      </c>
+      <c r="W52">
+        <f t="shared" si="66"/>
+        <v>-4840.909090909091</v>
+      </c>
+      <c r="X52">
         <f t="shared" si="67"/>
-        <v>-3477.272727272727</v>
-      </c>
-      <c r="T52">
-        <f t="shared" si="68"/>
         <v>-568.18181818181813</v>
       </c>
-      <c r="U52">
-        <f t="shared" ref="U52:V52" si="99">U19/44</f>
-        <v>-0.48409090909090913</v>
-      </c>
-      <c r="V52">
-        <f t="shared" si="99"/>
+      <c r="Y52">
+        <f t="shared" ref="Y52:Z52" si="94">Y19/44</f>
+        <v>0.5431818181818181</v>
+      </c>
+      <c r="Z52">
+        <f t="shared" si="94"/>
         <v>-5.6818181818181816E-2</v>
       </c>
-      <c r="W52">
+      <c r="AA52">
+        <f t="shared" si="69"/>
+        <v>5431.8181818181811</v>
+      </c>
+      <c r="AB52">
         <f t="shared" si="70"/>
-        <v>-4840.909090909091</v>
-      </c>
-      <c r="X52">
-        <f t="shared" si="71"/>
         <v>-568.18181818181813</v>
       </c>
-      <c r="Y52">
-        <f t="shared" ref="Y52:Z52" si="100">Y19/44</f>
-        <v>0.5431818181818181</v>
-      </c>
-      <c r="Z52">
-        <f t="shared" si="100"/>
+      <c r="AC52">
+        <f t="shared" ref="AC52:AD52" si="95">AC19/44</f>
+        <v>0.67954545454545456</v>
+      </c>
+      <c r="AD52">
+        <f t="shared" si="95"/>
         <v>-5.6818181818181816E-2</v>
       </c>
-      <c r="AA52">
+      <c r="AE52">
+        <f t="shared" si="72"/>
+        <v>6795.454545454546</v>
+      </c>
+      <c r="AF52">
         <f t="shared" si="73"/>
-        <v>5431.8181818181811</v>
-      </c>
-      <c r="AB52">
-        <f t="shared" si="74"/>
         <v>-568.18181818181813</v>
       </c>
-      <c r="AC52">
-        <f t="shared" ref="AC52:AD52" si="101">AC19/44</f>
-        <v>0.67954545454545456</v>
-      </c>
-      <c r="AD52">
-        <f t="shared" si="101"/>
-        <v>-5.6818181818181816E-2</v>
-      </c>
-      <c r="AE52">
-        <f t="shared" si="76"/>
-        <v>6795.454545454546</v>
-      </c>
-      <c r="AF52">
-        <f t="shared" si="77"/>
-        <v>-568.18181818181813</v>
-      </c>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>0.19318181818181818</v>
-      </c>
-      <c r="B53">
-        <v>-0.16363636363636364</v>
-      </c>
-      <c r="C53">
-        <f t="shared" si="44"/>
-        <v>1931.8181818181818</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="45"/>
-        <v>-1636.3636363636363</v>
-      </c>
-      <c r="F53">
-        <v>0.96590909090909094</v>
-      </c>
-      <c r="G53">
-        <v>3.4090909090909088E-2</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="94"/>
-        <v>9659.0909090909099</v>
-      </c>
-      <c r="I53">
-        <f t="shared" si="95"/>
-        <v>340.90909090909088</v>
-      </c>
       <c r="K53">
         <v>3.1818181818181815E-2</v>
       </c>
@@ -3430,11 +3166,11 @@
         <v>6.363636363636363E-2</v>
       </c>
       <c r="M53">
-        <f t="shared" si="96"/>
+        <f t="shared" si="90"/>
         <v>318.18181818181813</v>
       </c>
       <c r="N53">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>636.36363636363626</v>
       </c>
       <c r="Q53" t="s">
@@ -3451,34 +3187,6 @@
       </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>0</v>
-      </c>
-      <c r="B54">
-        <v>-0.17727272727272728</v>
-      </c>
-      <c r="C54">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <f t="shared" si="45"/>
-        <v>-1772.7272727272727</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <f t="shared" si="94"/>
-        <v>10000</v>
-      </c>
-      <c r="I54">
-        <f t="shared" si="95"/>
-        <v>0</v>
-      </c>
       <c r="K54">
         <v>-4.5454545454545456E-2</v>
       </c>
@@ -3486,11 +3194,11 @@
         <v>4.0909090909090909E-2</v>
       </c>
       <c r="M54">
-        <f t="shared" si="96"/>
+        <f t="shared" si="90"/>
         <v>-454.54545454545456</v>
       </c>
       <c r="N54">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>409.09090909090907</v>
       </c>
       <c r="Q54">
@@ -3498,11 +3206,11 @@
         <v>0.27843137254901962</v>
       </c>
       <c r="R54">
-        <f t="shared" ref="R54:S54" si="102">R21/255</f>
+        <f t="shared" ref="R54:S54" si="96">R21/255</f>
         <v>0.27843137254901962</v>
       </c>
       <c r="S54">
-        <f t="shared" si="102"/>
+        <f t="shared" si="96"/>
         <v>0.27843137254901962</v>
       </c>
       <c r="U54">
@@ -3510,11 +3218,11 @@
         <v>0.27843137254901962</v>
       </c>
       <c r="V54">
-        <f t="shared" ref="V54:W54" si="103">V21/255</f>
+        <f t="shared" ref="V54:W54" si="97">V21/255</f>
         <v>0.27843137254901962</v>
       </c>
       <c r="W54">
-        <f t="shared" si="103"/>
+        <f t="shared" si="97"/>
         <v>0.27843137254901962</v>
       </c>
       <c r="Y54">
@@ -3522,11 +3230,11 @@
         <v>0.27843137254901962</v>
       </c>
       <c r="Z54">
-        <f t="shared" ref="Z54:AA54" si="104">Z21/255</f>
+        <f t="shared" ref="Z54:AA54" si="98">Z21/255</f>
         <v>0.27843137254901962</v>
       </c>
       <c r="AA54">
-        <f t="shared" si="104"/>
+        <f t="shared" si="98"/>
         <v>0.27843137254901962</v>
       </c>
       <c r="AC54">
@@ -3534,43 +3242,15 @@
         <v>0.27843137254901962</v>
       </c>
       <c r="AD54">
-        <f t="shared" ref="AD54:AE54" si="105">AD21/255</f>
+        <f t="shared" ref="AD54:AE54" si="99">AD21/255</f>
         <v>0.27843137254901962</v>
       </c>
       <c r="AE54">
-        <f t="shared" si="105"/>
+        <f t="shared" si="99"/>
         <v>0.27843137254901962</v>
       </c>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>0</v>
-      </c>
-      <c r="B55">
-        <v>0.17727272727272728</v>
-      </c>
-      <c r="C55">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <f t="shared" si="45"/>
-        <v>1772.7272727272727</v>
-      </c>
-      <c r="F55">
-        <v>0.96590909090909094</v>
-      </c>
-      <c r="G55">
-        <v>-3.4090909090909088E-2</v>
-      </c>
-      <c r="H55">
-        <f t="shared" si="94"/>
-        <v>9659.0909090909099</v>
-      </c>
-      <c r="I55">
-        <f t="shared" si="95"/>
-        <v>-340.90909090909088</v>
-      </c>
       <c r="K55">
         <v>-4.5454545454545456E-2</v>
       </c>
@@ -3578,41 +3258,15 @@
         <v>-4.0909090909090909E-2</v>
       </c>
       <c r="M55">
-        <f t="shared" si="96"/>
+        <f t="shared" si="90"/>
         <v>-454.54545454545456</v>
       </c>
       <c r="N55">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>-409.09090909090907</v>
       </c>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>1</v>
-      </c>
-      <c r="B56">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="C56">
-        <v>0.52156862745098043</v>
-      </c>
-      <c r="D56">
-        <v>0.38823529411764707</v>
-      </c>
-      <c r="F56">
-        <v>0.92045454545454541</v>
-      </c>
-      <c r="G56">
-        <v>-5.6818181818181816E-2</v>
-      </c>
-      <c r="H56">
-        <f t="shared" si="94"/>
-        <v>9204.545454545454</v>
-      </c>
-      <c r="I56">
-        <f t="shared" si="95"/>
-        <v>-568.18181818181813</v>
-      </c>
       <c r="K56">
         <v>3.1818181818181815E-2</v>
       </c>
@@ -3620,11 +3274,11 @@
         <v>-6.363636363636363E-2</v>
       </c>
       <c r="M56">
-        <f t="shared" si="96"/>
+        <f t="shared" si="90"/>
         <v>318.18181818181813</v>
       </c>
       <c r="N56">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>-636.36363636363626</v>
       </c>
       <c r="Q56" t="s">
@@ -3641,20 +3295,6 @@
       </c>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="F57">
-        <v>0.8136363636363636</v>
-      </c>
-      <c r="G57">
-        <v>-8.4090909090909091E-2</v>
-      </c>
-      <c r="H57">
-        <f t="shared" si="94"/>
-        <v>8136.363636363636</v>
-      </c>
-      <c r="I57">
-        <f t="shared" si="95"/>
-        <v>-840.90909090909088</v>
-      </c>
       <c r="K57">
         <v>6.8181818181818177E-2</v>
       </c>
@@ -3662,11 +3302,11 @@
         <v>-6.8181818181818177E-2</v>
       </c>
       <c r="M57">
-        <f t="shared" si="96"/>
+        <f t="shared" si="90"/>
         <v>681.81818181818176</v>
       </c>
       <c r="N57">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>-681.81818181818176</v>
       </c>
       <c r="Q57">
@@ -3735,20 +3375,6 @@
       </c>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="F58">
-        <v>0.8136363636363636</v>
-      </c>
-      <c r="G58">
-        <v>8.4090909090909091E-2</v>
-      </c>
-      <c r="H58">
-        <f t="shared" si="94"/>
-        <v>8136.363636363636</v>
-      </c>
-      <c r="I58">
-        <f t="shared" si="95"/>
-        <v>840.90909090909088</v>
-      </c>
       <c r="K58">
         <v>0.11363636363636363</v>
       </c>
@@ -3756,75 +3382,75 @@
         <v>-4.5454545454545456E-2</v>
       </c>
       <c r="M58">
-        <f t="shared" si="96"/>
+        <f t="shared" si="90"/>
         <v>1136.3636363636363</v>
       </c>
       <c r="N58">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>-454.54545454545456</v>
       </c>
       <c r="Q58">
-        <f t="shared" ref="Q58:R58" si="106">Q25/44</f>
+        <f t="shared" ref="Q58:R58" si="100">Q25/44</f>
         <v>-0.38636363636363635</v>
       </c>
       <c r="R58">
+        <f t="shared" si="100"/>
+        <v>-0.05</v>
+      </c>
+      <c r="S58">
+        <f t="shared" ref="S58:S63" si="101">10000*Q58</f>
+        <v>-3863.6363636363635</v>
+      </c>
+      <c r="T58">
+        <f t="shared" ref="T58:T63" si="102">10000*R58</f>
+        <v>-500</v>
+      </c>
+      <c r="U58">
+        <f t="shared" ref="U58:V58" si="103">U25/44</f>
+        <v>-0.52272727272727271</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="103"/>
+        <v>-0.05</v>
+      </c>
+      <c r="W58">
+        <f t="shared" ref="W58:W63" si="104">10000*U58</f>
+        <v>-5227.272727272727</v>
+      </c>
+      <c r="X58">
+        <f t="shared" ref="X58:X63" si="105">10000*V58</f>
+        <v>-500</v>
+      </c>
+      <c r="Y58">
+        <f t="shared" ref="Y58:Z58" si="106">Y25/44</f>
+        <v>0.50454545454545452</v>
+      </c>
+      <c r="Z58">
         <f t="shared" si="106"/>
         <v>-0.05</v>
       </c>
-      <c r="S58">
-        <f t="shared" ref="S58:S63" si="107">10000*Q58</f>
-        <v>-3863.6363636363635</v>
-      </c>
-      <c r="T58">
-        <f t="shared" ref="T58:T63" si="108">10000*R58</f>
+      <c r="AA58">
+        <f t="shared" ref="AA58:AA63" si="107">10000*Y58</f>
+        <v>5045.454545454545</v>
+      </c>
+      <c r="AB58">
+        <f t="shared" ref="AB58:AB63" si="108">10000*Z58</f>
         <v>-500</v>
       </c>
-      <c r="U58">
-        <f t="shared" ref="U58:V58" si="109">U25/44</f>
-        <v>-0.52272727272727271</v>
-      </c>
-      <c r="V58">
+      <c r="AC58">
+        <f t="shared" ref="AC58:AD58" si="109">AC25/44</f>
+        <v>0.64090909090909087</v>
+      </c>
+      <c r="AD58">
         <f t="shared" si="109"/>
         <v>-0.05</v>
       </c>
-      <c r="W58">
-        <f t="shared" ref="W58:W63" si="110">10000*U58</f>
-        <v>-5227.272727272727</v>
-      </c>
-      <c r="X58">
-        <f t="shared" ref="X58:X63" si="111">10000*V58</f>
-        <v>-500</v>
-      </c>
-      <c r="Y58">
-        <f t="shared" ref="Y58:Z58" si="112">Y25/44</f>
-        <v>0.50454545454545452</v>
-      </c>
-      <c r="Z58">
-        <f t="shared" si="112"/>
-        <v>-0.05</v>
-      </c>
-      <c r="AA58">
-        <f t="shared" ref="AA58:AA63" si="113">10000*Y58</f>
-        <v>5045.454545454545</v>
-      </c>
-      <c r="AB58">
-        <f t="shared" ref="AB58:AB63" si="114">10000*Z58</f>
-        <v>-500</v>
-      </c>
-      <c r="AC58">
-        <f t="shared" ref="AC58:AD58" si="115">AC25/44</f>
-        <v>0.64090909090909087</v>
-      </c>
-      <c r="AD58">
-        <f t="shared" si="115"/>
-        <v>-0.05</v>
-      </c>
       <c r="AE58">
-        <f t="shared" ref="AE58:AE63" si="116">10000*AC58</f>
+        <f t="shared" ref="AE58:AE63" si="110">10000*AC58</f>
         <v>6409.090909090909</v>
       </c>
       <c r="AF58">
-        <f t="shared" ref="AF58:AF63" si="117">10000*AD58</f>
+        <f t="shared" ref="AF58:AF63" si="111">10000*AD58</f>
         <v>-500</v>
       </c>
     </row>
@@ -3836,75 +3462,75 @@
         <v>4.5454545454545456E-2</v>
       </c>
       <c r="M59">
-        <f t="shared" si="96"/>
+        <f t="shared" si="90"/>
         <v>1136.3636363636363</v>
       </c>
       <c r="N59">
-        <f t="shared" si="97"/>
+        <f t="shared" si="91"/>
         <v>454.54545454545456</v>
       </c>
       <c r="Q59">
-        <f t="shared" ref="Q59:R59" si="118">Q26/44</f>
+        <f t="shared" ref="Q59:R59" si="112">Q26/44</f>
         <v>-0.39318181818181819</v>
       </c>
       <c r="R59">
-        <f t="shared" si="118"/>
+        <f t="shared" si="112"/>
         <v>-0.05</v>
       </c>
       <c r="S59">
+        <f t="shared" si="101"/>
+        <v>-3931.818181818182</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="102"/>
+        <v>-500</v>
+      </c>
+      <c r="U59">
+        <f t="shared" ref="U59:V59" si="113">U26/44</f>
+        <v>-0.52954545454545454</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="113"/>
+        <v>-0.05</v>
+      </c>
+      <c r="W59">
+        <f t="shared" si="104"/>
+        <v>-5295.454545454545</v>
+      </c>
+      <c r="X59">
+        <f t="shared" si="105"/>
+        <v>-500</v>
+      </c>
+      <c r="Y59">
+        <f t="shared" ref="Y59:Z59" si="114">Y26/44</f>
+        <v>0.49772727272727268</v>
+      </c>
+      <c r="Z59">
+        <f t="shared" si="114"/>
+        <v>-0.05</v>
+      </c>
+      <c r="AA59">
         <f t="shared" si="107"/>
-        <v>-3931.818181818182</v>
-      </c>
-      <c r="T59">
+        <v>4977.272727272727</v>
+      </c>
+      <c r="AB59">
         <f t="shared" si="108"/>
         <v>-500</v>
       </c>
-      <c r="U59">
-        <f t="shared" ref="U59:V59" si="119">U26/44</f>
-        <v>-0.52954545454545454</v>
-      </c>
-      <c r="V59">
-        <f t="shared" si="119"/>
+      <c r="AC59">
+        <f t="shared" ref="AC59:AD59" si="115">AC26/44</f>
+        <v>0.63409090909090904</v>
+      </c>
+      <c r="AD59">
+        <f t="shared" si="115"/>
         <v>-0.05</v>
       </c>
-      <c r="W59">
+      <c r="AE59">
         <f t="shared" si="110"/>
-        <v>-5295.454545454545</v>
-      </c>
-      <c r="X59">
+        <v>6340.9090909090901</v>
+      </c>
+      <c r="AF59">
         <f t="shared" si="111"/>
-        <v>-500</v>
-      </c>
-      <c r="Y59">
-        <f t="shared" ref="Y59:Z59" si="120">Y26/44</f>
-        <v>0.49772727272727268</v>
-      </c>
-      <c r="Z59">
-        <f t="shared" si="120"/>
-        <v>-0.05</v>
-      </c>
-      <c r="AA59">
-        <f t="shared" si="113"/>
-        <v>4977.272727272727</v>
-      </c>
-      <c r="AB59">
-        <f t="shared" si="114"/>
-        <v>-500</v>
-      </c>
-      <c r="AC59">
-        <f t="shared" ref="AC59:AD59" si="121">AC26/44</f>
-        <v>0.63409090909090904</v>
-      </c>
-      <c r="AD59">
-        <f t="shared" si="121"/>
-        <v>-0.05</v>
-      </c>
-      <c r="AE59">
-        <f t="shared" si="116"/>
-        <v>6340.9090909090901</v>
-      </c>
-      <c r="AF59">
-        <f t="shared" si="117"/>
         <v>-500</v>
       </c>
     </row>
@@ -3919,139 +3545,139 @@
         <v>0.41960784313725491</v>
       </c>
       <c r="Q60">
-        <f t="shared" ref="Q60:R60" si="122">Q27/44</f>
+        <f t="shared" ref="Q60:R60" si="116">Q27/44</f>
         <v>-0.39772727272727271</v>
       </c>
       <c r="R60">
-        <f t="shared" si="122"/>
+        <f t="shared" si="116"/>
         <v>-5.6818181818181816E-2</v>
       </c>
       <c r="S60">
+        <f t="shared" si="101"/>
+        <v>-3977.272727272727</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="102"/>
+        <v>-568.18181818181813</v>
+      </c>
+      <c r="U60">
+        <f t="shared" ref="U60:V60" si="117">U27/44</f>
+        <v>-0.53409090909090906</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="117"/>
+        <v>-5.6818181818181816E-2</v>
+      </c>
+      <c r="W60">
+        <f t="shared" si="104"/>
+        <v>-5340.909090909091</v>
+      </c>
+      <c r="X60">
+        <f t="shared" si="105"/>
+        <v>-568.18181818181813</v>
+      </c>
+      <c r="Y60">
+        <f t="shared" ref="Y60:Z60" si="118">Y27/44</f>
+        <v>0.49318181818181817</v>
+      </c>
+      <c r="Z60">
+        <f t="shared" si="118"/>
+        <v>-5.6818181818181816E-2</v>
+      </c>
+      <c r="AA60">
         <f t="shared" si="107"/>
-        <v>-3977.272727272727</v>
-      </c>
-      <c r="T60">
+        <v>4931.818181818182</v>
+      </c>
+      <c r="AB60">
         <f t="shared" si="108"/>
         <v>-568.18181818181813</v>
       </c>
-      <c r="U60">
-        <f t="shared" ref="U60:V60" si="123">U27/44</f>
-        <v>-0.53409090909090906</v>
-      </c>
-      <c r="V60">
-        <f t="shared" si="123"/>
+      <c r="AC60">
+        <f t="shared" ref="AC60:AD60" si="119">AC27/44</f>
+        <v>0.62954545454545452</v>
+      </c>
+      <c r="AD60">
+        <f t="shared" si="119"/>
         <v>-5.6818181818181816E-2</v>
       </c>
-      <c r="W60">
+      <c r="AE60">
         <f t="shared" si="110"/>
-        <v>-5340.909090909091</v>
-      </c>
-      <c r="X60">
+        <v>6295.454545454545</v>
+      </c>
+      <c r="AF60">
         <f t="shared" si="111"/>
         <v>-568.18181818181813</v>
       </c>
-      <c r="Y60">
-        <f t="shared" ref="Y60:Z60" si="124">Y27/44</f>
-        <v>0.49318181818181817</v>
-      </c>
-      <c r="Z60">
-        <f t="shared" si="124"/>
-        <v>-5.6818181818181816E-2</v>
-      </c>
-      <c r="AA60">
-        <f t="shared" si="113"/>
-        <v>4931.818181818182</v>
-      </c>
-      <c r="AB60">
-        <f t="shared" si="114"/>
-        <v>-568.18181818181813</v>
-      </c>
-      <c r="AC60">
-        <f t="shared" ref="AC60:AD60" si="125">AC27/44</f>
-        <v>0.62954545454545452</v>
-      </c>
-      <c r="AD60">
-        <f t="shared" si="125"/>
-        <v>-5.6818181818181816E-2</v>
-      </c>
-      <c r="AE60">
-        <f t="shared" si="116"/>
-        <v>6295.454545454545</v>
-      </c>
-      <c r="AF60">
-        <f t="shared" si="117"/>
-        <v>-568.18181818181813</v>
-      </c>
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="Q61">
-        <f t="shared" ref="Q61:R61" si="126">Q28/44</f>
+        <f t="shared" ref="Q61:R61" si="120">Q28/44</f>
         <v>-0.39318181818181819</v>
       </c>
       <c r="R61">
-        <f t="shared" si="126"/>
+        <f t="shared" si="120"/>
         <v>-0.13181818181818181</v>
       </c>
       <c r="S61">
+        <f t="shared" si="101"/>
+        <v>-3931.818181818182</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="102"/>
+        <v>-1318.181818181818</v>
+      </c>
+      <c r="U61">
+        <f t="shared" ref="U61:V61" si="121">U28/44</f>
+        <v>-0.52954545454545454</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="121"/>
+        <v>-0.13181818181818181</v>
+      </c>
+      <c r="W61">
+        <f t="shared" si="104"/>
+        <v>-5295.454545454545</v>
+      </c>
+      <c r="X61">
+        <f t="shared" si="105"/>
+        <v>-1318.181818181818</v>
+      </c>
+      <c r="Y61">
+        <f t="shared" ref="Y61:Z61" si="122">Y28/44</f>
+        <v>0.49772727272727268</v>
+      </c>
+      <c r="Z61">
+        <f t="shared" si="122"/>
+        <v>-0.13181818181818181</v>
+      </c>
+      <c r="AA61">
         <f t="shared" si="107"/>
-        <v>-3931.818181818182</v>
-      </c>
-      <c r="T61">
+        <v>4977.272727272727</v>
+      </c>
+      <c r="AB61">
         <f t="shared" si="108"/>
         <v>-1318.181818181818</v>
       </c>
-      <c r="U61">
-        <f t="shared" ref="U61:V61" si="127">U28/44</f>
-        <v>-0.52954545454545454</v>
-      </c>
-      <c r="V61">
-        <f t="shared" si="127"/>
+      <c r="AC61">
+        <f t="shared" ref="AC61:AD61" si="123">AC28/44</f>
+        <v>0.63409090909090904</v>
+      </c>
+      <c r="AD61">
+        <f t="shared" si="123"/>
         <v>-0.13181818181818181</v>
       </c>
-      <c r="W61">
+      <c r="AE61">
         <f t="shared" si="110"/>
-        <v>-5295.454545454545</v>
-      </c>
-      <c r="X61">
+        <v>6340.9090909090901</v>
+      </c>
+      <c r="AF61">
         <f t="shared" si="111"/>
-        <v>-1318.181818181818</v>
-      </c>
-      <c r="Y61">
-        <f t="shared" ref="Y61:Z61" si="128">Y28/44</f>
-        <v>0.49772727272727268</v>
-      </c>
-      <c r="Z61">
-        <f t="shared" si="128"/>
-        <v>-0.13181818181818181</v>
-      </c>
-      <c r="AA61">
-        <f t="shared" si="113"/>
-        <v>4977.272727272727</v>
-      </c>
-      <c r="AB61">
-        <f t="shared" si="114"/>
-        <v>-1318.181818181818</v>
-      </c>
-      <c r="AC61">
-        <f t="shared" ref="AC61:AD61" si="129">AC28/44</f>
-        <v>0.63409090909090904</v>
-      </c>
-      <c r="AD61">
-        <f t="shared" si="129"/>
-        <v>-0.13181818181818181</v>
-      </c>
-      <c r="AE61">
-        <f t="shared" si="116"/>
-        <v>6340.9090909090901</v>
-      </c>
-      <c r="AF61">
-        <f t="shared" si="117"/>
         <v>-1318.181818181818</v>
       </c>
     </row>
@@ -4085,67 +3711,67 @@
         <v>590.90909090909088</v>
       </c>
       <c r="Q62">
-        <f t="shared" ref="Q62:R62" si="130">Q29/44</f>
+        <f t="shared" ref="Q62:R62" si="124">Q29/44</f>
         <v>-0.38636363636363635</v>
       </c>
       <c r="R62">
-        <f t="shared" si="130"/>
+        <f t="shared" si="124"/>
         <v>-0.13181818181818181</v>
       </c>
       <c r="S62">
+        <f t="shared" si="101"/>
+        <v>-3863.6363636363635</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="102"/>
+        <v>-1318.181818181818</v>
+      </c>
+      <c r="U62">
+        <f t="shared" ref="U62:V62" si="125">U29/44</f>
+        <v>-0.52272727272727271</v>
+      </c>
+      <c r="V62">
+        <f t="shared" si="125"/>
+        <v>-0.13181818181818181</v>
+      </c>
+      <c r="W62">
+        <f t="shared" si="104"/>
+        <v>-5227.272727272727</v>
+      </c>
+      <c r="X62">
+        <f t="shared" si="105"/>
+        <v>-1318.181818181818</v>
+      </c>
+      <c r="Y62">
+        <f t="shared" ref="Y62:Z62" si="126">Y29/44</f>
+        <v>0.50454545454545452</v>
+      </c>
+      <c r="Z62">
+        <f t="shared" si="126"/>
+        <v>-0.13181818181818181</v>
+      </c>
+      <c r="AA62">
         <f t="shared" si="107"/>
-        <v>-3863.6363636363635</v>
-      </c>
-      <c r="T62">
+        <v>5045.454545454545</v>
+      </c>
+      <c r="AB62">
         <f t="shared" si="108"/>
         <v>-1318.181818181818</v>
       </c>
-      <c r="U62">
-        <f t="shared" ref="U62:V62" si="131">U29/44</f>
-        <v>-0.52272727272727271</v>
-      </c>
-      <c r="V62">
-        <f t="shared" si="131"/>
+      <c r="AC62">
+        <f t="shared" ref="AC62:AD62" si="127">AC29/44</f>
+        <v>0.64090909090909087</v>
+      </c>
+      <c r="AD62">
+        <f t="shared" si="127"/>
         <v>-0.13181818181818181</v>
       </c>
-      <c r="W62">
+      <c r="AE62">
         <f t="shared" si="110"/>
-        <v>-5227.272727272727</v>
-      </c>
-      <c r="X62">
+        <v>6409.090909090909</v>
+      </c>
+      <c r="AF62">
         <f t="shared" si="111"/>
-        <v>-1318.181818181818</v>
-      </c>
-      <c r="Y62">
-        <f t="shared" ref="Y62:Z62" si="132">Y29/44</f>
-        <v>0.50454545454545452</v>
-      </c>
-      <c r="Z62">
-        <f t="shared" si="132"/>
-        <v>-0.13181818181818181</v>
-      </c>
-      <c r="AA62">
-        <f t="shared" si="113"/>
-        <v>5045.454545454545</v>
-      </c>
-      <c r="AB62">
-        <f t="shared" si="114"/>
-        <v>-1318.181818181818</v>
-      </c>
-      <c r="AC62">
-        <f t="shared" ref="AC62:AD62" si="133">AC29/44</f>
-        <v>0.64090909090909087</v>
-      </c>
-      <c r="AD62">
-        <f t="shared" si="133"/>
-        <v>-0.13181818181818181</v>
-      </c>
-      <c r="AE62">
-        <f t="shared" si="116"/>
-        <v>6409.090909090909</v>
-      </c>
-      <c r="AF62">
-        <f t="shared" si="117"/>
         <v>-1318.181818181818</v>
       </c>
     </row>
@@ -4157,11 +3783,11 @@
         <v>5.6818181818181816E-2</v>
       </c>
       <c r="C63">
-        <f t="shared" ref="C63:C68" si="134">10000*A63</f>
+        <f t="shared" ref="C63:C68" si="128">10000*A63</f>
         <v>-1022.7272727272727</v>
       </c>
       <c r="D63">
-        <f t="shared" ref="D63:D68" si="135">10000*B63</f>
+        <f t="shared" ref="D63:D68" si="129">10000*B63</f>
         <v>568.18181818181813</v>
       </c>
       <c r="F63">
@@ -4171,75 +3797,75 @@
         <v>6.8181818181818177E-2</v>
       </c>
       <c r="H63">
-        <f t="shared" ref="H63:H70" si="136">10000*F63</f>
+        <f t="shared" ref="H63:H70" si="130">10000*F63</f>
         <v>-1727.2727272727273</v>
       </c>
       <c r="I63">
-        <f t="shared" ref="I63:I70" si="137">10000*G63</f>
+        <f t="shared" ref="I63:I70" si="131">10000*G63</f>
         <v>681.81818181818176</v>
       </c>
       <c r="Q63">
-        <f t="shared" ref="Q63:R63" si="138">Q30/44</f>
+        <f t="shared" ref="Q63:R63" si="132">Q30/44</f>
         <v>-0.38181818181818183</v>
       </c>
       <c r="R63">
-        <f t="shared" si="138"/>
+        <f t="shared" si="132"/>
         <v>-5.6818181818181816E-2</v>
       </c>
       <c r="S63">
+        <f t="shared" si="101"/>
+        <v>-3818.1818181818185</v>
+      </c>
+      <c r="T63">
+        <f t="shared" si="102"/>
+        <v>-568.18181818181813</v>
+      </c>
+      <c r="U63">
+        <f t="shared" ref="U63:V63" si="133">U30/44</f>
+        <v>-0.51818181818181819</v>
+      </c>
+      <c r="V63">
+        <f t="shared" si="133"/>
+        <v>-5.6818181818181816E-2</v>
+      </c>
+      <c r="W63">
+        <f t="shared" si="104"/>
+        <v>-5181.818181818182</v>
+      </c>
+      <c r="X63">
+        <f t="shared" si="105"/>
+        <v>-568.18181818181813</v>
+      </c>
+      <c r="Y63">
+        <f t="shared" ref="Y63:Z63" si="134">Y30/44</f>
+        <v>0.50909090909090904</v>
+      </c>
+      <c r="Z63">
+        <f t="shared" si="134"/>
+        <v>-5.6818181818181816E-2</v>
+      </c>
+      <c r="AA63">
         <f t="shared" si="107"/>
-        <v>-3818.1818181818185</v>
-      </c>
-      <c r="T63">
+        <v>5090.9090909090901</v>
+      </c>
+      <c r="AB63">
         <f t="shared" si="108"/>
         <v>-568.18181818181813</v>
       </c>
-      <c r="U63">
-        <f t="shared" ref="U63:V63" si="139">U30/44</f>
-        <v>-0.51818181818181819</v>
-      </c>
-      <c r="V63">
-        <f t="shared" si="139"/>
+      <c r="AC63">
+        <f t="shared" ref="AC63:AD63" si="135">AC30/44</f>
+        <v>0.64545454545454539</v>
+      </c>
+      <c r="AD63">
+        <f t="shared" si="135"/>
         <v>-5.6818181818181816E-2</v>
       </c>
-      <c r="W63">
+      <c r="AE63">
         <f t="shared" si="110"/>
-        <v>-5181.818181818182</v>
-      </c>
-      <c r="X63">
+        <v>6454.545454545454</v>
+      </c>
+      <c r="AF63">
         <f t="shared" si="111"/>
-        <v>-568.18181818181813</v>
-      </c>
-      <c r="Y63">
-        <f t="shared" ref="Y63:Z63" si="140">Y30/44</f>
-        <v>0.50909090909090904</v>
-      </c>
-      <c r="Z63">
-        <f t="shared" si="140"/>
-        <v>-5.6818181818181816E-2</v>
-      </c>
-      <c r="AA63">
-        <f t="shared" si="113"/>
-        <v>5090.9090909090901</v>
-      </c>
-      <c r="AB63">
-        <f t="shared" si="114"/>
-        <v>-568.18181818181813</v>
-      </c>
-      <c r="AC63">
-        <f t="shared" ref="AC63:AD63" si="141">AC30/44</f>
-        <v>0.64545454545454539</v>
-      </c>
-      <c r="AD63">
-        <f t="shared" si="141"/>
-        <v>-5.6818181818181816E-2</v>
-      </c>
-      <c r="AE63">
-        <f t="shared" si="116"/>
-        <v>6454.545454545454</v>
-      </c>
-      <c r="AF63">
-        <f t="shared" si="117"/>
         <v>-568.18181818181813</v>
       </c>
     </row>
@@ -4251,11 +3877,11 @@
         <v>5.909090909090909E-2</v>
       </c>
       <c r="C64">
-        <f t="shared" si="134"/>
+        <f t="shared" si="128"/>
         <v>-1363.6363636363635</v>
       </c>
       <c r="D64">
-        <f t="shared" si="135"/>
+        <f t="shared" si="129"/>
         <v>590.90909090909088</v>
       </c>
       <c r="F64">
@@ -4265,11 +3891,11 @@
         <v>6.8181818181818177E-2</v>
       </c>
       <c r="H64">
-        <f t="shared" si="136"/>
+        <f t="shared" si="130"/>
         <v>-2386.3636363636365</v>
       </c>
       <c r="I64">
-        <f t="shared" si="137"/>
+        <f t="shared" si="131"/>
         <v>681.81818181818176</v>
       </c>
       <c r="Q64" t="s">
@@ -4293,11 +3919,11 @@
         <v>-5.9090909090909097E-2</v>
       </c>
       <c r="C65">
-        <f t="shared" si="134"/>
+        <f t="shared" si="128"/>
         <v>-1363.6363636363635</v>
       </c>
       <c r="D65">
-        <f t="shared" si="135"/>
+        <f t="shared" si="129"/>
         <v>-590.90909090909099</v>
       </c>
       <c r="F65">
@@ -4307,11 +3933,11 @@
         <v>2.2727272727272728E-2</v>
       </c>
       <c r="H65">
-        <f t="shared" si="136"/>
+        <f t="shared" si="130"/>
         <v>-3068.181818181818</v>
       </c>
       <c r="I65">
-        <f t="shared" si="137"/>
+        <f t="shared" si="131"/>
         <v>227.27272727272728</v>
       </c>
       <c r="Q65">
@@ -4319,11 +3945,11 @@
         <v>0.27843137254901962</v>
       </c>
       <c r="R65">
-        <f t="shared" ref="R65:S65" si="142">R32/255</f>
+        <f t="shared" ref="R65:S65" si="136">R32/255</f>
         <v>0.27843137254901962</v>
       </c>
       <c r="S65">
-        <f t="shared" si="142"/>
+        <f t="shared" si="136"/>
         <v>0.27843137254901962</v>
       </c>
       <c r="U65">
@@ -4331,11 +3957,11 @@
         <v>0.27843137254901962</v>
       </c>
       <c r="V65">
-        <f t="shared" ref="V65:W65" si="143">V32/255</f>
+        <f t="shared" ref="V65:W65" si="137">V32/255</f>
         <v>0.27843137254901962</v>
       </c>
       <c r="W65">
-        <f t="shared" si="143"/>
+        <f t="shared" si="137"/>
         <v>0.27843137254901962</v>
       </c>
       <c r="Y65">
@@ -4343,11 +3969,11 @@
         <v>0.27843137254901962</v>
       </c>
       <c r="Z65">
-        <f t="shared" ref="Z65:AA65" si="144">Z32/255</f>
+        <f t="shared" ref="Z65:AA65" si="138">Z32/255</f>
         <v>0.27843137254901962</v>
       </c>
       <c r="AA65">
-        <f t="shared" si="144"/>
+        <f t="shared" si="138"/>
         <v>0.27843137254901962</v>
       </c>
       <c r="AC65">
@@ -4355,11 +3981,11 @@
         <v>0.27843137254901962</v>
       </c>
       <c r="AD65">
-        <f t="shared" ref="AD65:AE65" si="145">AD32/255</f>
+        <f t="shared" ref="AD65:AE65" si="139">AD32/255</f>
         <v>0.27843137254901962</v>
       </c>
       <c r="AE65">
-        <f t="shared" si="145"/>
+        <f t="shared" si="139"/>
         <v>0.27843137254901962</v>
       </c>
     </row>
@@ -4371,11 +3997,11 @@
         <v>-5.6818181818181802E-2</v>
       </c>
       <c r="C66">
-        <f t="shared" si="134"/>
+        <f t="shared" si="128"/>
         <v>-1022.7272727272727</v>
       </c>
       <c r="D66">
-        <f t="shared" si="135"/>
+        <f t="shared" si="129"/>
         <v>-568.18181818181802</v>
       </c>
       <c r="F66">
@@ -4385,11 +4011,11 @@
         <v>-2.2727272727272728E-2</v>
       </c>
       <c r="H66">
-        <f t="shared" si="136"/>
+        <f t="shared" si="130"/>
         <v>-3068.181818181818</v>
       </c>
       <c r="I66">
-        <f t="shared" si="137"/>
+        <f t="shared" si="131"/>
         <v>-227.27272727272728</v>
       </c>
     </row>
@@ -4401,11 +4027,11 @@
         <v>-4.0909090909090902E-2</v>
       </c>
       <c r="C67">
-        <f t="shared" si="134"/>
+        <f t="shared" si="128"/>
         <v>-454.54545454545456</v>
       </c>
       <c r="D67">
-        <f t="shared" si="135"/>
+        <f t="shared" si="129"/>
         <v>-409.09090909090901</v>
       </c>
       <c r="F67">
@@ -4415,11 +4041,11 @@
         <v>-6.8181818181818177E-2</v>
       </c>
       <c r="H67">
-        <f t="shared" si="136"/>
+        <f t="shared" si="130"/>
         <v>-2386.3636363636365</v>
       </c>
       <c r="I67">
-        <f t="shared" si="137"/>
+        <f t="shared" si="131"/>
         <v>-681.81818181818176</v>
       </c>
     </row>
@@ -4431,11 +4057,11 @@
         <v>4.0909090909090909E-2</v>
       </c>
       <c r="C68">
-        <f t="shared" si="134"/>
+        <f t="shared" si="128"/>
         <v>-454.54545454545456</v>
       </c>
       <c r="D68">
-        <f t="shared" si="135"/>
+        <f t="shared" si="129"/>
         <v>409.09090909090907</v>
       </c>
       <c r="F68">
@@ -4445,11 +4071,11 @@
         <v>-6.8181818181818177E-2</v>
       </c>
       <c r="H68">
-        <f t="shared" si="136"/>
+        <f t="shared" si="130"/>
         <v>-1727.2727272727273</v>
       </c>
       <c r="I68">
-        <f t="shared" si="137"/>
+        <f t="shared" si="131"/>
         <v>-681.81818181818176</v>
       </c>
     </row>
@@ -4461,11 +4087,11 @@
         <v>-5.909090909090909E-2</v>
       </c>
       <c r="H69">
-        <f t="shared" si="136"/>
+        <f t="shared" si="130"/>
         <v>-1363.6363636363635</v>
       </c>
       <c r="I69">
-        <f t="shared" si="137"/>
+        <f t="shared" si="131"/>
         <v>-590.90909090909088</v>
       </c>
     </row>
@@ -4477,11 +4103,11 @@
         <v>5.909090909090909E-2</v>
       </c>
       <c r="H70">
-        <f t="shared" si="136"/>
+        <f t="shared" si="130"/>
         <v>-1363.6363636363635</v>
       </c>
       <c r="I70">
-        <f t="shared" si="137"/>
+        <f t="shared" si="131"/>
         <v>590.90909090909088</v>
       </c>
     </row>
